--- a/sources/cdp/data/ldc_data_2018.xlsx
+++ b/sources/cdp/data/ldc_data_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomas.Gonzalez\datascrapper2\sources\cdp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A8DD09-512A-4C7A-A7F4-A119718653C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA2EEA4-8F59-46C3-9136-8CBF1F9AA2E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="195" windowWidth="18195" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1033,7 +1033,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="70" x14ac:knownFonts="1">
+  <fonts count="68" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1482,19 +1482,6 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2328,7 +2315,7 @@
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="67" fillId="0" borderId="0" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2404,10 +2391,6 @@
     <xf numFmtId="2" fontId="66" fillId="0" borderId="21" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="66" fillId="0" borderId="21" xfId="134" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="66" fillId="0" borderId="21" xfId="134" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="66" fillId="56" borderId="20" xfId="134" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="56" borderId="22" xfId="134" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="65" fillId="56" borderId="22" xfId="134" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2423,14 +2406,12 @@
     <xf numFmtId="2" fontId="65" fillId="56" borderId="22" xfId="134" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="56" borderId="20" xfId="134" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="65" fillId="56" borderId="20" xfId="134" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="65" fillId="56" borderId="20" xfId="134" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="66" fillId="56" borderId="20" xfId="134" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="67" fillId="0" borderId="10" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -2442,7 +2423,6 @@
     <xf numFmtId="165" fontId="66" fillId="0" borderId="21" xfId="134" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="66" fillId="0" borderId="21" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="31" fillId="0" borderId="21" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="68" fillId="56" borderId="22" xfId="134" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="66" fillId="0" borderId="21" xfId="134" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="66" fillId="0" borderId="24" xfId="134" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2460,7 +2440,6 @@
     <xf numFmtId="166" fontId="66" fillId="0" borderId="21" xfId="134" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="56" borderId="22" xfId="134" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="66" fillId="0" borderId="21" xfId="134" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2474,6 +2453,18 @@
     <xf numFmtId="0" fontId="66" fillId="0" borderId="21" xfId="134" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="66" fillId="0" borderId="26" xfId="134" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="56" borderId="22" xfId="134" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="65" fillId="56" borderId="20" xfId="134" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="56" borderId="20" xfId="134" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="65" fillId="56" borderId="20" xfId="134" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="188">
@@ -3002,8 +2993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AH8" sqref="AH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3021,122 +3012,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="71" t="s">
         <v>291</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="71" t="s">
         <v>292</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="71" t="s">
         <v>329</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="71" t="s">
         <v>327</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43" t="s">
+      <c r="E1" s="71"/>
+      <c r="F1" s="71" t="s">
         <v>328</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="44" t="s">
         <v>294</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="45" t="s">
         <v>295</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="44" t="s">
         <v>297</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="47" t="s">
         <v>298</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="44" t="s">
         <v>299</v>
       </c>
-      <c r="N1" s="50" t="s">
+      <c r="N1" s="72" t="s">
         <v>300</v>
       </c>
-      <c r="O1" s="55" t="s">
+      <c r="O1" s="51" t="s">
         <v>301</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="44" t="s">
         <v>302</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="44" t="s">
         <v>303</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="R1" s="44" t="s">
         <v>304</v>
       </c>
-      <c r="S1" s="44" t="s">
+      <c r="S1" s="70" t="s">
         <v>305</v>
       </c>
-      <c r="T1" s="50" t="s">
+      <c r="T1" s="72" t="s">
         <v>306</v>
       </c>
-      <c r="U1" s="55" t="s">
+      <c r="U1" s="51" t="s">
         <v>307</v>
       </c>
-      <c r="V1" s="46" t="s">
+      <c r="V1" s="44" t="s">
         <v>308</v>
       </c>
-      <c r="W1" s="51" t="s">
+      <c r="W1" s="48" t="s">
         <v>309</v>
       </c>
-      <c r="X1" s="46" t="s">
+      <c r="X1" s="44" t="s">
         <v>310</v>
       </c>
-      <c r="Y1" s="55" t="s">
+      <c r="Y1" s="51" t="s">
         <v>311</v>
       </c>
-      <c r="Z1" s="46" t="s">
+      <c r="Z1" s="44" t="s">
         <v>312</v>
       </c>
-      <c r="AA1" s="50" t="s">
+      <c r="AA1" s="72" t="s">
         <v>313</v>
       </c>
-      <c r="AB1" s="61" t="s">
+      <c r="AB1" s="70" t="s">
         <v>314</v>
       </c>
-      <c r="AC1" s="46" t="s">
+      <c r="AC1" s="44" t="s">
         <v>315</v>
       </c>
-      <c r="AD1" s="46" t="s">
+      <c r="AD1" s="44" t="s">
         <v>316</v>
       </c>
-      <c r="AE1" s="65" t="s">
+      <c r="AE1" s="60" t="s">
         <v>317</v>
       </c>
-      <c r="AF1" s="46" t="s">
+      <c r="AF1" s="44" t="s">
         <v>318</v>
       </c>
-      <c r="AG1" s="46" t="s">
+      <c r="AG1" s="44" t="s">
         <v>319</v>
       </c>
-      <c r="AH1" s="46" t="s">
+      <c r="AH1" s="44" t="s">
         <v>320</v>
       </c>
-      <c r="AI1" s="69" t="s">
+      <c r="AI1" s="70" t="s">
         <v>321</v>
       </c>
-      <c r="AJ1" s="52" t="s">
+      <c r="AJ1" s="49" t="s">
         <v>322</v>
       </c>
-      <c r="AK1" s="46" t="s">
+      <c r="AK1" s="44" t="s">
         <v>323</v>
       </c>
-      <c r="AL1" s="71" t="s">
+      <c r="AL1" s="65" t="s">
         <v>324</v>
       </c>
-      <c r="AM1" s="46" t="s">
+      <c r="AM1" s="44" t="s">
         <v>325</v>
       </c>
-      <c r="AN1" s="53" t="s">
+      <c r="AN1" s="73" t="s">
         <v>326</v>
       </c>
     </row>
@@ -3183,7 +3174,7 @@
       <c r="N2" s="14">
         <v>32.495719611391806</v>
       </c>
-      <c r="O2" s="56">
+      <c r="O2" s="52">
         <v>0.32266232863333333</v>
       </c>
       <c r="P2" s="14">
@@ -3201,7 +3192,7 @@
       <c r="T2" s="14">
         <v>54.3670024218751</v>
       </c>
-      <c r="U2" s="57">
+      <c r="U2" s="53">
         <v>1.6871801255950301</v>
       </c>
       <c r="V2" s="14">
@@ -3213,7 +3204,7 @@
       <c r="X2" s="18">
         <v>32.1460474514843</v>
       </c>
-      <c r="Y2" s="56">
+      <c r="Y2" s="52">
         <v>20.736181294542671</v>
       </c>
       <c r="Z2" s="18">
@@ -3222,7 +3213,7 @@
       <c r="AA2" s="21">
         <v>48.369840531332301</v>
       </c>
-      <c r="AB2" s="62">
+      <c r="AB2" s="57">
         <v>66.887595507109054</v>
       </c>
       <c r="AC2" s="18">
@@ -3231,7 +3222,7 @@
       <c r="AD2" s="18">
         <v>70</v>
       </c>
-      <c r="AE2" s="66">
+      <c r="AE2" s="61">
         <v>70.400000000000006</v>
       </c>
       <c r="AF2" s="18">
@@ -3243,7 +3234,7 @@
       <c r="AH2" s="18">
         <v>67.268847127387772</v>
       </c>
-      <c r="AI2" s="70">
+      <c r="AI2" s="64">
         <v>29.852085555555554</v>
       </c>
       <c r="AJ2" s="18">
@@ -3252,7 +3243,7 @@
       <c r="AK2" s="18">
         <v>8.988159999999997</v>
       </c>
-      <c r="AL2" s="72">
+      <c r="AL2" s="66">
         <v>55.644410000000001</v>
       </c>
       <c r="AM2" s="18">
@@ -3303,7 +3294,7 @@
       <c r="N3" s="14">
         <v>31.902702084018273</v>
       </c>
-      <c r="O3" s="56">
+      <c r="O3" s="52">
         <v>0.48625530006666667</v>
       </c>
       <c r="P3" s="14">
@@ -3321,7 +3312,7 @@
       <c r="T3" s="14">
         <v>34.664590930158582</v>
       </c>
-      <c r="U3" s="57">
+      <c r="U3" s="53">
         <v>7.0766388533724994E-2</v>
       </c>
       <c r="V3" s="14">
@@ -3333,7 +3324,7 @@
       <c r="X3" s="18">
         <v>34.465608075196812</v>
       </c>
-      <c r="Y3" s="56">
+      <c r="Y3" s="52">
         <v>4.1451911485625121</v>
       </c>
       <c r="Z3" s="18">
@@ -3342,7 +3333,7 @@
       <c r="AA3" s="21">
         <v>88.2602707538896</v>
       </c>
-      <c r="AB3" s="62">
+      <c r="AB3" s="57">
         <v>93.174180396668078</v>
       </c>
       <c r="AC3" s="18">
@@ -3351,7 +3342,7 @@
       <c r="AD3" s="18">
         <v>100</v>
       </c>
-      <c r="AE3" s="66">
+      <c r="AE3" s="61">
         <v>25.2</v>
       </c>
       <c r="AF3" s="18">
@@ -3363,7 +3354,7 @@
       <c r="AH3" s="18">
         <v>88.734662402125437</v>
       </c>
-      <c r="AI3" s="70">
+      <c r="AI3" s="64">
         <v>83.346361111111122</v>
       </c>
       <c r="AJ3" s="18">
@@ -3372,7 +3363,7 @@
       <c r="AK3" s="18">
         <v>66.848066666666668</v>
       </c>
-      <c r="AL3" s="72">
+      <c r="AL3" s="66">
         <v>99.860190000000003</v>
       </c>
       <c r="AM3" s="18">
@@ -3425,7 +3416,7 @@
       <c r="N4" s="14">
         <v>55.427574774865462</v>
       </c>
-      <c r="O4" s="56">
+      <c r="O4" s="52">
         <v>0.93251741026666668</v>
       </c>
       <c r="P4" s="14">
@@ -3443,7 +3434,7 @@
       <c r="T4" s="14">
         <v>50.565012581824746</v>
       </c>
-      <c r="U4" s="57">
+      <c r="U4" s="53">
         <v>0.67572983662229602</v>
       </c>
       <c r="V4" s="14">
@@ -3455,7 +3446,7 @@
       <c r="X4" s="18">
         <v>36.580381751226362</v>
       </c>
-      <c r="Y4" s="56">
+      <c r="Y4" s="52">
         <v>12.803107500932439</v>
       </c>
       <c r="Z4" s="18">
@@ -3464,7 +3455,7 @@
       <c r="AA4" s="21">
         <v>52.520436575516179</v>
       </c>
-      <c r="AB4" s="62">
+      <c r="AB4" s="57">
         <v>67.188177595476802</v>
       </c>
       <c r="AC4" s="18">
@@ -3473,7 +3464,7 @@
       <c r="AD4" s="18">
         <v>85</v>
       </c>
-      <c r="AE4" s="66">
+      <c r="AE4" s="61">
         <v>82.5</v>
       </c>
       <c r="AF4" s="18">
@@ -3485,7 +3476,7 @@
       <c r="AH4" s="18">
         <v>60.50392672582435</v>
       </c>
-      <c r="AI4" s="70">
+      <c r="AI4" s="64">
         <v>37.852695555555556</v>
       </c>
       <c r="AJ4" s="18">
@@ -3494,7 +3485,7 @@
       <c r="AK4" s="18">
         <v>54.706813333333329</v>
       </c>
-      <c r="AL4" s="72">
+      <c r="AL4" s="66">
         <v>28.898720000000001</v>
       </c>
       <c r="AM4" s="18">
@@ -3545,7 +3536,7 @@
       <c r="N5" s="14">
         <v>27.649044958399269</v>
       </c>
-      <c r="O5" s="56">
+      <c r="O5" s="52">
         <v>0.55788569690000001</v>
       </c>
       <c r="P5" s="14">
@@ -3563,7 +3554,7 @@
       <c r="T5" s="14">
         <v>47.878364068243435</v>
       </c>
-      <c r="U5" s="57">
+      <c r="U5" s="53">
         <v>2.1500546406244601</v>
       </c>
       <c r="V5" s="14">
@@ -3575,7 +3566,7 @@
       <c r="X5" s="18">
         <v>15.979219414530165</v>
       </c>
-      <c r="Y5" s="56">
+      <c r="Y5" s="52">
         <v>5.045651906414089</v>
       </c>
       <c r="Z5" s="18">
@@ -3584,7 +3575,7 @@
       <c r="AA5" s="21">
         <v>92.874883635638412</v>
       </c>
-      <c r="AB5" s="62">
+      <c r="AB5" s="57">
         <v>86.449767271276812</v>
       </c>
       <c r="AC5" s="23">
@@ -3593,7 +3584,7 @@
       <c r="AD5" s="18">
         <v>63.833333333333329</v>
       </c>
-      <c r="AE5" s="66">
+      <c r="AE5" s="61">
         <v>8.5</v>
       </c>
       <c r="AF5" s="18">
@@ -3605,7 +3596,7 @@
       <c r="AH5" s="18">
         <v>95.515968480497122</v>
       </c>
-      <c r="AI5" s="70">
+      <c r="AI5" s="64">
         <v>99.3</v>
       </c>
       <c r="AJ5" s="18">
@@ -3614,7 +3605,7 @@
       <c r="AK5" s="18">
         <v>98.6</v>
       </c>
-      <c r="AL5" s="72">
+      <c r="AL5" s="66">
         <v>102.70546</v>
       </c>
       <c r="AM5" s="18">
@@ -3665,7 +3656,7 @@
       <c r="N6" s="14">
         <v>10.686465778680347</v>
       </c>
-      <c r="O6" s="56">
+      <c r="O6" s="52">
         <v>0.19233691983333334</v>
       </c>
       <c r="P6" s="14">
@@ -3683,7 +3674,7 @@
       <c r="T6" s="14">
         <v>35.408839056747858</v>
       </c>
-      <c r="U6" s="57">
+      <c r="U6" s="53">
         <v>0.22196953388130997</v>
       </c>
       <c r="V6" s="14">
@@ -3695,7 +3686,7 @@
       <c r="X6" s="18">
         <v>20.914364060439592</v>
       </c>
-      <c r="Y6" s="56">
+      <c r="Y6" s="52">
         <v>5.5222847176890602</v>
       </c>
       <c r="Z6" s="18">
@@ -3704,7 +3695,7 @@
       <c r="AA6" s="21">
         <v>98.591306445796647</v>
       </c>
-      <c r="AB6" s="62">
+      <c r="AB6" s="57">
         <v>98.455946224926649</v>
       </c>
       <c r="AC6" s="18">
@@ -3713,7 +3704,7 @@
       <c r="AD6" s="18">
         <v>100</v>
       </c>
-      <c r="AE6" s="66">
+      <c r="AE6" s="61">
         <v>11.1</v>
       </c>
       <c r="AF6" s="18">
@@ -3725,7 +3716,7 @@
       <c r="AH6" s="18">
         <v>96.034505341446604</v>
       </c>
-      <c r="AI6" s="70">
+      <c r="AI6" s="64">
         <v>98.726666666666659</v>
       </c>
       <c r="AJ6" s="18">
@@ -3734,7 +3725,7 @@
       <c r="AK6" s="18">
         <v>97.453333333333333</v>
       </c>
-      <c r="AL6" s="72">
+      <c r="AL6" s="66">
         <v>106.7779</v>
       </c>
       <c r="AM6" s="18">
@@ -3785,7 +3776,7 @@
       <c r="N7" s="14">
         <v>23.87320061360121</v>
       </c>
-      <c r="O7" s="56">
+      <c r="O7" s="52">
         <v>0.25049295379999997</v>
       </c>
       <c r="P7" s="14">
@@ -3803,7 +3794,7 @@
       <c r="T7" s="14">
         <v>45.515028352648351</v>
       </c>
-      <c r="U7" s="57">
+      <c r="U7" s="53">
         <v>0.65173765642322601</v>
       </c>
       <c r="V7" s="14">
@@ -3815,7 +3806,7 @@
       <c r="X7" s="18">
         <v>26.956030930133483</v>
       </c>
-      <c r="Y7" s="56">
+      <c r="Y7" s="52">
         <v>12.433044899758295</v>
       </c>
       <c r="Z7" s="18">
@@ -3824,7 +3815,7 @@
       <c r="AA7" s="21">
         <v>96.094092517589729</v>
       </c>
-      <c r="AB7" s="62">
+      <c r="AB7" s="57">
         <v>98.746156146290545</v>
       </c>
       <c r="AC7" s="18">
@@ -3833,7 +3824,7 @@
       <c r="AD7" s="18">
         <v>100</v>
       </c>
-      <c r="AE7" s="66">
+      <c r="AE7" s="61">
         <v>13.4</v>
       </c>
       <c r="AF7" s="18">
@@ -3845,7 +3836,7 @@
       <c r="AH7" s="18">
         <v>98.299074499477697</v>
       </c>
-      <c r="AI7" s="70">
+      <c r="AI7" s="64">
         <v>93.442028888888899</v>
       </c>
       <c r="AJ7" s="23">
@@ -3854,7 +3845,7 @@
       <c r="AK7" s="18">
         <v>99.659213333333341</v>
       </c>
-      <c r="AL7" s="72">
+      <c r="AL7" s="66">
         <v>88.502359999999996</v>
       </c>
       <c r="AM7" s="18">
@@ -3905,7 +3896,7 @@
       <c r="N8" s="14">
         <v>44.744564650372723</v>
       </c>
-      <c r="O8" s="56">
+      <c r="O8" s="52">
         <v>0.78648190769999993</v>
       </c>
       <c r="P8" s="14">
@@ -3923,7 +3914,7 @@
       <c r="T8" s="14">
         <v>38.624793919126489</v>
       </c>
-      <c r="U8" s="57">
+      <c r="U8" s="53">
         <v>0.56566161735015197</v>
       </c>
       <c r="V8" s="14">
@@ -3935,7 +3926,7 @@
       <c r="X8" s="18">
         <v>15.039104767981076</v>
       </c>
-      <c r="Y8" s="56">
+      <c r="Y8" s="52">
         <v>13.334220539657027</v>
       </c>
       <c r="Z8" s="18">
@@ -3944,7 +3935,7 @@
       <c r="AA8" s="21">
         <v>97.539012134913435</v>
       </c>
-      <c r="AB8" s="62">
+      <c r="AB8" s="57">
         <v>95.217984269826886</v>
       </c>
       <c r="AC8" s="18">
@@ -3953,7 +3944,7 @@
       <c r="AD8" s="18">
         <v>100</v>
       </c>
-      <c r="AE8" s="66">
+      <c r="AE8" s="61">
         <v>30.9</v>
       </c>
       <c r="AF8" s="18">
@@ -3965,7 +3956,7 @@
       <c r="AH8" s="18">
         <v>98.320619476147314</v>
       </c>
-      <c r="AI8" s="70">
+      <c r="AI8" s="64">
         <v>99.860039999999998</v>
       </c>
       <c r="AJ8" s="18">
@@ -3974,7 +3965,7 @@
       <c r="AK8" s="18">
         <v>99.720079999999996</v>
       </c>
-      <c r="AL8" s="72">
+      <c r="AL8" s="66">
         <v>100.3</v>
       </c>
       <c r="AM8" s="18">
@@ -4025,7 +4016,7 @@
       <c r="N9" s="14">
         <v>24.316900382352941</v>
       </c>
-      <c r="O9" s="56">
+      <c r="O9" s="52">
         <v>0.51338730649999997</v>
       </c>
       <c r="P9" s="14">
@@ -4043,7 +4034,7 @@
       <c r="T9" s="14">
         <v>47.616031830358374</v>
       </c>
-      <c r="U9" s="57">
+      <c r="U9" s="53">
         <v>0.54461989761682295</v>
       </c>
       <c r="V9" s="14">
@@ -4055,7 +4046,7 @@
       <c r="X9" s="18">
         <v>33.520309980023612</v>
       </c>
-      <c r="Y9" s="56">
+      <c r="Y9" s="52">
         <v>4.0754814489413693</v>
       </c>
       <c r="Z9" s="18">
@@ -4064,7 +4055,7 @@
       <c r="AA9" s="21">
         <v>93.991416552357805</v>
       </c>
-      <c r="AB9" s="62">
+      <c r="AB9" s="57">
         <v>95.008566438048959</v>
       </c>
       <c r="AC9" s="18">
@@ -4073,7 +4064,7 @@
       <c r="AD9" s="18">
         <v>91.666666666666657</v>
       </c>
-      <c r="AE9" s="66">
+      <c r="AE9" s="61">
         <v>10.6</v>
       </c>
       <c r="AF9" s="18">
@@ -4085,7 +4076,7 @@
       <c r="AH9" s="18">
         <v>93.722669011116579</v>
       </c>
-      <c r="AI9" s="70">
+      <c r="AI9" s="64">
         <v>92.974266666666665</v>
       </c>
       <c r="AJ9" s="23">
@@ -4094,7 +4085,7 @@
       <c r="AK9" s="18">
         <v>94.133333333333326</v>
       </c>
-      <c r="AL9" s="72">
+      <c r="AL9" s="66">
         <v>92.633679999999998</v>
       </c>
       <c r="AM9" s="18">
@@ -4145,7 +4136,7 @@
       <c r="N10" s="14">
         <v>14.10254281568627</v>
       </c>
-      <c r="O10" s="56">
+      <c r="O10" s="52">
         <v>0.33974322786666661</v>
       </c>
       <c r="P10" s="14">
@@ -4163,7 +4154,7 @@
       <c r="T10" s="14">
         <v>28.653784618112788</v>
       </c>
-      <c r="U10" s="57">
+      <c r="U10" s="53">
         <v>0</v>
       </c>
       <c r="V10" s="14">
@@ -4175,7 +4166,7 @@
       <c r="X10" s="18">
         <v>57.307569236225575</v>
       </c>
-      <c r="Y10" s="56">
+      <c r="Y10" s="52">
         <v>6.9325150977101542</v>
       </c>
       <c r="Z10" s="18">
@@ -4184,7 +4175,7 @@
       <c r="AA10" s="21">
         <v>98.043599584640901</v>
       </c>
-      <c r="AB10" s="62">
+      <c r="AB10" s="57">
         <v>99.716005835948451</v>
       </c>
       <c r="AC10" s="18">
@@ -4193,7 +4184,7 @@
       <c r="AD10" s="18">
         <v>100</v>
       </c>
-      <c r="AE10" s="66">
+      <c r="AE10" s="61">
         <v>7.6</v>
       </c>
       <c r="AF10" s="18">
@@ -4205,7 +4196,7 @@
       <c r="AH10" s="18">
         <v>99.148017507845339</v>
       </c>
-      <c r="AI10" s="70">
+      <c r="AI10" s="64">
         <v>96.371193333333338</v>
       </c>
       <c r="AJ10" s="23">
@@ -4214,7 +4205,7 @@
       <c r="AK10" s="18">
         <v>92.742386666666675</v>
       </c>
-      <c r="AL10" s="72">
+      <c r="AL10" s="66">
         <v>102.1309</v>
       </c>
       <c r="AM10" s="18">
@@ -4267,7 +4258,7 @@
       <c r="N11" s="14">
         <v>30.215335031530252</v>
       </c>
-      <c r="O11" s="56">
+      <c r="O11" s="52">
         <v>0.4063136185666667</v>
       </c>
       <c r="P11" s="14">
@@ -4285,7 +4276,7 @@
       <c r="T11" s="14">
         <v>48.237652078544066</v>
       </c>
-      <c r="U11" s="57">
+      <c r="U11" s="53">
         <v>3.9734074765474401</v>
       </c>
       <c r="V11" s="14">
@@ -4297,7 +4288,7 @@
       <c r="X11" s="18">
         <v>8.6180867399047933</v>
       </c>
-      <c r="Y11" s="56">
+      <c r="Y11" s="52">
         <v>7.0883351075962873</v>
       </c>
       <c r="Z11" s="18">
@@ -4306,7 +4297,7 @@
       <c r="AA11" s="21">
         <v>73.150642668224947</v>
       </c>
-      <c r="AB11" s="62">
+      <c r="AB11" s="57">
         <v>84.72628866978323</v>
       </c>
       <c r="AC11" s="18">
@@ -4315,7 +4306,7 @@
       <c r="AD11" s="18">
         <v>83.166666666666671</v>
       </c>
-      <c r="AE11" s="66">
+      <c r="AE11" s="61">
         <v>34.200000000000003</v>
       </c>
       <c r="AF11" s="18">
@@ -4327,7 +4318,7 @@
       <c r="AH11" s="18">
         <v>85.678866009349704</v>
       </c>
-      <c r="AI11" s="70">
+      <c r="AI11" s="64">
         <v>61.574996666666657</v>
       </c>
       <c r="AJ11" s="18">
@@ -4336,7 +4327,7 @@
       <c r="AK11" s="18">
         <v>63.678293333333322</v>
       </c>
-      <c r="AL11" s="72">
+      <c r="AL11" s="66">
         <v>63.524529999999999</v>
       </c>
       <c r="AM11" s="18">
@@ -4387,7 +4378,7 @@
       <c r="N12" s="14">
         <v>4.6443189316487441</v>
       </c>
-      <c r="O12" s="56">
+      <c r="O12" s="52">
         <v>0.17111113936666666</v>
       </c>
       <c r="P12" s="14">
@@ -4405,7 +4396,7 @@
       <c r="T12" s="14">
         <v>27.679656276990684</v>
       </c>
-      <c r="U12" s="57">
+      <c r="U12" s="53">
         <v>9.7695339057561698E-2</v>
       </c>
       <c r="V12" s="14">
@@ -4417,7 +4408,7 @@
       <c r="X12" s="18">
         <v>16.253220157451214</v>
       </c>
-      <c r="Y12" s="56">
+      <c r="Y12" s="52">
         <v>7.4445330536006393</v>
       </c>
       <c r="Z12" s="18">
@@ -4426,7 +4417,7 @@
       <c r="AA12" s="21">
         <v>99.358550517639856</v>
       </c>
-      <c r="AB12" s="62">
+      <c r="AB12" s="57">
         <v>98.917101035279714</v>
       </c>
       <c r="AC12" s="18">
@@ -4435,7 +4426,7 @@
       <c r="AD12" s="18">
         <v>100</v>
       </c>
-      <c r="AE12" s="66">
+      <c r="AE12" s="61">
         <v>12.3</v>
       </c>
       <c r="AF12" s="18">
@@ -4447,7 +4438,7 @@
       <c r="AH12" s="18">
         <v>98.14524249977859</v>
       </c>
-      <c r="AI12" s="70">
+      <c r="AI12" s="64">
         <v>99.8</v>
       </c>
       <c r="AJ12" s="23">
@@ -4456,7 +4447,7 @@
       <c r="AK12" s="18">
         <v>99.6</v>
       </c>
-      <c r="AL12" s="72">
+      <c r="AL12" s="66">
         <v>109.24757</v>
       </c>
       <c r="AM12" s="18">
@@ -4507,7 +4498,7 @@
       <c r="N13" s="14">
         <v>21.455332727678094</v>
       </c>
-      <c r="O13" s="56">
+      <c r="O13" s="52">
         <v>0.28567002583333334</v>
       </c>
       <c r="P13" s="14">
@@ -4525,7 +4516,7 @@
       <c r="T13" s="14">
         <v>57.450137806632888</v>
       </c>
-      <c r="U13" s="57">
+      <c r="U13" s="53">
         <v>4.4995830184362697</v>
       </c>
       <c r="V13" s="14">
@@ -4537,7 +4528,7 @@
       <c r="X13" s="18">
         <v>25.406927518506023</v>
       </c>
-      <c r="Y13" s="56">
+      <c r="Y13" s="52">
         <v>6.0845195824526348</v>
       </c>
       <c r="Z13" s="18">
@@ -4546,7 +4537,7 @@
       <c r="AA13" s="21">
         <v>87.778555705663734</v>
       </c>
-      <c r="AB13" s="62">
+      <c r="AB13" s="57">
         <v>97.71022585577191</v>
       </c>
       <c r="AC13" s="18">
@@ -4555,7 +4546,7 @@
       <c r="AD13" s="18">
         <v>98</v>
       </c>
-      <c r="AE13" s="66">
+      <c r="AE13" s="61">
         <v>14.9</v>
       </c>
       <c r="AF13" s="18">
@@ -4567,7 +4558,7 @@
       <c r="AH13" s="18">
         <v>98.100374537012712</v>
       </c>
-      <c r="AI13" s="70">
+      <c r="AI13" s="64">
         <v>77.846885555555559</v>
       </c>
       <c r="AJ13" s="23">
@@ -4576,7 +4567,7 @@
       <c r="AK13" s="18">
         <v>77.035759999999996</v>
       </c>
-      <c r="AL13" s="72">
+      <c r="AL13" s="66">
         <v>80.792209999999997</v>
       </c>
       <c r="AM13" s="18">
@@ -4629,7 +4620,7 @@
       <c r="N14" s="14">
         <v>32.190005922393176</v>
       </c>
-      <c r="O14" s="56">
+      <c r="O14" s="52">
         <v>0.33200818506666668</v>
       </c>
       <c r="P14" s="14">
@@ -4647,7 +4638,7 @@
       <c r="T14" s="14">
         <v>44.786977130236423</v>
       </c>
-      <c r="U14" s="57">
+      <c r="U14" s="53">
         <v>1.0738250816549899</v>
       </c>
       <c r="V14" s="14">
@@ -4659,7 +4650,7 @@
       <c r="X14" s="18">
         <v>18.930441707740712</v>
       </c>
-      <c r="Y14" s="56">
+      <c r="Y14" s="52">
         <v>10.725988446361631</v>
       </c>
       <c r="Z14" s="18">
@@ -4668,7 +4659,7 @@
       <c r="AA14" s="21">
         <v>49.754212772913327</v>
       </c>
-      <c r="AB14" s="62">
+      <c r="AB14" s="57">
         <v>68.20256776804888</v>
       </c>
       <c r="AC14" s="11">
@@ -4677,7 +4668,7 @@
       <c r="AD14" s="18">
         <v>91.166666666666671</v>
       </c>
-      <c r="AE14" s="66">
+      <c r="AE14" s="61">
         <v>97.6</v>
       </c>
       <c r="AF14" s="18">
@@ -4689,7 +4680,7 @@
       <c r="AH14" s="18">
         <v>66.531945728389047</v>
       </c>
-      <c r="AI14" s="70">
+      <c r="AI14" s="64">
         <v>31.305857777777774</v>
       </c>
       <c r="AJ14" s="18">
@@ -4698,7 +4689,7 @@
       <c r="AK14" s="18">
         <v>10.598426666666663</v>
       </c>
-      <c r="AL14" s="72">
+      <c r="AL14" s="66">
         <v>56.811959999999999</v>
       </c>
       <c r="AM14" s="18">
@@ -4751,7 +4742,7 @@
       <c r="N15" s="14">
         <v>29.598870307044464</v>
       </c>
-      <c r="O15" s="56">
+      <c r="O15" s="52">
         <v>0.36553135409999998</v>
       </c>
       <c r="P15" s="14">
@@ -4769,7 +4760,7 @@
       <c r="T15" s="14">
         <v>41.623549079614207</v>
       </c>
-      <c r="U15" s="57">
+      <c r="U15" s="53">
         <v>0.14586539985231001</v>
       </c>
       <c r="V15" s="14">
@@ -4781,7 +4772,7 @@
       <c r="X15" s="18">
         <v>38.867547399552741</v>
       </c>
-      <c r="Y15" s="56">
+      <c r="Y15" s="52">
         <v>12.596442319271672</v>
       </c>
       <c r="Z15" s="18">
@@ -4790,7 +4781,7 @@
       <c r="AA15" s="21">
         <v>72.866088845223672</v>
       </c>
-      <c r="AB15" s="62">
+      <c r="AB15" s="57">
         <v>83.155505468225115</v>
       </c>
       <c r="AC15" s="18">
@@ -4799,7 +4790,7 @@
       <c r="AD15" s="18">
         <v>75</v>
       </c>
-      <c r="AE15" s="66">
+      <c r="AE15" s="61">
         <v>32.4</v>
       </c>
       <c r="AF15" s="18">
@@ -4811,7 +4802,7 @@
       <c r="AH15" s="18">
         <v>88.042273980432896</v>
       </c>
-      <c r="AI15" s="70">
+      <c r="AI15" s="64">
         <v>62.576672222222221</v>
       </c>
       <c r="AJ15" s="18">
@@ -4820,7 +4811,7 @@
       <c r="AK15" s="18">
         <v>42.711466666666666</v>
       </c>
-      <c r="AL15" s="72">
+      <c r="AL15" s="66">
         <v>84.197689999999994</v>
       </c>
       <c r="AM15" s="18">
@@ -4871,7 +4862,7 @@
       <c r="N16" s="14">
         <v>28.080279776551663</v>
       </c>
-      <c r="O16" s="56">
+      <c r="O16" s="52">
         <v>0.40991796250000001</v>
       </c>
       <c r="P16" s="14">
@@ -4889,7 +4880,7 @@
       <c r="T16" s="14">
         <v>41.219976639728429</v>
       </c>
-      <c r="U16" s="57">
+      <c r="U16" s="53">
         <v>2.1106751600493299</v>
       </c>
       <c r="V16" s="14">
@@ -4901,7 +4892,7 @@
       <c r="X16" s="18">
         <v>2.905644345788172</v>
       </c>
-      <c r="Y16" s="56">
+      <c r="Y16" s="52">
         <v>7.6274003050414168</v>
       </c>
       <c r="Z16" s="18">
@@ -4910,7 +4901,7 @@
       <c r="AA16" s="21">
         <v>83.962947291374448</v>
       </c>
-      <c r="AB16" s="62">
+      <c r="AB16" s="57">
         <v>80.508580138304467</v>
       </c>
       <c r="AC16" s="18">
@@ -4919,7 +4910,7 @@
       <c r="AD16" s="18">
         <v>74.666666666666657</v>
       </c>
-      <c r="AE16" s="66">
+      <c r="AE16" s="61">
         <v>36.9</v>
       </c>
       <c r="AF16" s="18">
@@ -4931,7 +4922,7 @@
       <c r="AH16" s="18">
         <v>83.162104051277069</v>
       </c>
-      <c r="AI16" s="70">
+      <c r="AI16" s="64">
         <v>87.417314444444429</v>
       </c>
       <c r="AJ16" s="18">
@@ -4940,7 +4931,7 @@
       <c r="AK16" s="18">
         <v>89.940106666666665</v>
       </c>
-      <c r="AL16" s="72">
+      <c r="AL16" s="66">
         <v>86.405069999999995</v>
       </c>
       <c r="AM16" s="18">
@@ -4991,7 +4982,7 @@
       <c r="N17" s="14">
         <v>44.466396939200401</v>
       </c>
-      <c r="O17" s="56">
+      <c r="O17" s="52">
         <v>0.83705147943333336</v>
       </c>
       <c r="P17" s="14">
@@ -5009,7 +5000,7 @@
       <c r="T17" s="14">
         <v>47.393296366051949</v>
       </c>
-      <c r="U17" s="57">
+      <c r="U17" s="53">
         <v>0.43772367504286397</v>
       </c>
       <c r="V17" s="14">
@@ -5021,7 +5012,7 @@
       <c r="X17" s="18">
         <v>35.949501429311802</v>
       </c>
-      <c r="Y17" s="56">
+      <c r="Y17" s="52">
         <v>15.604323242399442</v>
       </c>
       <c r="Z17" s="18">
@@ -5030,7 +5021,7 @@
       <c r="AA17" s="21">
         <v>78.994505652585758</v>
       </c>
-      <c r="AB17" s="62">
+      <c r="AB17" s="57">
         <v>78.694087971838186</v>
       </c>
       <c r="AC17" s="18">
@@ -5039,7 +5030,7 @@
       <c r="AD17" s="18">
         <v>65</v>
       </c>
-      <c r="AE17" s="66">
+      <c r="AE17" s="61">
         <v>40.6</v>
       </c>
       <c r="AF17" s="18">
@@ -5051,7 +5042,7 @@
       <c r="AH17" s="18">
         <v>89.62771846096912</v>
       </c>
-      <c r="AI17" s="70">
+      <c r="AI17" s="64">
         <v>79.294923333333344</v>
       </c>
       <c r="AJ17" s="18">
@@ -5060,7 +5051,7 @@
       <c r="AK17" s="18">
         <v>84.299213333333341</v>
       </c>
-      <c r="AL17" s="72">
+      <c r="AL17" s="66">
         <v>76.86157</v>
       </c>
       <c r="AM17" s="18">
@@ -5111,7 +5102,7 @@
       <c r="N18" s="14">
         <v>5.3935700923304353</v>
       </c>
-      <c r="O18" s="56">
+      <c r="O18" s="52">
         <v>0.13379733563333332</v>
       </c>
       <c r="P18" s="14">
@@ -5129,7 +5120,7 @@
       <c r="T18" s="14">
         <v>39.794031440105599</v>
       </c>
-      <c r="U18" s="57">
+      <c r="U18" s="53">
         <v>1.3087675525236799</v>
       </c>
       <c r="V18" s="14">
@@ -5141,7 +5132,7 @@
       <c r="X18" s="18">
         <v>6.3414544548933218</v>
       </c>
-      <c r="Y18" s="56">
+      <c r="Y18" s="52">
         <v>4.6091321039397029</v>
       </c>
       <c r="Z18" s="18">
@@ -5150,7 +5141,7 @@
       <c r="AA18" s="21">
         <v>96.091751266155143</v>
       </c>
-      <c r="AB18" s="62">
+      <c r="AB18" s="57">
         <v>97.891121421199202</v>
       </c>
       <c r="AC18" s="18">
@@ -5159,7 +5150,7 @@
       <c r="AD18" s="18">
         <v>100</v>
       </c>
-      <c r="AE18" s="66">
+      <c r="AE18" s="61">
         <v>15.1</v>
       </c>
       <c r="AF18" s="18">
@@ -5171,7 +5162,7 @@
       <c r="AH18" s="18">
         <v>96.764273354506685</v>
       </c>
-      <c r="AI18" s="70">
+      <c r="AI18" s="64">
         <v>94.292381111111098</v>
       </c>
       <c r="AJ18" s="18">
@@ -5180,7 +5171,7 @@
       <c r="AK18" s="18">
         <v>88.97257333333333</v>
       </c>
-      <c r="AL18" s="72">
+      <c r="AL18" s="66">
         <v>99.650970000000001</v>
       </c>
       <c r="AM18" s="18">
@@ -5231,7 +5222,7 @@
       <c r="N19" s="14">
         <v>31.782189360264656</v>
       </c>
-      <c r="O19" s="56">
+      <c r="O19" s="52">
         <v>0.63972777916666657</v>
       </c>
       <c r="P19" s="14">
@@ -5249,7 +5240,7 @@
       <c r="T19" s="14">
         <v>32.904968320279401</v>
       </c>
-      <c r="U19" s="57">
+      <c r="U19" s="53">
         <v>0</v>
       </c>
       <c r="V19" s="14">
@@ -5261,7 +5252,7 @@
       <c r="X19" s="18">
         <v>65.809936640558803</v>
       </c>
-      <c r="Y19" s="56">
+      <c r="Y19" s="52">
         <v>6.0016948999389612</v>
       </c>
       <c r="Z19" s="18">
@@ -5270,7 +5261,7 @@
       <c r="AA19" s="21">
         <v>97.360548783416533</v>
       </c>
-      <c r="AB19" s="62">
+      <c r="AB19" s="57">
         <v>99.508796455721949</v>
       </c>
       <c r="AC19" s="18">
@@ -5279,7 +5270,7 @@
       <c r="AD19" s="18">
         <v>100</v>
       </c>
-      <c r="AE19" s="66">
+      <c r="AE19" s="61">
         <v>9.9</v>
       </c>
       <c r="AF19" s="18">
@@ -5291,7 +5282,7 @@
       <c r="AH19" s="18">
         <v>98.526389367165848</v>
       </c>
-      <c r="AI19" s="70">
+      <c r="AI19" s="64">
         <v>95.212301111111117</v>
       </c>
       <c r="AJ19" s="18">
@@ -5300,7 +5291,7 @@
       <c r="AK19" s="18">
         <v>94.780746666666673</v>
       </c>
-      <c r="AL19" s="72">
+      <c r="AL19" s="66">
         <v>96.079470000000001</v>
       </c>
       <c r="AM19" s="18">
@@ -5353,7 +5344,7 @@
       <c r="N20" s="14">
         <v>58.963556304792732</v>
       </c>
-      <c r="O20" s="56">
+      <c r="O20" s="52">
         <v>0.64741288063333335</v>
       </c>
       <c r="P20" s="14">
@@ -5371,7 +5362,7 @@
       <c r="T20" s="14">
         <v>56.386611102587771</v>
       </c>
-      <c r="U20" s="57">
+      <c r="U20" s="53">
         <v>2.21147564808436</v>
       </c>
       <c r="V20" s="14">
@@ -5383,7 +5374,7 @@
       <c r="X20" s="18">
         <v>32.625142345614009</v>
       </c>
-      <c r="Y20" s="56">
+      <c r="Y20" s="52">
         <v>12.359802363419368</v>
       </c>
       <c r="Z20" s="18">
@@ -5392,7 +5383,7 @@
       <c r="AA20" s="21">
         <v>42.916986545813991</v>
       </c>
-      <c r="AB20" s="62">
+      <c r="AB20" s="57">
         <v>66.286228647183535</v>
       </c>
       <c r="AC20" s="18">
@@ -5401,7 +5392,7 @@
       <c r="AD20" s="18">
         <v>74.666666666666657</v>
       </c>
-      <c r="AE20" s="66">
+      <c r="AE20" s="61">
         <v>84.6</v>
       </c>
       <c r="AF20" s="18">
@@ -5413,7 +5404,7 @@
       <c r="AH20" s="18">
         <v>69.404140487005179</v>
       </c>
-      <c r="AI20" s="70">
+      <c r="AI20" s="64">
         <v>19.547744444444447</v>
       </c>
       <c r="AJ20" s="18">
@@ -5422,7 +5413,7 @@
       <c r="AK20" s="18">
         <v>12.799200000000004</v>
       </c>
-      <c r="AL20" s="72">
+      <c r="AL20" s="66">
         <v>33.66666</v>
       </c>
       <c r="AM20" s="18">
@@ -5475,7 +5466,7 @@
       <c r="N21" s="14">
         <v>53.385155232040503</v>
       </c>
-      <c r="O21" s="56">
+      <c r="O21" s="52">
         <v>0.47254062269999997</v>
       </c>
       <c r="P21" s="14">
@@ -5493,7 +5484,7 @@
       <c r="T21" s="14">
         <v>56.530609468919813</v>
       </c>
-      <c r="U21" s="57">
+      <c r="U21" s="53">
         <v>2.2200394879043501</v>
       </c>
       <c r="V21" s="14">
@@ -5505,7 +5496,7 @@
       <c r="X21" s="18">
         <v>32.862290165037308</v>
       </c>
-      <c r="Y21" s="56">
+      <c r="Y21" s="52">
         <v>16.840057587454289</v>
       </c>
       <c r="Z21" s="18">
@@ -5514,7 +5505,7 @@
       <c r="AA21" s="21">
         <v>38.458247305259903</v>
       </c>
-      <c r="AB21" s="62">
+      <c r="AB21" s="57">
         <v>34.492191277186478</v>
       </c>
       <c r="AC21" s="18">
@@ -5523,7 +5514,7 @@
       <c r="AD21" s="18">
         <v>0</v>
       </c>
-      <c r="AE21" s="66">
+      <c r="AE21" s="61">
         <v>71.7</v>
       </c>
       <c r="AF21" s="18">
@@ -5535,7 +5526,7 @@
       <c r="AH21" s="18">
         <v>40.870513225498826</v>
       </c>
-      <c r="AI21" s="70">
+      <c r="AI21" s="64">
         <v>42.424303333333327</v>
       </c>
       <c r="AJ21" s="18">
@@ -5544,7 +5535,7 @@
       <c r="AK21" s="18">
         <v>48.759639999999997</v>
       </c>
-      <c r="AL21" s="72">
+      <c r="AL21" s="66">
         <v>42.480069999999998</v>
       </c>
       <c r="AM21" s="18">
@@ -5595,7 +5586,7 @@
       <c r="N22" s="14">
         <v>20.473468219748852</v>
       </c>
-      <c r="O22" s="56">
+      <c r="O22" s="52">
         <v>0.32709183796666669</v>
       </c>
       <c r="P22" s="14">
@@ -5613,7 +5604,7 @@
       <c r="T22" s="14">
         <v>45.839172248931014</v>
       </c>
-      <c r="U22" s="57">
+      <c r="U22" s="53">
         <v>0.47696019660391004</v>
       </c>
       <c r="V22" s="14">
@@ -5625,7 +5616,7 @@
       <c r="X22" s="18">
         <v>31.711845072841584</v>
       </c>
-      <c r="Y22" s="56">
+      <c r="Y22" s="52">
         <v>9.9452815100197416</v>
       </c>
       <c r="Z22" s="18">
@@ -5634,7 +5625,7 @@
       <c r="AA22" s="21">
         <v>89.535025839081385</v>
       </c>
-      <c r="AB22" s="62">
+      <c r="AB22" s="57">
         <v>91.821841678162784</v>
       </c>
       <c r="AC22" s="18">
@@ -5643,7 +5634,7 @@
       <c r="AD22" s="18">
         <v>85.5</v>
       </c>
-      <c r="AE22" s="66">
+      <c r="AE22" s="61">
         <v>21.4</v>
       </c>
       <c r="AF22" s="18">
@@ -5655,7 +5646,7 @@
       <c r="AH22" s="18">
         <v>96.874615943579215</v>
       </c>
-      <c r="AI22" s="70">
+      <c r="AI22" s="64">
         <v>87.24821</v>
       </c>
       <c r="AJ22" s="23">
@@ -5664,7 +5655,7 @@
       <c r="AK22" s="18">
         <v>82.387053333333327</v>
       </c>
-      <c r="AL22" s="72">
+      <c r="AL22" s="66">
         <v>92.898430000000005</v>
       </c>
       <c r="AM22" s="18">
@@ -5717,7 +5708,7 @@
       <c r="N23" s="14">
         <v>35.434909547494222</v>
       </c>
-      <c r="O23" s="56">
+      <c r="O23" s="52">
         <v>0.30763142900000001</v>
       </c>
       <c r="P23" s="14">
@@ -5735,7 +5726,7 @@
       <c r="T23" s="14">
         <v>61.100896194369227</v>
       </c>
-      <c r="U23" s="57">
+      <c r="U23" s="53">
         <v>5.6942459102732306</v>
       </c>
       <c r="V23" s="14">
@@ -5747,7 +5738,7 @@
       <c r="X23" s="18">
         <v>29.61050366288417</v>
       </c>
-      <c r="Y23" s="56">
+      <c r="Y23" s="52">
         <v>9.0468301266020656</v>
       </c>
       <c r="Z23" s="18">
@@ -5756,7 +5747,7 @@
       <c r="AA23" s="21">
         <v>68.925283046968232</v>
       </c>
-      <c r="AB23" s="62">
+      <c r="AB23" s="57">
         <v>85.77758498282536</v>
       </c>
       <c r="AC23" s="18">
@@ -5765,7 +5756,7 @@
       <c r="AD23" s="18">
         <v>82.833333333333343</v>
       </c>
-      <c r="AE23" s="66">
+      <c r="AE23" s="61">
         <v>30.6</v>
       </c>
       <c r="AF23" s="18">
@@ -5777,7 +5768,7 @@
       <c r="AH23" s="18">
         <v>86.984270099991207</v>
       </c>
-      <c r="AI23" s="70">
+      <c r="AI23" s="64">
         <v>52.072981111111112</v>
       </c>
       <c r="AJ23" s="18">
@@ -5786,7 +5777,7 @@
       <c r="AK23" s="18">
         <v>65.200040000000001</v>
       </c>
-      <c r="AL23" s="72">
+      <c r="AL23" s="66">
         <v>45.05133</v>
       </c>
       <c r="AM23" s="18">
@@ -5837,7 +5828,7 @@
       <c r="N24" s="14">
         <v>30.646533885765724</v>
       </c>
-      <c r="O24" s="56">
+      <c r="O24" s="52">
         <v>0.4049896227</v>
       </c>
       <c r="P24" s="14">
@@ -5855,7 +5846,7 @@
       <c r="T24" s="14">
         <v>24.9368868973371</v>
       </c>
-      <c r="U24" s="57">
+      <c r="U24" s="53">
         <v>9.0377415368474504E-2</v>
       </c>
       <c r="V24" s="14">
@@ -5867,7 +5858,7 @@
       <c r="X24" s="18">
         <v>11.792026144791182</v>
       </c>
-      <c r="Y24" s="56">
+      <c r="Y24" s="52">
         <v>4.5748373161526068</v>
       </c>
       <c r="Z24" s="18">
@@ -5876,7 +5867,7 @@
       <c r="AA24" s="21">
         <v>62.690377869810035</v>
       </c>
-      <c r="AB24" s="62">
+      <c r="AB24" s="57">
         <v>67.810343517397854</v>
       </c>
       <c r="AC24" s="18">
@@ -5885,7 +5876,7 @@
       <c r="AD24" s="18">
         <v>95.166666666666671</v>
       </c>
-      <c r="AE24" s="66">
+      <c r="AE24" s="61">
         <v>79.7</v>
       </c>
       <c r="AF24" s="18">
@@ -5897,7 +5888,7 @@
       <c r="AH24" s="18">
         <v>50.506788127951133</v>
       </c>
-      <c r="AI24" s="70">
+      <c r="AI24" s="64">
         <v>57.570412222222224</v>
       </c>
       <c r="AJ24" s="18">
@@ -5906,7 +5897,7 @@
       <c r="AK24" s="18">
         <v>61.720679999999994</v>
       </c>
-      <c r="AL24" s="72">
+      <c r="AL24" s="66">
         <v>58.078130000000002</v>
       </c>
       <c r="AM24" s="18">
@@ -5959,7 +5950,7 @@
       <c r="N25" s="14">
         <v>46.921040651266281</v>
       </c>
-      <c r="O25" s="56">
+      <c r="O25" s="52">
         <v>0.46027141936666666</v>
       </c>
       <c r="P25" s="14">
@@ -5977,7 +5968,7 @@
       <c r="T25" s="14">
         <v>31.170192801928938</v>
       </c>
-      <c r="U25" s="57">
+      <c r="U25" s="53">
         <v>0.22123433035413598</v>
       </c>
       <c r="V25" s="14">
@@ -5989,7 +5980,7 @@
       <c r="X25" s="18">
         <v>12.480720046249516</v>
       </c>
-      <c r="Y25" s="56">
+      <c r="Y25" s="52">
         <v>11.824082638670827</v>
       </c>
       <c r="Z25" s="18">
@@ -5998,7 +5989,7 @@
       <c r="AA25" s="21">
         <v>17.370911560514418</v>
       </c>
-      <c r="AB25" s="62">
+      <c r="AB25" s="57">
         <v>22.807855343251063</v>
       </c>
       <c r="AC25" s="18">
@@ -6007,7 +5998,7 @@
       <c r="AD25" s="18">
         <v>10.666666666666664</v>
       </c>
-      <c r="AE25" s="66">
+      <c r="AE25" s="61">
         <v>123.6</v>
       </c>
       <c r="AF25" s="18">
@@ -6019,7 +6010,7 @@
       <c r="AH25" s="18">
         <v>26.60538421157138</v>
       </c>
-      <c r="AI25" s="70">
+      <c r="AI25" s="64">
         <v>11.933967777777776</v>
       </c>
       <c r="AJ25" s="18">
@@ -6028,7 +6019,7 @@
       <c r="AK25" s="18">
         <v>15.670146666666662</v>
       </c>
-      <c r="AL25" s="72">
+      <c r="AL25" s="66">
         <v>17.37801</v>
       </c>
       <c r="AM25" s="18">
@@ -6081,7 +6072,7 @@
       <c r="N26" s="14">
         <v>65.512918015699853</v>
       </c>
-      <c r="O26" s="56">
+      <c r="O26" s="52">
         <v>0.81750148596666661</v>
       </c>
       <c r="P26" s="14">
@@ -6099,7 +6090,7 @@
       <c r="T26" s="14">
         <v>64.954934233601975</v>
       </c>
-      <c r="U26" s="57">
+      <c r="U26" s="53">
         <v>2.9770007740257998</v>
       </c>
       <c r="V26" s="14">
@@ -6111,7 +6102,7 @@
       <c r="X26" s="18">
         <v>45.850985425459065</v>
       </c>
-      <c r="Y26" s="56">
+      <c r="Y26" s="52">
         <v>25.725371802296454</v>
       </c>
       <c r="Z26" s="18">
@@ -6120,7 +6111,7 @@
       <c r="AA26" s="21">
         <v>22.085484315685715</v>
       </c>
-      <c r="AB26" s="62">
+      <c r="AB26" s="57">
         <v>37.280529742482543</v>
       </c>
       <c r="AC26" s="18">
@@ -6129,7 +6120,7 @@
       <c r="AD26" s="18">
         <v>54.166666666666664</v>
       </c>
-      <c r="AE26" s="66">
+      <c r="AE26" s="61">
         <v>127.3</v>
       </c>
       <c r="AF26" s="18">
@@ -6141,7 +6132,7 @@
       <c r="AH26" s="18">
         <v>28.765831651690043</v>
       </c>
-      <c r="AI26" s="70">
+      <c r="AI26" s="64">
         <v>6.8904388888888892</v>
       </c>
       <c r="AJ26" s="18">
@@ -6150,7 +6141,7 @@
       <c r="AK26" s="18">
         <v>0</v>
       </c>
-      <c r="AL26" s="72">
+      <c r="AL26" s="66">
         <v>22.40279</v>
       </c>
       <c r="AM26" s="18">
@@ -6201,7 +6192,7 @@
       <c r="N27" s="14">
         <v>15.794817986013621</v>
       </c>
-      <c r="O27" s="56">
+      <c r="O27" s="52">
         <v>0.32098602479999999</v>
       </c>
       <c r="P27" s="14">
@@ -6219,7 +6210,7 @@
       <c r="T27" s="14">
         <v>39.738285376730524</v>
       </c>
-      <c r="U27" s="57">
+      <c r="U27" s="53">
         <v>1.4985882827569399</v>
       </c>
       <c r="V27" s="14">
@@ -6231,7 +6222,7 @@
       <c r="X27" s="18">
         <v>4.4480998971701515</v>
       </c>
-      <c r="Y27" s="56">
+      <c r="Y27" s="52">
         <v>3.2040584975070869</v>
       </c>
       <c r="Z27" s="18">
@@ -6240,7 +6231,7 @@
       <c r="AA27" s="21">
         <v>98.517081539263984</v>
       </c>
-      <c r="AB27" s="62">
+      <c r="AB27" s="57">
         <v>99.522789745194629</v>
       </c>
       <c r="AC27" s="18">
@@ -6249,7 +6240,7 @@
       <c r="AD27" s="18">
         <v>100</v>
       </c>
-      <c r="AE27" s="66">
+      <c r="AE27" s="61">
         <v>8.3000000000000007</v>
       </c>
       <c r="AF27" s="18">
@@ -6261,7 +6252,7 @@
       <c r="AH27" s="18">
         <v>98.568369235583859</v>
       </c>
-      <c r="AI27" s="70">
+      <c r="AI27" s="64">
         <v>97.511373333333324</v>
       </c>
       <c r="AJ27" s="18">
@@ -6270,7 +6261,7 @@
       <c r="AK27" s="18">
         <v>95.022746666666663</v>
       </c>
-      <c r="AL27" s="72">
+      <c r="AL27" s="66">
         <v>100.64619</v>
       </c>
       <c r="AM27" s="18">
@@ -6321,7 +6312,7 @@
       <c r="N28" s="14">
         <v>7.0672193093510236</v>
       </c>
-      <c r="O28" s="56">
+      <c r="O28" s="52">
         <v>0.10326659269999999</v>
       </c>
       <c r="P28" s="14">
@@ -6339,7 +6330,7 @@
       <c r="T28" s="14">
         <v>54.111609591453899</v>
       </c>
-      <c r="U28" s="57">
+      <c r="U28" s="53">
         <v>7.9502211273629397</v>
       </c>
       <c r="V28" s="14">
@@ -6351,7 +6342,7 @@
       <c r="X28" s="18">
         <v>11.241089115760671</v>
       </c>
-      <c r="Y28" s="56">
+      <c r="Y28" s="52">
         <v>6.6160354972997357</v>
       </c>
       <c r="Z28" s="18">
@@ -6360,7 +6351,7 @@
       <c r="AA28" s="21">
         <v>95.211054674401836</v>
       </c>
-      <c r="AB28" s="62">
+      <c r="AB28" s="57">
         <v>96.839561571025897</v>
       </c>
       <c r="AC28" s="18">
@@ -6369,7 +6360,7 @@
       <c r="AD28" s="18">
         <v>92.333333333333329</v>
       </c>
-      <c r="AE28" s="66">
+      <c r="AE28" s="61">
         <v>9.9</v>
       </c>
       <c r="AF28" s="18">
@@ -6381,7 +6372,7 @@
       <c r="AH28" s="18">
         <v>98.185351379744361</v>
       </c>
-      <c r="AI28" s="70">
+      <c r="AI28" s="64">
         <v>93.582547777777776</v>
       </c>
       <c r="AJ28" s="18">
@@ -6390,7 +6381,7 @@
       <c r="AK28" s="18">
         <v>93.499306666666669</v>
       </c>
-      <c r="AL28" s="72">
+      <c r="AL28" s="66">
         <v>94.299210000000002</v>
       </c>
       <c r="AM28" s="18">
@@ -6441,7 +6432,7 @@
       <c r="N29" s="14">
         <v>20.336296340941558</v>
       </c>
-      <c r="O29" s="56">
+      <c r="O29" s="52">
         <v>0.36446042533333339</v>
       </c>
       <c r="P29" s="14">
@@ -6459,7 +6450,7 @@
       <c r="T29" s="14">
         <v>38.883944192327597</v>
       </c>
-      <c r="U29" s="57">
+      <c r="U29" s="53">
         <v>1.3120054271083501</v>
       </c>
       <c r="V29" s="14">
@@ -6471,7 +6462,7 @@
       <c r="X29" s="18">
         <v>4.4887715531461234</v>
       </c>
-      <c r="Y29" s="56">
+      <c r="Y29" s="52">
         <v>3.657425829123905</v>
       </c>
       <c r="Z29" s="18">
@@ -6480,7 +6471,7 @@
       <c r="AA29" s="21">
         <v>95.605540161965635</v>
       </c>
-      <c r="AB29" s="62">
+      <c r="AB29" s="57">
         <v>96.107791435042373</v>
       </c>
       <c r="AC29" s="18">
@@ -6489,7 +6480,7 @@
       <c r="AD29" s="18">
         <v>96.5</v>
       </c>
-      <c r="AE29" s="66">
+      <c r="AE29" s="61">
         <v>15.3</v>
       </c>
       <c r="AF29" s="18">
@@ -6501,7 +6492,7 @@
       <c r="AH29" s="18">
         <v>95.035495517248336</v>
       </c>
-      <c r="AI29" s="70">
+      <c r="AI29" s="64">
         <v>95.103288888888898</v>
       </c>
       <c r="AJ29" s="18">
@@ -6510,7 +6501,7 @@
       <c r="AK29" s="18">
         <v>92.326733333333351</v>
       </c>
-      <c r="AL29" s="72">
+      <c r="AL29" s="66">
         <v>98.091859999999997</v>
       </c>
       <c r="AM29" s="18">
@@ -6563,7 +6554,7 @@
       <c r="N30" s="14">
         <v>69.74441898998974</v>
       </c>
-      <c r="O30" s="56">
+      <c r="O30" s="52">
         <v>0.6809298885666667</v>
       </c>
       <c r="P30" s="14">
@@ -6581,7 +6572,7 @@
       <c r="T30" s="14">
         <v>44.439528455038221</v>
       </c>
-      <c r="U30" s="57">
+      <c r="U30" s="53">
         <v>2.9212546596164102</v>
       </c>
       <c r="V30" s="14">
@@ -6593,7 +6584,7 @@
       <c r="X30" s="18">
         <v>5.0688698645016235</v>
       </c>
-      <c r="Y30" s="56">
+      <c r="Y30" s="52">
         <v>17.13414025601358</v>
       </c>
       <c r="Z30" s="18">
@@ -6602,7 +6593,7 @@
       <c r="AA30" s="21">
         <v>49.385256569573002</v>
       </c>
-      <c r="AB30" s="62">
+      <c r="AB30" s="57">
         <v>54.667303139146007</v>
       </c>
       <c r="AC30" s="18">
@@ -6611,7 +6602,7 @@
       <c r="AD30" s="18">
         <v>30</v>
       </c>
-      <c r="AE30" s="66">
+      <c r="AE30" s="61">
         <v>73.3</v>
       </c>
       <c r="AF30" s="18">
@@ -6623,7 +6614,7 @@
       <c r="AH30" s="18">
         <v>72.365545781074402</v>
       </c>
-      <c r="AI30" s="70">
+      <c r="AI30" s="64">
         <v>44.103209999999997</v>
       </c>
       <c r="AJ30" s="18">
@@ -6632,7 +6623,7 @@
       <c r="AK30" s="18">
         <v>32.261519999999997</v>
       </c>
-      <c r="AL30" s="72">
+      <c r="AL30" s="66">
         <v>60.350409999999997</v>
       </c>
       <c r="AM30" s="18">
@@ -6683,7 +6674,7 @@
       <c r="N31" s="14">
         <v>39.004734364629478</v>
       </c>
-      <c r="O31" s="56">
+      <c r="O31" s="52">
         <v>0.67160265650000006</v>
       </c>
       <c r="P31" s="14">
@@ -6701,7 +6692,7 @@
       <c r="T31" s="14">
         <v>37.049498455862867</v>
       </c>
-      <c r="U31" s="57">
+      <c r="U31" s="53">
         <v>0.228577531012646</v>
       </c>
       <c r="V31" s="14">
@@ -6713,7 +6704,7 @@
       <c r="X31" s="18">
         <v>23.809737644048212</v>
       </c>
-      <c r="Y31" s="56">
+      <c r="Y31" s="52">
         <v>10.502741752713234</v>
       </c>
       <c r="Z31" s="18">
@@ -6722,7 +6713,7 @@
       <c r="AA31" s="21">
         <v>63.483099603566188</v>
       </c>
-      <c r="AB31" s="62">
+      <c r="AB31" s="57">
         <v>66.012430318243489</v>
       </c>
       <c r="AC31" s="18">
@@ -6731,7 +6722,7 @@
       <c r="AD31" s="18">
         <v>61.333333333333329</v>
       </c>
-      <c r="AE31" s="66">
+      <c r="AE31" s="61">
         <v>54.1</v>
       </c>
       <c r="AF31" s="18">
@@ -6743,7 +6734,7 @@
       <c r="AH31" s="18">
         <v>63.431230348669864</v>
       </c>
-      <c r="AI31" s="70">
+      <c r="AI31" s="64">
         <v>60.953768888888888</v>
       </c>
       <c r="AJ31" s="18">
@@ -6752,7 +6743,7 @@
       <c r="AK31" s="18">
         <v>72.414893333333339</v>
       </c>
-      <c r="AL31" s="72">
+      <c r="AL31" s="66">
         <v>54.543379999999999</v>
       </c>
       <c r="AM31" s="18">
@@ -6803,7 +6794,7 @@
       <c r="N32" s="14">
         <v>16.017992339044426</v>
       </c>
-      <c r="O32" s="56">
+      <c r="O32" s="52">
         <v>0.30751331980000002</v>
       </c>
       <c r="P32" s="14">
@@ -6821,7 +6812,7 @@
       <c r="T32" s="14">
         <v>36.007232931444669</v>
       </c>
-      <c r="U32" s="57">
+      <c r="U32" s="53">
         <v>0.72062781238751294</v>
       </c>
       <c r="V32" s="14">
@@ -6833,7 +6824,7 @@
       <c r="X32" s="18">
         <v>6.6184828497476378</v>
       </c>
-      <c r="Y32" s="56">
+      <c r="Y32" s="52">
         <v>3.6960700391699679</v>
       </c>
       <c r="Z32" s="18">
@@ -6842,7 +6833,7 @@
       <c r="AA32" s="21">
         <v>98.687833732648215</v>
       </c>
-      <c r="AB32" s="62">
+      <c r="AB32" s="57">
         <v>99.104614131963103</v>
       </c>
       <c r="AC32" s="18">
@@ -6851,7 +6842,7 @@
       <c r="AD32" s="18">
         <v>99</v>
       </c>
-      <c r="AE32" s="66">
+      <c r="AE32" s="61">
         <v>8.8000000000000007</v>
       </c>
       <c r="AF32" s="18">
@@ -6863,7 +6854,7 @@
       <c r="AH32" s="18">
         <v>98.313842395889282</v>
       </c>
-      <c r="AI32" s="70">
+      <c r="AI32" s="64">
         <v>98.271053333333327</v>
       </c>
       <c r="AJ32" s="18">
@@ -6872,7 +6863,7 @@
       <c r="AK32" s="18">
         <v>96.542106666666669</v>
       </c>
-      <c r="AL32" s="72">
+      <c r="AL32" s="66">
         <v>123.08573</v>
       </c>
       <c r="AM32" s="18">
@@ -6923,7 +6914,7 @@
       <c r="N33" s="14">
         <v>34.540513205629296</v>
       </c>
-      <c r="O33" s="56">
+      <c r="O33" s="52">
         <v>0.38342502033333331</v>
       </c>
       <c r="P33" s="14">
@@ -6941,7 +6932,7 @@
       <c r="T33" s="14">
         <v>4.8816045196382492</v>
       </c>
-      <c r="U33" s="57">
+      <c r="U33" s="53">
         <v>4.7540907071752696E-3</v>
       </c>
       <c r="V33" s="14">
@@ -6953,7 +6944,7 @@
       <c r="X33" s="18">
         <v>9.7632090392764983</v>
       </c>
-      <c r="Y33" s="56">
+      <c r="Y33" s="52">
         <v>6.0342235257521795</v>
       </c>
       <c r="Z33" s="18">
@@ -6962,7 +6953,7 @@
       <c r="AA33" s="21">
         <v>45.633050857932488</v>
       </c>
-      <c r="AB33" s="62">
+      <c r="AB33" s="57">
         <v>59.845082826976089</v>
       </c>
       <c r="AC33" s="27">
@@ -6971,7 +6962,7 @@
       <c r="AD33" s="18">
         <v>82.666666666666671</v>
       </c>
-      <c r="AE33" s="66">
+      <c r="AE33" s="61">
         <v>91.8</v>
       </c>
       <c r="AF33" s="18">
@@ -6983,7 +6974,7 @@
       <c r="AH33" s="18">
         <v>46.444339390019159</v>
       </c>
-      <c r="AI33" s="70">
+      <c r="AI33" s="64">
         <v>31.421018888888888</v>
       </c>
       <c r="AJ33" s="18">
@@ -6992,7 +6983,7 @@
       <c r="AK33" s="18">
         <v>25.211226666666665</v>
       </c>
-      <c r="AL33" s="73">
+      <c r="AL33" s="67">
         <v>43.867730000000002</v>
       </c>
       <c r="AM33" s="18">
@@ -7043,7 +7034,7 @@
       <c r="N34" s="14">
         <v>10.219356975483372</v>
       </c>
-      <c r="O34" s="56">
+      <c r="O34" s="52">
         <v>0.23181516613333333</v>
       </c>
       <c r="P34" s="14">
@@ -7061,7 +7052,7 @@
       <c r="T34" s="14">
         <v>62.38102087214466</v>
       </c>
-      <c r="U34" s="57">
+      <c r="U34" s="53">
         <v>5.1743001707386798</v>
       </c>
       <c r="V34" s="14">
@@ -7073,7 +7064,7 @@
       <c r="X34" s="18">
         <v>33.430499196571581</v>
       </c>
-      <c r="Y34" s="56">
+      <c r="Y34" s="52">
         <v>9.5590836632708207</v>
       </c>
       <c r="Z34" s="18">
@@ -7082,7 +7073,7 @@
       <c r="AA34" s="21">
         <v>99.441023279761723</v>
       </c>
-      <c r="AB34" s="62">
+      <c r="AB34" s="57">
         <v>99.047026559523445</v>
       </c>
       <c r="AC34" s="18">
@@ -7091,7 +7082,7 @@
       <c r="AD34" s="18">
         <v>100</v>
       </c>
-      <c r="AE34" s="66">
+      <c r="AE34" s="61">
         <v>5.5</v>
       </c>
       <c r="AF34" s="18">
@@ -7103,7 +7094,7 @@
       <c r="AH34" s="18">
         <v>97.141079678570364</v>
       </c>
-      <c r="AI34" s="70">
+      <c r="AI34" s="64">
         <v>99.83502</v>
       </c>
       <c r="AJ34" s="18">
@@ -7112,7 +7103,7 @@
       <c r="AK34" s="18">
         <v>99.67004</v>
       </c>
-      <c r="AL34" s="72">
+      <c r="AL34" s="66">
         <v>100.39987000000001</v>
       </c>
       <c r="AM34" s="18">
@@ -7163,7 +7154,7 @@
       <c r="N35" s="14">
         <v>7.4872816929713721</v>
       </c>
-      <c r="O35" s="56">
+      <c r="O35" s="52">
         <v>0.21161549846666663</v>
       </c>
       <c r="P35" s="14">
@@ -7181,7 +7172,7 @@
       <c r="T35" s="14">
         <v>6.9499792147908979</v>
       </c>
-      <c r="U35" s="57">
+      <c r="U35" s="53">
         <v>3.2023655293193002E-3</v>
       </c>
       <c r="V35" s="14">
@@ -7193,7 +7184,7 @@
       <c r="X35" s="18">
         <v>13.899958429581796</v>
       </c>
-      <c r="Y35" s="56">
+      <c r="Y35" s="52">
         <v>3.130610104853631</v>
       </c>
       <c r="Z35" s="18">
@@ -7202,7 +7193,7 @@
       <c r="AA35" s="21">
         <v>99.470983694527177</v>
       </c>
-      <c r="AB35" s="62">
+      <c r="AB35" s="57">
         <v>99.946175166832134</v>
       </c>
       <c r="AC35" s="18">
@@ -7211,7 +7202,7 @@
       <c r="AD35" s="18">
         <v>100</v>
       </c>
-      <c r="AE35" s="66">
+      <c r="AE35" s="61">
         <v>2.6</v>
       </c>
       <c r="AF35" s="18">
@@ -7223,7 +7214,7 @@
       <c r="AH35" s="18">
         <v>99.838525500496416</v>
       </c>
-      <c r="AI35" s="70">
+      <c r="AI35" s="64">
         <v>98.995792222222235</v>
       </c>
       <c r="AJ35" s="23">
@@ -7232,7 +7223,7 @@
       <c r="AK35" s="18">
         <v>98.237906666666674</v>
       </c>
-      <c r="AL35" s="72">
+      <c r="AL35" s="66">
         <v>99.778310000000005</v>
       </c>
       <c r="AM35" s="18">
@@ -7283,7 +7274,7 @@
       <c r="N36" s="14">
         <v>32.596054320891255</v>
       </c>
-      <c r="O36" s="56">
+      <c r="O36" s="52">
         <v>0.35550677530000002</v>
       </c>
       <c r="P36" s="14">
@@ -7301,7 +7292,7 @@
       <c r="T36" s="14">
         <v>56.958639804680175</v>
       </c>
-      <c r="U36" s="57">
+      <c r="U36" s="53">
         <v>5.0462879474402405</v>
       </c>
       <c r="V36" s="14">
@@ -7313,7 +7304,7 @@
       <c r="X36" s="18">
         <v>22.915318770486543</v>
       </c>
-      <c r="Y36" s="56">
+      <c r="Y36" s="52">
         <v>9.9334721379497299</v>
       </c>
       <c r="Z36" s="18">
@@ -7322,7 +7313,7 @@
       <c r="AA36" s="21">
         <v>86.130059830956384</v>
       </c>
-      <c r="AB36" s="62">
+      <c r="AB36" s="57">
         <v>75.930165217468343</v>
       </c>
       <c r="AC36" s="18">
@@ -7331,7 +7322,7 @@
       <c r="AD36" s="18">
         <v>40.333333333333336</v>
       </c>
-      <c r="AE36" s="67">
+      <c r="AE36" s="62">
         <v>20</v>
       </c>
       <c r="AF36" s="18">
@@ -7343,7 +7334,7 @@
       <c r="AH36" s="18">
         <v>93.517768379677733</v>
       </c>
-      <c r="AI36" s="70">
+      <c r="AI36" s="64">
         <v>96.329954444444439</v>
       </c>
       <c r="AJ36" s="23">
@@ -7352,7 +7343,7 @@
       <c r="AK36" s="18">
         <v>99.997586666666663</v>
       </c>
-      <c r="AL36" s="72">
+      <c r="AL36" s="66">
         <v>93.396090000000001</v>
       </c>
       <c r="AM36" s="18">
@@ -7405,7 +7396,7 @@
       <c r="N37" s="14">
         <v>38.881668491039548</v>
       </c>
-      <c r="O37" s="56">
+      <c r="O37" s="52">
         <v>0.48604700699999998</v>
       </c>
       <c r="P37" s="14">
@@ -7423,7 +7414,7 @@
       <c r="T37" s="14">
         <v>19.369482811952075</v>
       </c>
-      <c r="U37" s="57">
+      <c r="U37" s="53">
         <v>6.2161044852288398E-2</v>
       </c>
       <c r="V37" s="14">
@@ -7435,7 +7426,7 @@
       <c r="X37" s="18">
         <v>5.5811844791392096</v>
       </c>
-      <c r="Y37" s="56">
+      <c r="Y37" s="52">
         <v>16.839266873805709</v>
       </c>
       <c r="Z37" s="18">
@@ -7444,7 +7435,7 @@
       <c r="AA37" s="21">
         <v>41.872323036369522</v>
       </c>
-      <c r="AB37" s="62">
+      <c r="AB37" s="57">
         <v>30.435520517183495</v>
       </c>
       <c r="AC37" s="18">
@@ -7453,7 +7444,7 @@
       <c r="AD37" s="18">
         <v>0</v>
       </c>
-      <c r="AE37" s="66">
+      <c r="AE37" s="61">
         <v>94.3</v>
       </c>
       <c r="AF37" s="18">
@@ -7465,7 +7456,7 @@
       <c r="AH37" s="18">
         <v>42.397470642459581</v>
       </c>
-      <c r="AI37" s="70">
+      <c r="AI37" s="64">
         <v>53.309125555555553</v>
       </c>
       <c r="AJ37" s="18">
@@ -7474,7 +7465,7 @@
       <c r="AK37" s="18">
         <v>69.390240000000006</v>
       </c>
-      <c r="AL37" s="72">
+      <c r="AL37" s="66">
         <v>43.505209999999998</v>
       </c>
       <c r="AM37" s="18">
@@ -7527,7 +7518,7 @@
       <c r="N38" s="14">
         <v>9.2433764594383092</v>
       </c>
-      <c r="O38" s="56">
+      <c r="O38" s="52">
         <v>0.22430799633333334</v>
       </c>
       <c r="P38" s="14">
@@ -7545,7 +7536,7 @@
       <c r="T38" s="14">
         <v>61.521368016264852</v>
       </c>
-      <c r="U38" s="57">
+      <c r="U38" s="53">
         <v>5.7952543126163905</v>
       </c>
       <c r="V38" s="14">
@@ -7557,7 +7548,7 @@
       <c r="X38" s="18">
         <v>30.22011707687912</v>
       </c>
-      <c r="Y38" s="56">
+      <c r="Y38" s="52">
         <v>5.9960294427963818</v>
       </c>
       <c r="Z38" s="18">
@@ -7566,7 +7557,7 @@
       <c r="AA38" s="21">
         <v>58.029082298939848</v>
       </c>
-      <c r="AB38" s="62">
+      <c r="AB38" s="57">
         <v>78.463964597879695</v>
       </c>
       <c r="AC38" s="18">
@@ -7575,7 +7566,7 @@
       <c r="AD38" s="18">
         <v>87</v>
       </c>
-      <c r="AE38" s="66">
+      <c r="AE38" s="61">
         <v>64.2</v>
       </c>
       <c r="AF38" s="18">
@@ -7587,7 +7578,7 @@
       <c r="AH38" s="18">
         <v>81.240378642123929</v>
       </c>
-      <c r="AI38" s="70">
+      <c r="AI38" s="64">
         <v>37.594200000000001</v>
       </c>
       <c r="AJ38" s="23">
@@ -7596,7 +7587,7 @@
       <c r="AK38" s="18">
         <v>32.666666666666664</v>
       </c>
-      <c r="AL38" s="72">
+      <c r="AL38" s="66">
         <v>48.269559999999998</v>
       </c>
       <c r="AM38" s="18">
@@ -7647,7 +7638,7 @@
       <c r="N39" s="14">
         <v>31.036746888996493</v>
       </c>
-      <c r="O39" s="56">
+      <c r="O39" s="52">
         <v>0.40755017546666666</v>
       </c>
       <c r="P39" s="14">
@@ -7665,7 +7656,7 @@
       <c r="T39" s="14">
         <v>51.705248062874013</v>
       </c>
-      <c r="U39" s="57">
+      <c r="U39" s="53">
         <v>2.56198199969525</v>
       </c>
       <c r="V39" s="14">
@@ -7677,7 +7668,7 @@
       <c r="X39" s="18">
         <v>21.326841226515196</v>
       </c>
-      <c r="Y39" s="56">
+      <c r="Y39" s="52">
         <v>8.4349219658284866</v>
       </c>
       <c r="Z39" s="18">
@@ -7686,7 +7677,7 @@
       <c r="AA39" s="21">
         <v>92.671482302290059</v>
       </c>
-      <c r="AB39" s="62">
+      <c r="AB39" s="57">
         <v>93.342964604580104</v>
       </c>
       <c r="AC39" s="23">
@@ -7695,7 +7686,7 @@
       <c r="AD39" s="18">
         <v>98.666666666666671</v>
       </c>
-      <c r="AE39" s="66">
+      <c r="AE39" s="61">
         <v>34</v>
       </c>
       <c r="AF39" s="18">
@@ -7707,7 +7698,7 @@
       <c r="AH39" s="18">
         <v>95.907681692528172</v>
       </c>
-      <c r="AI39" s="70">
+      <c r="AI39" s="64">
         <v>92</v>
       </c>
       <c r="AJ39" s="23">
@@ -7716,7 +7707,7 @@
       <c r="AK39" s="18">
         <v>84</v>
       </c>
-      <c r="AL39" s="72">
+      <c r="AL39" s="66">
         <v>100.48788999999999</v>
       </c>
       <c r="AM39" s="18">
@@ -7767,7 +7758,7 @@
       <c r="N40" s="14">
         <v>9.8602568083772724</v>
       </c>
-      <c r="O40" s="56">
+      <c r="O40" s="52">
         <v>0.19902052236666667</v>
       </c>
       <c r="P40" s="14">
@@ -7785,7 +7776,7 @@
       <c r="T40" s="14">
         <v>43.741900508330914</v>
       </c>
-      <c r="U40" s="57">
+      <c r="U40" s="53">
         <v>1.68155968851659</v>
       </c>
       <c r="V40" s="14">
@@ -7797,7 +7788,7 @@
       <c r="X40" s="18">
         <v>10.939743961998214</v>
       </c>
-      <c r="Y40" s="56">
+      <c r="Y40" s="52">
         <v>5.4170013352117836</v>
       </c>
       <c r="Z40" s="18">
@@ -7806,7 +7797,7 @@
       <c r="AA40" s="21">
         <v>85.5030146109425</v>
       </c>
-      <c r="AB40" s="62">
+      <c r="AB40" s="57">
         <v>88.66704477744058</v>
       </c>
       <c r="AC40" s="18">
@@ -7815,7 +7806,7 @@
       <c r="AD40" s="18">
         <v>85.833333333333329</v>
       </c>
-      <c r="AE40" s="66">
+      <c r="AE40" s="61">
         <v>30.7</v>
       </c>
       <c r="AF40" s="18">
@@ -7827,7 +7818,7 @@
       <c r="AH40" s="18">
         <v>92.713255544442902</v>
       </c>
-      <c r="AI40" s="70">
+      <c r="AI40" s="64">
         <v>82.338984444444435</v>
       </c>
       <c r="AJ40" s="18">
@@ -7836,7 +7827,7 @@
       <c r="AK40" s="18">
         <v>89.321613333333332</v>
       </c>
-      <c r="AL40" s="72">
+      <c r="AL40" s="66">
         <v>77.820719999999994</v>
       </c>
       <c r="AM40" s="18">
@@ -7887,7 +7878,7 @@
       <c r="N41" s="14">
         <v>25.426955163613467</v>
       </c>
-      <c r="O41" s="56">
+      <c r="O41" s="52">
         <v>0.40645600916666669</v>
       </c>
       <c r="P41" s="14">
@@ -7905,7 +7896,7 @@
       <c r="T41" s="14">
         <v>43.074470340837365</v>
       </c>
-      <c r="U41" s="57">
+      <c r="U41" s="53">
         <v>0.87303288755785202</v>
       </c>
       <c r="V41" s="14">
@@ -7917,7 +7908,7 @@
       <c r="X41" s="18">
         <v>18.228909579282117</v>
       </c>
-      <c r="Y41" s="56">
+      <c r="Y41" s="52">
         <v>4.7068573496755706</v>
       </c>
       <c r="Z41" s="18">
@@ -7926,7 +7917,7 @@
       <c r="AA41" s="21">
         <v>94.223715145247468</v>
       </c>
-      <c r="AB41" s="62">
+      <c r="AB41" s="57">
         <v>92.213943623828257</v>
       </c>
       <c r="AC41" s="18">
@@ -7935,7 +7926,7 @@
       <c r="AD41" s="18">
         <v>88.166666666666657</v>
       </c>
-      <c r="AE41" s="66">
+      <c r="AE41" s="61">
         <v>20.9</v>
       </c>
       <c r="AF41" s="18">
@@ -7947,7 +7938,7 @@
       <c r="AH41" s="18">
         <v>95.081224810878709</v>
       </c>
-      <c r="AI41" s="70">
+      <c r="AI41" s="64">
         <v>96.233486666666664</v>
       </c>
       <c r="AJ41" s="18">
@@ -7956,7 +7947,7 @@
       <c r="AK41" s="18">
         <v>92.466973333333328</v>
       </c>
-      <c r="AL41" s="72">
+      <c r="AL41" s="66">
         <v>107.22326</v>
       </c>
       <c r="AM41" s="18">
@@ -8007,7 +7998,7 @@
       <c r="N42" s="14">
         <v>11.992643473822373</v>
       </c>
-      <c r="O42" s="56">
+      <c r="O42" s="52">
         <v>0.15367686776666667</v>
       </c>
       <c r="P42" s="14">
@@ -8025,7 +8016,7 @@
       <c r="T42" s="14">
         <v>5.003019873120337</v>
       </c>
-      <c r="U42" s="57">
+      <c r="U42" s="53">
         <v>2.0805214827152802E-3</v>
       </c>
       <c r="V42" s="14">
@@ -8037,7 +8028,7 @@
       <c r="X42" s="18">
         <v>10.006039746240674</v>
       </c>
-      <c r="Y42" s="56">
+      <c r="Y42" s="52">
         <v>11.9724744825263</v>
       </c>
       <c r="Z42" s="18">
@@ -8046,7 +8037,7 @@
       <c r="AA42" s="21">
         <v>86.142445230850356</v>
       </c>
-      <c r="AB42" s="62">
+      <c r="AB42" s="57">
         <v>96.632003795034038</v>
       </c>
       <c r="AC42" s="18">
@@ -8055,7 +8046,7 @@
       <c r="AD42" s="18">
         <v>100</v>
       </c>
-      <c r="AE42" s="66">
+      <c r="AE42" s="61">
         <v>22.8</v>
       </c>
       <c r="AF42" s="18">
@@ -8067,7 +8058,7 @@
       <c r="AH42" s="18">
         <v>97.653587142677836</v>
       </c>
-      <c r="AI42" s="70">
+      <c r="AI42" s="64">
         <v>75.652886666666674</v>
       </c>
       <c r="AJ42" s="18">
@@ -8076,7 +8067,7 @@
       <c r="AK42" s="18">
         <v>66.747640000000004</v>
       </c>
-      <c r="AL42" s="72">
+      <c r="AL42" s="66">
         <v>86.102320000000006</v>
       </c>
       <c r="AM42" s="18">
@@ -8127,7 +8118,7 @@
       <c r="N43" s="14">
         <v>14.942106872892447</v>
       </c>
-      <c r="O43" s="56">
+      <c r="O43" s="52">
         <v>0.2141167883</v>
       </c>
       <c r="P43" s="14">
@@ -8145,7 +8136,7 @@
       <c r="T43" s="14">
         <v>48.185056171040692</v>
       </c>
-      <c r="U43" s="57">
+      <c r="U43" s="53">
         <v>2.7967561172144899</v>
       </c>
       <c r="V43" s="14">
@@ -8157,7 +8148,7 @@
       <c r="X43" s="18">
         <v>13.132922860637262</v>
       </c>
-      <c r="Y43" s="56">
+      <c r="Y43" s="52">
         <v>5.5853291218450352</v>
       </c>
       <c r="Z43" s="18">
@@ -8166,7 +8157,7 @@
       <c r="AA43" s="21">
         <v>87.057435361933003</v>
       </c>
-      <c r="AB43" s="62">
+      <c r="AB43" s="57">
         <v>93.565298501643781</v>
       </c>
       <c r="AC43" s="18">
@@ -8175,7 +8166,7 @@
       <c r="AD43" s="18">
         <v>87.833333333333343</v>
       </c>
-      <c r="AE43" s="66">
+      <c r="AE43" s="61">
         <v>15</v>
       </c>
       <c r="AF43" s="18">
@@ -8187,7 +8178,7 @@
       <c r="AH43" s="18">
         <v>95.892865201901031</v>
       </c>
-      <c r="AI43" s="70">
+      <c r="AI43" s="64">
         <v>80.549572222222224</v>
       </c>
       <c r="AJ43" s="18">
@@ -8196,7 +8187,7 @@
       <c r="AK43" s="18">
         <v>83.959800000000001</v>
       </c>
-      <c r="AL43" s="72">
+      <c r="AL43" s="66">
         <v>79.425409999999999</v>
       </c>
       <c r="AM43" s="18">
@@ -8247,7 +8238,7 @@
       <c r="N44" s="14">
         <v>35.1709074295213</v>
       </c>
-      <c r="O44" s="56">
+      <c r="O44" s="52">
         <v>0.68434705353333325</v>
       </c>
       <c r="P44" s="14">
@@ -8265,7 +8256,7 @@
       <c r="T44" s="14">
         <v>0</v>
       </c>
-      <c r="U44" s="57">
+      <c r="U44" s="53">
         <v>0</v>
       </c>
       <c r="V44" s="14">
@@ -8277,7 +8268,7 @@
       <c r="X44" s="18">
         <v>0</v>
       </c>
-      <c r="Y44" s="56">
+      <c r="Y44" s="52">
         <v>13.319257596011379</v>
       </c>
       <c r="Z44" s="18">
@@ -8286,7 +8277,7 @@
       <c r="AA44" s="21">
         <v>58.449035786034869</v>
       </c>
-      <c r="AB44" s="62">
+      <c r="AB44" s="57">
         <v>60.378742683180839</v>
       </c>
       <c r="AC44" s="18">
@@ -8295,7 +8286,7 @@
       <c r="AD44" s="18">
         <v>58.333333333333336</v>
       </c>
-      <c r="AE44" s="66">
+      <c r="AE44" s="61">
         <v>90.9</v>
       </c>
       <c r="AF44" s="18">
@@ -8307,7 +8298,7 @@
       <c r="AH44" s="18">
         <v>71.833197746512226</v>
       </c>
-      <c r="AI44" s="70">
+      <c r="AI44" s="64">
         <v>56.519328888888893</v>
       </c>
       <c r="AJ44" s="18">
@@ -8316,7 +8307,7 @@
       <c r="AK44" s="18">
         <v>93.594213333333343</v>
       </c>
-      <c r="AL44" s="72">
+      <c r="AL44" s="66">
         <v>27.5</v>
       </c>
       <c r="AM44" s="18">
@@ -8369,7 +8360,7 @@
       <c r="N45" s="14">
         <v>31.558816755591799</v>
       </c>
-      <c r="O45" s="56">
+      <c r="O45" s="52">
         <v>0.4025732805333333</v>
       </c>
       <c r="P45" s="14">
@@ -8387,7 +8378,7 @@
       <c r="T45" s="14">
         <v>70.854582298395258</v>
       </c>
-      <c r="U45" s="57">
+      <c r="U45" s="53">
         <v>5.4997526160793502</v>
       </c>
       <c r="V45" s="14">
@@ -8399,7 +8390,7 @@
       <c r="X45" s="18">
         <v>49.575098725589818</v>
       </c>
-      <c r="Y45" s="56">
+      <c r="Y45" s="52">
         <v>31.677969439549162</v>
       </c>
       <c r="Z45" s="18">
@@ -8408,7 +8399,7 @@
       <c r="AA45" s="21">
         <v>42.893055780999646</v>
       </c>
-      <c r="AB45" s="62">
+      <c r="AB45" s="57">
         <v>47.927542673110416</v>
       </c>
       <c r="AC45" s="18">
@@ -8417,7 +8408,7 @@
       <c r="AD45" s="18">
         <v>6.1666666666666714</v>
       </c>
-      <c r="AE45" s="66">
+      <c r="AE45" s="61">
         <v>44.5</v>
       </c>
       <c r="AF45" s="18">
@@ -8429,7 +8420,7 @@
       <c r="AH45" s="18">
         <v>58.525052261755484</v>
       </c>
-      <c r="AI45" s="70">
+      <c r="AI45" s="64">
         <v>37.858568888888882</v>
       </c>
       <c r="AJ45" s="18">
@@ -8438,7 +8429,7 @@
       <c r="AK45" s="18">
         <v>52.883959999999995</v>
       </c>
-      <c r="AL45" s="72">
+      <c r="AL45" s="66">
         <v>30.549859999999999</v>
       </c>
       <c r="AM45" s="18">
@@ -8491,7 +8482,7 @@
       <c r="N46" s="14">
         <v>44.151672333729593</v>
       </c>
-      <c r="O46" s="56">
+      <c r="O46" s="52">
         <v>0.30298523729999999</v>
       </c>
       <c r="P46" s="14">
@@ -8509,7 +8500,7 @@
       <c r="T46" s="14">
         <v>49.486372910148489</v>
       </c>
-      <c r="U46" s="57">
+      <c r="U46" s="53">
         <v>3.2171561755255604</v>
       </c>
       <c r="V46" s="14">
@@ -8521,7 +8512,7 @@
       <c r="X46" s="18">
         <v>13.89317540094126</v>
       </c>
-      <c r="Y46" s="56">
+      <c r="Y46" s="52">
         <v>12.348752932840892</v>
       </c>
       <c r="Z46" s="18">
@@ -8530,7 +8521,7 @@
       <c r="AA46" s="21">
         <v>45.308533612626917</v>
       </c>
-      <c r="AB46" s="62">
+      <c r="AB46" s="57">
         <v>67.301275003031606</v>
       </c>
       <c r="AC46" s="18">
@@ -8539,7 +8530,7 @@
       <c r="AD46" s="18">
         <v>60.333333333333336</v>
       </c>
-      <c r="AE46" s="66">
+      <c r="AE46" s="61">
         <v>58.4</v>
       </c>
       <c r="AF46" s="18">
@@ -8551,7 +8542,7 @@
       <c r="AH46" s="18">
         <v>70.903825009094817</v>
       </c>
-      <c r="AI46" s="70">
+      <c r="AI46" s="64">
         <v>23.315792222222228</v>
       </c>
       <c r="AJ46" s="18">
@@ -8560,7 +8551,7 @@
       <c r="AK46" s="18">
         <v>18.661306666666672</v>
       </c>
-      <c r="AL46" s="72">
+      <c r="AL46" s="66">
         <v>35.173250000000003</v>
       </c>
       <c r="AM46" s="18">
@@ -8611,7 +8602,7 @@
       <c r="N47" s="14">
         <v>16.949424762785569</v>
       </c>
-      <c r="O47" s="56">
+      <c r="O47" s="52">
         <v>0.22628281823333332</v>
       </c>
       <c r="P47" s="14">
@@ -8629,7 +8620,7 @@
       <c r="T47" s="14">
         <v>58.318338963973815</v>
       </c>
-      <c r="U47" s="57">
+      <c r="U47" s="53">
         <v>4.7283367088545702</v>
       </c>
       <c r="V47" s="14">
@@ -8641,7 +8632,7 @@
       <c r="X47" s="18">
         <v>26.490923571751342</v>
       </c>
-      <c r="Y47" s="56">
+      <c r="Y47" s="52">
         <v>6.1258534368114592</v>
       </c>
       <c r="Z47" s="18">
@@ -8650,7 +8641,7 @@
       <c r="AA47" s="21">
         <v>92.954545290318521</v>
       </c>
-      <c r="AB47" s="62">
+      <c r="AB47" s="57">
         <v>96.871173913970367</v>
       </c>
       <c r="AC47" s="18">
@@ -8659,7 +8650,7 @@
       <c r="AD47" s="18">
         <v>100</v>
       </c>
-      <c r="AE47" s="66">
+      <c r="AE47" s="61">
         <v>22</v>
       </c>
       <c r="AF47" s="18">
@@ -8671,7 +8662,7 @@
       <c r="AH47" s="18">
         <v>97.886249014638381</v>
       </c>
-      <c r="AI47" s="70">
+      <c r="AI47" s="64">
         <v>89.037916666666661</v>
       </c>
       <c r="AJ47" s="23">
@@ -8680,7 +8671,7 @@
       <c r="AK47" s="18">
         <v>90.666666666666657</v>
       </c>
-      <c r="AL47" s="72">
+      <c r="AL47" s="66">
         <v>88.66825</v>
       </c>
       <c r="AM47" s="18">
@@ -8731,7 +8722,7 @@
       <c r="N48" s="14">
         <v>42.787798764388128</v>
       </c>
-      <c r="O48" s="56">
+      <c r="O48" s="52">
         <v>0.78154003303333341</v>
       </c>
       <c r="P48" s="14">
@@ -8749,7 +8740,7 @@
       <c r="T48" s="14">
         <v>35.733285213807733</v>
       </c>
-      <c r="U48" s="57">
+      <c r="U48" s="53">
         <v>0.23483578156854798</v>
       </c>
       <c r="V48" s="14">
@@ -8761,7 +8752,7 @@
       <c r="X48" s="18">
         <v>20.821945317794064</v>
       </c>
-      <c r="Y48" s="56">
+      <c r="Y48" s="52">
         <v>8.112382187900149</v>
       </c>
       <c r="Z48" s="18">
@@ -8770,7 +8761,7 @@
       <c r="AA48" s="21">
         <v>72.748924871238899</v>
       </c>
-      <c r="AB48" s="62">
+      <c r="AB48" s="57">
         <v>83.364205298033355</v>
       </c>
       <c r="AC48" s="18">
@@ -8779,7 +8770,7 @@
       <c r="AD48" s="18">
         <v>96.666666666666671</v>
       </c>
-      <c r="AE48" s="66">
+      <c r="AE48" s="61">
         <v>47.4</v>
       </c>
       <c r="AF48" s="18">
@@ -8791,7 +8782,7 @@
       <c r="AH48" s="18">
         <v>76.092615894100078</v>
       </c>
-      <c r="AI48" s="70">
+      <c r="AI48" s="64">
         <v>62.133644444444442</v>
       </c>
       <c r="AJ48" s="18">
@@ -8800,7 +8791,7 @@
       <c r="AK48" s="18">
         <v>76.378399999999999</v>
       </c>
-      <c r="AL48" s="72">
+      <c r="AL48" s="66">
         <v>53.1</v>
       </c>
       <c r="AM48" s="18">
@@ -8853,7 +8844,7 @@
       <c r="N49" s="14">
         <v>31.423154947566424</v>
       </c>
-      <c r="O49" s="56">
+      <c r="O49" s="52">
         <v>0.35392912396666665</v>
       </c>
       <c r="P49" s="14">
@@ -8871,7 +8862,7 @@
       <c r="T49" s="14">
         <v>86.632178751005711</v>
       </c>
-      <c r="U49" s="57">
+      <c r="U49" s="53">
         <v>1.7115145442448201</v>
       </c>
       <c r="V49" s="14">
@@ -8883,7 +8874,7 @@
       <c r="X49" s="18">
         <v>96.48800002980164</v>
       </c>
-      <c r="Y49" s="56">
+      <c r="Y49" s="52">
         <v>60.882514797333911</v>
       </c>
       <c r="Z49" s="18">
@@ -8892,7 +8883,7 @@
       <c r="AA49" s="21">
         <v>51.829203879838843</v>
       </c>
-      <c r="AB49" s="62">
+      <c r="AB49" s="57">
         <v>65.996246648566583</v>
       </c>
       <c r="AC49" s="18">
@@ -8901,7 +8892,7 @@
       <c r="AD49" s="18">
         <v>90.166666666666671</v>
       </c>
-      <c r="AE49" s="66">
+      <c r="AE49" s="61">
         <v>65.3</v>
       </c>
       <c r="AF49" s="18">
@@ -8913,7 +8904,7 @@
       <c r="AH49" s="18">
         <v>41.3372247941846</v>
       </c>
-      <c r="AI49" s="70">
+      <c r="AI49" s="64">
         <v>37.662161111111111</v>
       </c>
       <c r="AJ49" s="18">
@@ -8922,7 +8913,7 @@
       <c r="AK49" s="18">
         <v>22.600066666666663</v>
       </c>
-      <c r="AL49" s="72">
+      <c r="AL49" s="66">
         <v>57.451830000000001</v>
       </c>
       <c r="AM49" s="18">
@@ -8973,7 +8964,7 @@
       <c r="N50" s="14">
         <v>12.763918605467669</v>
       </c>
-      <c r="O50" s="56">
+      <c r="O50" s="52">
         <v>0.20079894280000002</v>
       </c>
       <c r="P50" s="14">
@@ -8991,7 +8982,7 @@
       <c r="T50" s="14">
         <v>58.783400524380497</v>
       </c>
-      <c r="U50" s="57">
+      <c r="U50" s="53">
         <v>0.96362445916747408</v>
       </c>
       <c r="V50" s="14">
@@ -9003,7 +8994,7 @@
       <c r="X50" s="18">
         <v>48.347865940702583</v>
       </c>
-      <c r="Y50" s="56">
+      <c r="Y50" s="52">
         <v>7.3648899260640377</v>
       </c>
       <c r="Z50" s="18">
@@ -9012,7 +9003,7 @@
       <c r="AA50" s="21">
         <v>98.802665509983058</v>
       </c>
-      <c r="AB50" s="62">
+      <c r="AB50" s="57">
         <v>97.881204353299452</v>
       </c>
       <c r="AC50" s="18">
@@ -9021,7 +9012,7 @@
       <c r="AD50" s="18">
         <v>96.666666666666671</v>
       </c>
-      <c r="AE50" s="66">
+      <c r="AE50" s="61">
         <v>10.7</v>
       </c>
       <c r="AF50" s="18">
@@ -9033,7 +9024,7 @@
       <c r="AH50" s="18">
         <v>97.401188817474136</v>
       </c>
-      <c r="AI50" s="70">
+      <c r="AI50" s="64">
         <v>99.724126666666677</v>
       </c>
       <c r="AJ50" s="18">
@@ -9042,7 +9033,7 @@
       <c r="AK50" s="18">
         <v>99.448253333333341</v>
       </c>
-      <c r="AL50" s="72">
+      <c r="AL50" s="66">
         <v>103.68162</v>
       </c>
       <c r="AM50" s="18">
@@ -9093,7 +9084,7 @@
       <c r="N51" s="14">
         <v>35.570950707518861</v>
       </c>
-      <c r="O51" s="56">
+      <c r="O51" s="52">
         <v>0.42752909456666671</v>
       </c>
       <c r="P51" s="14">
@@ -9111,7 +9102,7 @@
       <c r="T51" s="14">
         <v>29.503273942243204</v>
       </c>
-      <c r="U51" s="57">
+      <c r="U51" s="53">
         <v>0.272480372468133</v>
       </c>
       <c r="V51" s="14">
@@ -9123,7 +9114,7 @@
       <c r="X51" s="18">
         <v>6.4058377357066316</v>
       </c>
-      <c r="Y51" s="56">
+      <c r="Y51" s="52">
         <v>19.991652415015889</v>
       </c>
       <c r="Z51" s="18">
@@ -9132,7 +9123,7 @@
       <c r="AA51" s="21">
         <v>69.935132173726828</v>
       </c>
-      <c r="AB51" s="62">
+      <c r="AB51" s="57">
         <v>79.924973236342552</v>
       </c>
       <c r="AC51" s="18">
@@ -9141,7 +9132,7 @@
       <c r="AD51" s="18">
         <v>95.666666666666671</v>
       </c>
-      <c r="AE51" s="66">
+      <c r="AE51" s="61">
         <v>58.8</v>
       </c>
       <c r="AF51" s="18">
@@ -9153,7 +9144,7 @@
       <c r="AH51" s="18">
         <v>73.684010618118577</v>
       </c>
-      <c r="AI51" s="70">
+      <c r="AI51" s="64">
         <v>59.945291111111111</v>
       </c>
       <c r="AJ51" s="18">
@@ -9162,7 +9153,7 @@
       <c r="AK51" s="18">
         <v>61.996093333333327</v>
       </c>
-      <c r="AL51" s="72">
+      <c r="AL51" s="66">
         <v>62.105040000000002</v>
       </c>
       <c r="AM51" s="18">
@@ -9213,7 +9204,7 @@
       <c r="N52" s="14">
         <v>10.911792775167724</v>
       </c>
-      <c r="O52" s="56">
+      <c r="O52" s="52">
         <v>0.1891215785</v>
       </c>
       <c r="P52" s="14">
@@ -9231,7 +9222,7 @@
       <c r="T52" s="14">
         <v>67.131962932829367</v>
       </c>
-      <c r="U52" s="57">
+      <c r="U52" s="53">
         <v>2.9346318364357402</v>
       </c>
       <c r="V52" s="14">
@@ -9243,7 +9234,7 @@
       <c r="X52" s="18">
         <v>50.393630109880817</v>
       </c>
-      <c r="Y52" s="56">
+      <c r="Y52" s="52">
         <v>12.394896686221765</v>
       </c>
       <c r="Z52" s="18">
@@ -9252,7 +9243,7 @@
       <c r="AA52" s="21">
         <v>92.168987315681349</v>
       </c>
-      <c r="AB52" s="62">
+      <c r="AB52" s="57">
         <v>86.793735742473814</v>
       </c>
       <c r="AC52" s="18">
@@ -9261,7 +9252,7 @@
       <c r="AD52" s="18">
         <v>65.833333333333329</v>
       </c>
-      <c r="AE52" s="66">
+      <c r="AE52" s="61">
         <v>16</v>
       </c>
       <c r="AF52" s="18">
@@ -9273,7 +9264,7 @@
       <c r="AH52" s="18">
         <v>98.184237530451739</v>
       </c>
-      <c r="AI52" s="70">
+      <c r="AI52" s="64">
         <v>97.544238888888884</v>
       </c>
       <c r="AJ52" s="23">
@@ -9282,7 +9273,7 @@
       <c r="AK52" s="18">
         <v>96</v>
       </c>
-      <c r="AL52" s="72">
+      <c r="AL52" s="66">
         <v>99.179630000000003</v>
       </c>
       <c r="AM52" s="18">
@@ -9333,7 +9324,7 @@
       <c r="N53" s="14">
         <v>10.432990440681557</v>
       </c>
-      <c r="O53" s="56">
+      <c r="O53" s="52">
         <v>0.13577482646666666</v>
       </c>
       <c r="P53" s="14">
@@ -9351,7 +9342,7 @@
       <c r="T53" s="14">
         <v>44.391689077993618</v>
       </c>
-      <c r="U53" s="57">
+      <c r="U53" s="53">
         <v>2.6303422690853</v>
       </c>
       <c r="V53" s="14">
@@ -9363,7 +9354,7 @@
       <c r="X53" s="18">
         <v>6.3532801780654342</v>
       </c>
-      <c r="Y53" s="56">
+      <c r="Y53" s="52">
         <v>3.4229391284643604</v>
       </c>
       <c r="Z53" s="18">
@@ -9372,7 +9363,7 @@
       <c r="AA53" s="21">
         <v>78.244905338037796</v>
       </c>
-      <c r="AB53" s="62">
+      <c r="AB53" s="57">
         <v>88.062155120520018</v>
       </c>
       <c r="AC53" s="18">
@@ -9381,7 +9372,7 @@
       <c r="AD53" s="18">
         <v>82.333333333333343</v>
       </c>
-      <c r="AE53" s="66">
+      <c r="AE53" s="61">
         <v>28.5</v>
       </c>
       <c r="AF53" s="18">
@@ -9393,7 +9384,7 @@
       <c r="AH53" s="18">
         <v>93.065253240347914</v>
       </c>
-      <c r="AI53" s="70">
+      <c r="AI53" s="64">
         <v>68.42765555555556</v>
       </c>
       <c r="AJ53" s="18">
@@ -9402,7 +9393,7 @@
       <c r="AK53" s="18">
         <v>75.047866666666664</v>
       </c>
-      <c r="AL53" s="72">
+      <c r="AL53" s="66">
         <v>65.6267</v>
       </c>
       <c r="AM53" s="18">
@@ -9455,7 +9446,7 @@
       <c r="N54" s="14">
         <v>36.450488497057179</v>
       </c>
-      <c r="O54" s="56">
+      <c r="O54" s="52">
         <v>0.44759175933333334</v>
       </c>
       <c r="P54" s="14">
@@ -9473,7 +9464,7 @@
       <c r="T54" s="14">
         <v>24.685043814960871</v>
       </c>
-      <c r="U54" s="57">
+      <c r="U54" s="53">
         <v>0.203522278963116</v>
       </c>
       <c r="V54" s="14">
@@ -9485,7 +9476,7 @@
       <c r="X54" s="18">
         <v>0.6082782905911619</v>
       </c>
-      <c r="Y54" s="56">
+      <c r="Y54" s="52">
         <v>13.491545781292547</v>
       </c>
       <c r="Z54" s="18">
@@ -9494,7 +9485,7 @@
       <c r="AA54" s="21">
         <v>39.488939950740971</v>
       </c>
-      <c r="AB54" s="62">
+      <c r="AB54" s="57">
         <v>58.295712123704163</v>
       </c>
       <c r="AC54" s="18">
@@ -9503,7 +9494,7 @@
       <c r="AD54" s="18">
         <v>79.166666666666657</v>
       </c>
-      <c r="AE54" s="66">
+      <c r="AE54" s="61">
         <v>89</v>
       </c>
       <c r="AF54" s="18">
@@ -9515,7 +9506,7 @@
       <c r="AH54" s="18">
         <v>43.599257583233722</v>
       </c>
-      <c r="AI54" s="70">
+      <c r="AI54" s="64">
         <v>20.682167777777778</v>
       </c>
       <c r="AJ54" s="18">
@@ -9524,7 +9515,7 @@
       <c r="AK54" s="18">
         <v>9.3384800000000041</v>
       </c>
-      <c r="AL54" s="72">
+      <c r="AL54" s="66">
         <v>38.823270000000001</v>
       </c>
       <c r="AM54" s="18">
@@ -9577,7 +9568,7 @@
       <c r="N55" s="14">
         <v>81.972447038038069</v>
       </c>
-      <c r="O55" s="56">
+      <c r="O55" s="52">
         <v>0.8745217869666666</v>
       </c>
       <c r="P55" s="14">
@@ -9595,7 +9586,7 @@
       <c r="T55" s="14">
         <v>35.7634836508918</v>
       </c>
-      <c r="U55" s="57">
+      <c r="U55" s="53">
         <v>0.69482526692284008</v>
       </c>
       <c r="V55" s="14">
@@ -9607,7 +9598,7 @@
       <c r="X55" s="18">
         <v>6.6106956710788509</v>
       </c>
-      <c r="Y55" s="56">
+      <c r="Y55" s="52">
         <v>22.010750799242032</v>
       </c>
       <c r="Z55" s="18">
@@ -9616,7 +9607,7 @@
       <c r="AA55" s="21">
         <v>41.716252662688056</v>
       </c>
-      <c r="AB55" s="62">
+      <c r="AB55" s="57">
         <v>56.100620880931672</v>
       </c>
       <c r="AC55" s="18">
@@ -9625,7 +9616,7 @@
       <c r="AD55" s="18">
         <v>61.166666666666671</v>
       </c>
-      <c r="AE55" s="66">
+      <c r="AE55" s="61">
         <v>88.1</v>
       </c>
       <c r="AF55" s="18">
@@ -9637,7 +9628,7 @@
       <c r="AH55" s="18">
         <v>54.46852930946168</v>
       </c>
-      <c r="AI55" s="70">
+      <c r="AI55" s="64">
         <v>27.331884444444441</v>
       </c>
       <c r="AJ55" s="18">
@@ -9646,7 +9637,7 @@
       <c r="AK55" s="18">
         <v>27.44154666666666</v>
       </c>
-      <c r="AL55" s="72">
+      <c r="AL55" s="66">
         <v>34.5</v>
       </c>
       <c r="AM55" s="18">
@@ -9697,7 +9688,7 @@
       <c r="N56" s="14">
         <v>33.466753988833496</v>
       </c>
-      <c r="O56" s="56">
+      <c r="O56" s="52">
         <v>0.43656831529999995</v>
       </c>
       <c r="P56" s="14">
@@ -9715,7 +9706,7 @@
       <c r="T56" s="14">
         <v>63.263939782434626</v>
       </c>
-      <c r="U56" s="57">
+      <c r="U56" s="53">
         <v>8.0199266090001586</v>
       </c>
       <c r="V56" s="14">
@@ -9727,7 +9718,7 @@
       <c r="X56" s="18">
         <v>29.430900927522984</v>
       </c>
-      <c r="Y56" s="56">
+      <c r="Y56" s="52">
         <v>9.8333067728138701</v>
       </c>
       <c r="Z56" s="18">
@@ -9736,7 +9727,7 @@
       <c r="AA56" s="21">
         <v>85.895597969255931</v>
       </c>
-      <c r="AB56" s="62">
+      <c r="AB56" s="57">
         <v>87.288687049622979</v>
       </c>
       <c r="AC56" s="18">
@@ -9745,7 +9736,7 @@
       <c r="AD56" s="18">
         <v>94.166666666666671</v>
       </c>
-      <c r="AE56" s="66">
+      <c r="AE56" s="61">
         <v>32.4</v>
       </c>
       <c r="AF56" s="18">
@@ -9757,7 +9748,7 @@
       <c r="AH56" s="18">
         <v>81.275152057959829</v>
       </c>
-      <c r="AI56" s="70">
+      <c r="AI56" s="64">
         <v>84.502508888888883</v>
       </c>
       <c r="AJ56" s="18">
@@ -9766,7 +9757,7 @@
       <c r="AK56" s="18">
         <v>80.852973333333338</v>
       </c>
-      <c r="AL56" s="72">
+      <c r="AL56" s="66">
         <v>89.336839999999995</v>
       </c>
       <c r="AM56" s="18">
@@ -9819,7 +9810,7 @@
       <c r="N57" s="14">
         <v>37.430529272818099</v>
       </c>
-      <c r="O57" s="56">
+      <c r="O57" s="52">
         <v>0.50731470093333331</v>
       </c>
       <c r="P57" s="14">
@@ -9837,7 +9828,7 @@
       <c r="T57" s="14">
         <v>52.475353481150137</v>
       </c>
-      <c r="U57" s="57">
+      <c r="U57" s="53">
         <v>5.9590474592329397</v>
       </c>
       <c r="V57" s="14">
@@ -9849,7 +9840,7 @@
       <c r="X57" s="18">
         <v>11.761404109402822</v>
       </c>
-      <c r="Y57" s="56">
+      <c r="Y57" s="52">
         <v>6.3447429072603727</v>
       </c>
       <c r="Z57" s="18">
@@ -9858,7 +9849,7 @@
       <c r="AA57" s="21">
         <v>47.974151818556948</v>
       </c>
-      <c r="AB57" s="62">
+      <c r="AB57" s="57">
         <v>55.379261079411869</v>
       </c>
       <c r="AC57" s="18">
@@ -9867,7 +9858,7 @@
       <c r="AD57" s="18">
         <v>30.333333333333339</v>
       </c>
-      <c r="AE57" s="66">
+      <c r="AE57" s="61">
         <v>67</v>
       </c>
       <c r="AF57" s="18">
@@ -9879,7 +9870,7 @@
       <c r="AH57" s="18">
         <v>70.349904450356817</v>
       </c>
-      <c r="AI57" s="70">
+      <c r="AI57" s="64">
         <v>40.569042557702019</v>
       </c>
       <c r="AJ57" s="18">
@@ -9888,7 +9879,7 @@
       <c r="AK57" s="18">
         <v>48</v>
       </c>
-      <c r="AL57" s="72">
+      <c r="AL57" s="66">
         <v>39.824276603863645</v>
       </c>
       <c r="AM57" s="18">
@@ -9939,7 +9930,7 @@
       <c r="N58" s="14">
         <v>16.445465564362252</v>
       </c>
-      <c r="O58" s="56">
+      <c r="O58" s="52">
         <v>0.20954574826666669</v>
       </c>
       <c r="P58" s="14">
@@ -9957,7 +9948,7 @@
       <c r="T58" s="14">
         <v>52.988298114799996</v>
       </c>
-      <c r="U58" s="57">
+      <c r="U58" s="53">
         <v>3.5557510156562597</v>
       </c>
       <c r="V58" s="14">
@@ -9969,7 +9960,7 @@
       <c r="X58" s="18">
         <v>19.580491311691066</v>
       </c>
-      <c r="Y58" s="56">
+      <c r="Y58" s="52">
         <v>6.4550632898533422</v>
       </c>
       <c r="Z58" s="18">
@@ -9978,7 +9969,7 @@
       <c r="AA58" s="21">
         <v>82.876471987411591</v>
       </c>
-      <c r="AB58" s="62">
+      <c r="AB58" s="57">
         <v>89.330407308156509</v>
       </c>
       <c r="AC58" s="18">
@@ -9987,7 +9978,7 @@
       <c r="AD58" s="18">
         <v>83.666666666666671</v>
       </c>
-      <c r="AE58" s="66">
+      <c r="AE58" s="61">
         <v>18.7</v>
       </c>
       <c r="AF58" s="18">
@@ -9999,7 +9990,7 @@
       <c r="AH58" s="18">
         <v>89.597282530530137</v>
       </c>
-      <c r="AI58" s="70">
+      <c r="AI58" s="64">
         <v>76.422536666666673</v>
       </c>
       <c r="AJ58" s="18">
@@ -10008,7 +9999,7 @@
       <c r="AK58" s="18">
         <v>85.316640000000007</v>
       </c>
-      <c r="AL58" s="72">
+      <c r="AL58" s="66">
         <v>70.775589999999994</v>
       </c>
       <c r="AM58" s="18">
@@ -10059,7 +10050,7 @@
       <c r="N59" s="14">
         <v>16.313959269749699</v>
       </c>
-      <c r="O59" s="56">
+      <c r="O59" s="52">
         <v>0.1380204501</v>
       </c>
       <c r="P59" s="14">
@@ -10077,7 +10068,7 @@
       <c r="T59" s="14">
         <v>50.846173451237568</v>
       </c>
-      <c r="U59" s="57">
+      <c r="U59" s="53">
         <v>4.8194424528856299</v>
       </c>
       <c r="V59" s="14">
@@ -10089,7 +10080,7 @@
       <c r="X59" s="18">
         <v>11.295507174333272</v>
       </c>
-      <c r="Y59" s="56">
+      <c r="Y59" s="52">
         <v>8.3682182200059856</v>
       </c>
       <c r="Z59" s="18">
@@ -10098,7 +10089,7 @@
       <c r="AA59" s="21">
         <v>74.202858396717431</v>
       </c>
-      <c r="AB59" s="62">
+      <c r="AB59" s="57">
         <v>83.332232348990402</v>
       </c>
       <c r="AC59" s="18">
@@ -10107,7 +10098,7 @@
       <c r="AD59" s="18">
         <v>84.166666666666671</v>
       </c>
-      <c r="AE59" s="66">
+      <c r="AE59" s="61">
         <v>43</v>
       </c>
       <c r="AF59" s="18">
@@ -10119,7 +10110,7 @@
       <c r="AH59" s="18">
         <v>85.830030380304521</v>
       </c>
-      <c r="AI59" s="70">
+      <c r="AI59" s="64">
         <v>65.073484444444446</v>
       </c>
       <c r="AJ59" s="18">
@@ -10128,7 +10119,7 @@
       <c r="AK59" s="18">
         <v>59.070080000000004</v>
       </c>
-      <c r="AL59" s="72">
+      <c r="AL59" s="66">
         <v>73.969200000000001</v>
       </c>
       <c r="AM59" s="18">
@@ -10179,7 +10170,7 @@
       <c r="N60" s="14">
         <v>13.18913356185028</v>
       </c>
-      <c r="O60" s="56">
+      <c r="O60" s="52">
         <v>0.13905478266666668</v>
       </c>
       <c r="P60" s="14">
@@ -10197,7 +10188,7 @@
       <c r="T60" s="14">
         <v>31.154555926269943</v>
       </c>
-      <c r="U60" s="57">
+      <c r="U60" s="53">
         <v>0.33760942496789698</v>
       </c>
       <c r="V60" s="14">
@@ -10209,7 +10200,7 @@
       <c r="X60" s="18">
         <v>6.8886957916984679</v>
       </c>
-      <c r="Y60" s="56">
+      <c r="Y60" s="52">
         <v>10.604506527630663</v>
       </c>
       <c r="Z60" s="18">
@@ -10218,7 +10209,7 @@
       <c r="AA60" s="21">
         <v>90.373928254353359</v>
       </c>
-      <c r="AB60" s="62">
+      <c r="AB60" s="57">
         <v>91.695387619817822</v>
       </c>
       <c r="AC60" s="18">
@@ -10227,7 +10218,7 @@
       <c r="AD60" s="18">
         <v>95.166666666666671</v>
       </c>
-      <c r="AE60" s="66">
+      <c r="AE60" s="61">
         <v>26.4</v>
       </c>
       <c r="AF60" s="18">
@@ -10239,7 +10230,7 @@
       <c r="AH60" s="18">
         <v>89.858890132180761</v>
       </c>
-      <c r="AI60" s="70">
+      <c r="AI60" s="64">
         <v>89.052468888888882</v>
       </c>
       <c r="AJ60" s="18">
@@ -10248,7 +10239,7 @@
       <c r="AK60" s="18">
         <v>93.83596</v>
       </c>
-      <c r="AL60" s="72">
+      <c r="AL60" s="66">
         <v>85.842079999999996</v>
       </c>
       <c r="AM60" s="18">
@@ -10299,7 +10290,7 @@
       <c r="N61" s="14">
         <v>34.479122401471002</v>
       </c>
-      <c r="O61" s="56">
+      <c r="O61" s="52">
         <v>0.55570084229999994</v>
       </c>
       <c r="P61" s="14">
@@ -10317,7 +10308,7 @@
       <c r="T61" s="14">
         <v>47.868911810908081</v>
       </c>
-      <c r="U61" s="57">
+      <c r="U61" s="53">
         <v>3.0813969259402296</v>
       </c>
       <c r="V61" s="14">
@@ -10329,7 +10320,7 @@
       <c r="X61" s="18">
         <v>11.225485221381268</v>
       </c>
-      <c r="Y61" s="56">
+      <c r="Y61" s="52">
         <v>10.650318363038304</v>
       </c>
       <c r="Z61" s="18">
@@ -10338,7 +10329,7 @@
       <c r="AA61" s="21">
         <v>90.957323424905184</v>
       </c>
-      <c r="AB61" s="62">
+      <c r="AB61" s="57">
         <v>98.129353516477025</v>
       </c>
       <c r="AC61" s="18">
@@ -10347,7 +10338,7 @@
       <c r="AD61" s="18">
         <v>99.166666666666671</v>
       </c>
-      <c r="AE61" s="66">
+      <c r="AE61" s="61">
         <v>15.1</v>
       </c>
       <c r="AF61" s="18">
@@ -10359,7 +10350,7 @@
       <c r="AH61" s="18">
         <v>98.312302973673553</v>
       </c>
-      <c r="AI61" s="70">
+      <c r="AI61" s="64">
         <v>83.785293333333343</v>
       </c>
       <c r="AJ61" s="18">
@@ -10368,7 +10359,7 @@
       <c r="AK61" s="18">
         <v>79.606986666666671</v>
       </c>
-      <c r="AL61" s="72">
+      <c r="AL61" s="66">
         <v>89.167240000000007</v>
       </c>
       <c r="AM61" s="18">
@@ -10419,7 +10410,7 @@
       <c r="N62" s="14">
         <v>52.803067109418137</v>
       </c>
-      <c r="O62" s="56">
+      <c r="O62" s="52">
         <v>0.9598894340666666</v>
       </c>
       <c r="P62" s="14">
@@ -10437,7 +10428,7 @@
       <c r="T62" s="14">
         <v>28.922665654127851</v>
       </c>
-      <c r="U62" s="57">
+      <c r="U62" s="53">
         <v>2.22697174758212E-2</v>
       </c>
       <c r="V62" s="14">
@@ -10449,7 +10440,7 @@
       <c r="X62" s="18">
         <v>38.192534941069809</v>
       </c>
-      <c r="Y62" s="56">
+      <c r="Y62" s="52">
         <v>12.329442993641653</v>
       </c>
       <c r="Z62" s="18">
@@ -10458,7 +10449,7 @@
       <c r="AA62" s="21">
         <v>59.20312408911856</v>
       </c>
-      <c r="AB62" s="62">
+      <c r="AB62" s="57">
         <v>81.806472622681568</v>
       </c>
       <c r="AC62" s="18">
@@ -10467,7 +10458,7 @@
       <c r="AD62" s="18">
         <v>62</v>
       </c>
-      <c r="AE62" s="66">
+      <c r="AE62" s="61">
         <v>31.2</v>
       </c>
       <c r="AF62" s="18">
@@ -10479,7 +10470,7 @@
       <c r="AH62" s="18">
         <v>96.267902716529534</v>
       </c>
-      <c r="AI62" s="70">
+      <c r="AI62" s="64">
         <v>36.59977555555556</v>
       </c>
       <c r="AJ62" s="18">
@@ -10488,7 +10479,7 @@
       <c r="AK62" s="18">
         <v>24.911040000000003</v>
       </c>
-      <c r="AL62" s="72">
+      <c r="AL62" s="66">
         <v>53.45966</v>
       </c>
       <c r="AM62" s="18">
@@ -10539,7 +10530,7 @@
       <c r="N63" s="14">
         <v>10.34812653743727</v>
       </c>
-      <c r="O63" s="56">
+      <c r="O63" s="52">
         <v>0.27161688299999998</v>
       </c>
       <c r="P63" s="14">
@@ -10557,7 +10548,7 @@
       <c r="T63" s="14">
         <v>40.552040198764168</v>
       </c>
-      <c r="U63" s="57">
+      <c r="U63" s="53">
         <v>1.33207766353062</v>
       </c>
       <c r="V63" s="14">
@@ -10569,7 +10560,7 @@
       <c r="X63" s="18">
         <v>7.6252103206072386</v>
       </c>
-      <c r="Y63" s="56">
+      <c r="Y63" s="52">
         <v>7.1484088755463358</v>
       </c>
       <c r="Z63" s="18">
@@ -10578,7 +10569,7 @@
       <c r="AA63" s="21">
         <v>99.251362287672748</v>
       </c>
-      <c r="AB63" s="62">
+      <c r="AB63" s="57">
         <v>99.99326457534552</v>
       </c>
       <c r="AC63" s="18">
@@ -10587,7 +10578,7 @@
       <c r="AD63" s="18">
         <v>100</v>
       </c>
-      <c r="AE63" s="66">
+      <c r="AE63" s="61">
         <v>3.6</v>
       </c>
       <c r="AF63" s="18">
@@ -10599,7 +10590,7 @@
       <c r="AH63" s="18">
         <v>99.979793726036576</v>
       </c>
-      <c r="AI63" s="70">
+      <c r="AI63" s="64">
         <v>98.50945999999999</v>
       </c>
       <c r="AJ63" s="18">
@@ -10608,7 +10599,7 @@
       <c r="AK63" s="18">
         <v>97.018919999999994</v>
       </c>
-      <c r="AL63" s="72">
+      <c r="AL63" s="66">
         <v>102.47881</v>
       </c>
       <c r="AM63" s="18">
@@ -10659,7 +10650,7 @@
       <c r="N64" s="14">
         <v>27.547781969810067</v>
       </c>
-      <c r="O64" s="56">
+      <c r="O64" s="52">
         <v>0.47887466850000004</v>
       </c>
       <c r="P64" s="14">
@@ -10677,7 +10668,7 @@
       <c r="T64" s="14">
         <v>40.638442260522879</v>
       </c>
-      <c r="U64" s="57">
+      <c r="U64" s="53">
         <v>1.5473263328307099</v>
       </c>
       <c r="V64" s="14">
@@ -10689,7 +10680,7 @@
       <c r="X64" s="18">
         <v>5.8273455747126013</v>
       </c>
-      <c r="Y64" s="56">
+      <c r="Y64" s="52">
         <v>7.1279723884203907</v>
       </c>
       <c r="Z64" s="18">
@@ -10698,7 +10689,7 @@
       <c r="AA64" s="21">
         <v>88.55113879154672</v>
       </c>
-      <c r="AB64" s="62">
+      <c r="AB64" s="57">
         <v>94.709388694204563</v>
       </c>
       <c r="AC64" s="18">
@@ -10707,7 +10698,7 @@
       <c r="AD64" s="18">
         <v>94.333333333333343</v>
       </c>
-      <c r="AE64" s="66">
+      <c r="AE64" s="61">
         <v>15.3</v>
       </c>
       <c r="AF64" s="18">
@@ -10719,7 +10710,7 @@
       <c r="AH64" s="18">
         <v>93.006953961401535</v>
       </c>
-      <c r="AI64" s="70">
+      <c r="AI64" s="64">
         <v>82.392888888888891</v>
       </c>
       <c r="AJ64" s="18">
@@ -10728,7 +10719,7 @@
       <c r="AK64" s="18">
         <v>84.666533333333334</v>
       </c>
-      <c r="AL64" s="72">
+      <c r="AL64" s="66">
         <v>82.107320000000001</v>
       </c>
       <c r="AM64" s="18">
@@ -10779,7 +10770,7 @@
       <c r="N65" s="14">
         <v>6.1316239731436024</v>
       </c>
-      <c r="O65" s="56">
+      <c r="O65" s="52">
         <v>0.16297016293333333</v>
       </c>
       <c r="P65" s="14">
@@ -10797,7 +10788,7 @@
       <c r="T65" s="14">
         <v>43.352191942189762</v>
       </c>
-      <c r="U65" s="57">
+      <c r="U65" s="53">
         <v>0.32668082670216797</v>
       </c>
       <c r="V65" s="14">
@@ -10809,7 +10800,7 @@
       <c r="X65" s="18">
         <v>31.71689076869756</v>
       </c>
-      <c r="Y65" s="56">
+      <c r="Y65" s="52">
         <v>7.8224150905760279</v>
       </c>
       <c r="Z65" s="18">
@@ -10818,7 +10809,7 @@
       <c r="AA65" s="21">
         <v>92.917835562086552</v>
       </c>
-      <c r="AB65" s="62">
+      <c r="AB65" s="57">
         <v>96.994602235284219</v>
       </c>
       <c r="AC65" s="18">
@@ -10827,7 +10818,7 @@
       <c r="AD65" s="18">
         <v>100</v>
       </c>
-      <c r="AE65" s="66">
+      <c r="AE65" s="61">
         <v>17.600000000000001</v>
       </c>
       <c r="AF65" s="18">
@@ -10839,7 +10830,7 @@
       <c r="AH65" s="18">
         <v>95.589867311913295</v>
       </c>
-      <c r="AI65" s="70">
+      <c r="AI65" s="64">
         <v>88.841068888888884</v>
       </c>
       <c r="AJ65" s="18">
@@ -10848,7 +10839,7 @@
       <c r="AK65" s="18">
         <v>97.187093333333337</v>
       </c>
-      <c r="AL65" s="72">
+      <c r="AL65" s="66">
         <v>82.445539999999994</v>
       </c>
       <c r="AM65" s="18">
@@ -10899,7 +10890,7 @@
       <c r="N66" s="14">
         <v>31.204211781596488</v>
       </c>
-      <c r="O66" s="56">
+      <c r="O66" s="52">
         <v>0.57498673659999999</v>
       </c>
       <c r="P66" s="14">
@@ -10917,7 +10908,7 @@
       <c r="T66" s="14">
         <v>45.995164338694934</v>
       </c>
-      <c r="U66" s="57">
+      <c r="U66" s="53">
         <v>0.24362234801163299</v>
       </c>
       <c r="V66" s="14">
@@ -10929,7 +10920,7 @@
       <c r="X66" s="18">
         <v>40.862434582115561</v>
       </c>
-      <c r="Y66" s="56">
+      <c r="Y66" s="52">
         <v>8.1316715243568005</v>
       </c>
       <c r="Z66" s="18">
@@ -10938,7 +10929,7 @@
       <c r="AA66" s="21">
         <v>99.688831536121114</v>
       </c>
-      <c r="AB66" s="62">
+      <c r="AB66" s="57">
         <v>99.523243072242209</v>
       </c>
       <c r="AC66" s="18">
@@ -10947,7 +10938,7 @@
       <c r="AD66" s="18">
         <v>100</v>
       </c>
-      <c r="AE66" s="66">
+      <c r="AE66" s="61">
         <v>11.4</v>
       </c>
       <c r="AF66" s="18">
@@ -10959,7 +10950,7 @@
       <c r="AH66" s="18">
         <v>99.418214065211501</v>
       </c>
-      <c r="AI66" s="70">
+      <c r="AI66" s="64">
         <v>99.854420000000005</v>
       </c>
       <c r="AJ66" s="18">
@@ -10968,7 +10959,7 @@
       <c r="AK66" s="18">
         <v>99.708840000000009</v>
       </c>
-      <c r="AL66" s="72">
+      <c r="AL66" s="66">
         <v>112.00781000000001</v>
       </c>
       <c r="AM66" s="18">
@@ -11019,7 +11010,7 @@
       <c r="N67" s="14">
         <v>31.804585687101227</v>
       </c>
-      <c r="O67" s="56">
+      <c r="O67" s="52">
         <v>0.19185044326666667</v>
       </c>
       <c r="P67" s="14">
@@ -11037,7 +11028,7 @@
       <c r="T67" s="14">
         <v>55.082114157140829</v>
       </c>
-      <c r="U67" s="57">
+      <c r="U67" s="53">
         <v>7.2071025929566694</v>
       </c>
       <c r="V67" s="14">
@@ -11049,7 +11040,7 @@
       <c r="X67" s="18">
         <v>14.473165097964486</v>
       </c>
-      <c r="Y67" s="56">
+      <c r="Y67" s="52">
         <v>4.2548650660780645</v>
       </c>
       <c r="Z67" s="18">
@@ -11058,7 +11049,7 @@
       <c r="AA67" s="21">
         <v>67.007078519769934</v>
       </c>
-      <c r="AB67" s="62">
+      <c r="AB67" s="57">
         <v>70.174452595095417</v>
       </c>
       <c r="AC67" s="18">
@@ -11067,7 +11058,7 @@
       <c r="AD67" s="18">
         <v>76.5</v>
       </c>
-      <c r="AE67" s="66">
+      <c r="AE67" s="61">
         <v>49.2</v>
       </c>
       <c r="AF67" s="18">
@@ -11079,7 +11070,7 @@
       <c r="AH67" s="18">
         <v>57.780933542862002</v>
       </c>
-      <c r="AI67" s="70">
+      <c r="AI67" s="64">
         <v>63.839704444444443</v>
       </c>
       <c r="AJ67" s="18">
@@ -11088,7 +11079,7 @@
       <c r="AK67" s="18">
         <v>71.644053333333332</v>
       </c>
-      <c r="AL67" s="72">
+      <c r="AL67" s="66">
         <v>60.431820000000002</v>
       </c>
       <c r="AM67" s="18">
@@ -11141,7 +11132,7 @@
       <c r="N68" s="14">
         <v>64.309569097255135</v>
       </c>
-      <c r="O68" s="56">
+      <c r="O68" s="52">
         <v>0.87118505930000001</v>
       </c>
       <c r="P68" s="14">
@@ -11159,7 +11150,7 @@
       <c r="T68" s="14">
         <v>82.573327098789775</v>
       </c>
-      <c r="U68" s="57">
+      <c r="U68" s="53">
         <v>5.1433123934438898</v>
       </c>
       <c r="V68" s="14">
@@ -11171,7 +11162,7 @@
       <c r="X68" s="18">
         <v>73.894138987742622</v>
       </c>
-      <c r="Y68" s="56">
+      <c r="Y68" s="52">
         <v>16.560612240989254</v>
       </c>
       <c r="Z68" s="18">
@@ -11180,7 +11171,7 @@
       <c r="AA68" s="21">
         <v>83.96679690389746</v>
       </c>
-      <c r="AB68" s="62">
+      <c r="AB68" s="57">
         <v>88.685424938835311</v>
       </c>
       <c r="AC68" s="18">
@@ -11189,7 +11180,7 @@
       <c r="AD68" s="18">
         <v>100</v>
       </c>
-      <c r="AE68" s="66">
+      <c r="AE68" s="61">
         <v>54.3</v>
       </c>
       <c r="AF68" s="18">
@@ -11201,7 +11192,7 @@
       <c r="AH68" s="18">
         <v>92.904759664990792</v>
       </c>
-      <c r="AI68" s="70">
+      <c r="AI68" s="64">
         <v>79.248168868959624</v>
       </c>
       <c r="AJ68" s="23">
@@ -11210,7 +11201,7 @@
       <c r="AK68" s="18">
         <v>72.789571071252567</v>
       </c>
-      <c r="AL68" s="72">
+      <c r="AL68" s="66">
         <v>87.136089999999996</v>
       </c>
       <c r="AM68" s="18">
@@ -11261,7 +11252,7 @@
       <c r="N69" s="14">
         <v>31.935702101960789</v>
       </c>
-      <c r="O69" s="56">
+      <c r="O69" s="52">
         <v>0.64290693573333335</v>
       </c>
       <c r="P69" s="14">
@@ -11279,7 +11270,7 @@
       <c r="T69" s="14">
         <v>14.784500297204509</v>
       </c>
-      <c r="U69" s="57">
+      <c r="U69" s="53">
         <v>5.8881347671621608E-4</v>
       </c>
       <c r="V69" s="14">
@@ -11291,7 +11282,7 @@
       <c r="X69" s="18">
         <v>29.569000594409019</v>
       </c>
-      <c r="Y69" s="56">
+      <c r="Y69" s="52">
         <v>8.9908650048567154</v>
       </c>
       <c r="Z69" s="18">
@@ -11300,7 +11291,7 @@
       <c r="AA69" s="21">
         <v>97.165330555555556</v>
       </c>
-      <c r="AB69" s="62">
+      <c r="AB69" s="57">
         <v>100</v>
       </c>
       <c r="AC69" s="18">
@@ -11309,7 +11300,7 @@
       <c r="AD69" s="18">
         <v>100</v>
       </c>
-      <c r="AE69" s="66">
+      <c r="AE69" s="61">
         <v>8.4</v>
       </c>
       <c r="AF69" s="18">
@@ -11321,7 +11312,7 @@
       <c r="AH69" s="18">
         <v>100</v>
       </c>
-      <c r="AI69" s="70">
+      <c r="AI69" s="64">
         <v>94.330661111111112</v>
       </c>
       <c r="AJ69" s="18">
@@ -11330,7 +11321,7 @@
       <c r="AK69" s="18">
         <v>94.247266666666675</v>
       </c>
-      <c r="AL69" s="72">
+      <c r="AL69" s="66">
         <v>94.972650000000002</v>
       </c>
       <c r="AM69" s="18">
@@ -11381,7 +11372,7 @@
       <c r="N70" s="14">
         <v>29.699324067144186</v>
       </c>
-      <c r="O70" s="56">
+      <c r="O70" s="52">
         <v>0.3969319183333333</v>
       </c>
       <c r="P70" s="14">
@@ -11399,7 +11390,7 @@
       <c r="T70" s="14">
         <v>45.942881308448122</v>
       </c>
-      <c r="U70" s="57">
+      <c r="U70" s="53">
         <v>1.9425709479962399</v>
       </c>
       <c r="V70" s="14">
@@ -11411,7 +11402,7 @@
       <c r="X70" s="18">
         <v>13.443370743801408</v>
       </c>
-      <c r="Y70" s="56">
+      <c r="Y70" s="52">
         <v>10.384398727805456</v>
       </c>
       <c r="Z70" s="18">
@@ -11420,7 +11411,7 @@
       <c r="AA70" s="21">
         <v>95.046137674106603</v>
       </c>
-      <c r="AB70" s="62">
+      <c r="AB70" s="57">
         <v>95.013060903768746</v>
       </c>
       <c r="AC70" s="18">
@@ -11429,7 +11420,7 @@
       <c r="AD70" s="18">
         <v>97.666666666666671</v>
       </c>
-      <c r="AE70" s="66">
+      <c r="AE70" s="61">
         <v>21.1</v>
       </c>
       <c r="AF70" s="18">
@@ -11441,7 +11432,7 @@
       <c r="AH70" s="18">
         <v>94.099788771912273</v>
       </c>
-      <c r="AI70" s="70">
+      <c r="AI70" s="64">
         <v>95.07921444444446</v>
       </c>
       <c r="AJ70" s="18">
@@ -11450,7 +11441,7 @@
       <c r="AK70" s="18">
         <v>98.991240000000005</v>
       </c>
-      <c r="AL70" s="72">
+      <c r="AL70" s="66">
         <v>92.050470000000004</v>
       </c>
       <c r="AM70" s="18">
@@ -11503,7 +11494,7 @@
       <c r="N71" s="14">
         <v>22.71421138759219</v>
       </c>
-      <c r="O71" s="56">
+      <c r="O71" s="52">
         <v>0.21821579266666666</v>
       </c>
       <c r="P71" s="14">
@@ -11521,7 +11512,7 @@
       <c r="T71" s="14">
         <v>49.543468197945728</v>
       </c>
-      <c r="U71" s="57">
+      <c r="U71" s="53">
         <v>2.1363637069502497</v>
       </c>
       <c r="V71" s="14">
@@ -11533,7 +11524,7 @@
       <c r="X71" s="18">
         <v>19.393471308256974</v>
       </c>
-      <c r="Y71" s="56">
+      <c r="Y71" s="52">
         <v>12.200569837304842</v>
       </c>
       <c r="Z71" s="18">
@@ -11542,7 +11533,7 @@
       <c r="AA71" s="21">
         <v>72.771403496050766</v>
       </c>
-      <c r="AB71" s="62">
+      <c r="AB71" s="57">
         <v>77.022118103212648</v>
       </c>
       <c r="AC71" s="27">
@@ -11551,7 +11542,7 @@
       <c r="AD71" s="18">
         <v>79.833333333333329</v>
       </c>
-      <c r="AE71" s="66">
+      <c r="AE71" s="61">
         <v>63.9</v>
       </c>
       <c r="AF71" s="18">
@@ -11563,7 +11554,7 @@
       <c r="AH71" s="18">
         <v>83.899687642971287</v>
       </c>
-      <c r="AI71" s="70">
+      <c r="AI71" s="64">
         <v>68.520688888888898</v>
       </c>
       <c r="AJ71" s="18">
@@ -11572,7 +11563,7 @@
       <c r="AK71" s="18">
         <v>79.600000000000009</v>
       </c>
-      <c r="AL71" s="62">
+      <c r="AL71" s="57">
         <v>61.697240000000001</v>
       </c>
       <c r="AM71" s="18">
@@ -11623,7 +11614,7 @@
       <c r="N72" s="14">
         <v>2.9158570265249564</v>
       </c>
-      <c r="O72" s="56">
+      <c r="O72" s="52">
         <v>0.11100663753333333</v>
       </c>
       <c r="P72" s="14">
@@ -11641,7 +11632,7 @@
       <c r="T72" s="14">
         <v>43.355321817740972</v>
       </c>
-      <c r="U72" s="57">
+      <c r="U72" s="53">
         <v>0.87962800300896304</v>
       </c>
       <c r="V72" s="14">
@@ -11653,7 +11644,7 @@
       <c r="X72" s="18">
         <v>18.691599721540502</v>
       </c>
-      <c r="Y72" s="56">
+      <c r="Y72" s="52">
         <v>7.0762927538179987</v>
       </c>
       <c r="Z72" s="18">
@@ -11662,7 +11653,7 @@
       <c r="AA72" s="21">
         <v>86.035677872178383</v>
       </c>
-      <c r="AB72" s="62">
+      <c r="AB72" s="57">
         <v>99.500923522134528</v>
       </c>
       <c r="AC72" s="18">
@@ -11671,7 +11662,7 @@
       <c r="AD72" s="18">
         <v>99.333333333333343</v>
       </c>
-      <c r="AE72" s="66">
+      <c r="AE72" s="61">
         <v>8.1</v>
       </c>
       <c r="AF72" s="18">
@@ -11683,7 +11674,7 @@
       <c r="AH72" s="18">
         <v>99.169437233070241</v>
       </c>
-      <c r="AI72" s="70">
+      <c r="AI72" s="64">
         <v>72.570432222222223</v>
       </c>
       <c r="AJ72" s="18">
@@ -11692,7 +11683,7 @@
       <c r="AK72" s="18">
         <v>88.245586666666668</v>
       </c>
-      <c r="AL72" s="72">
+      <c r="AL72" s="66">
         <v>61.205750000000002</v>
       </c>
       <c r="AM72" s="18">
@@ -11745,7 +11736,7 @@
       <c r="N73" s="14">
         <v>14.436009150837799</v>
       </c>
-      <c r="O73" s="56">
+      <c r="O73" s="52">
         <v>0.27814106239999997</v>
       </c>
       <c r="P73" s="14">
@@ -11763,7 +11754,7 @@
       <c r="T73" s="14">
         <v>60.246538909352076</v>
       </c>
-      <c r="U73" s="57">
+      <c r="U73" s="53">
         <v>6.5256391943648406</v>
       </c>
       <c r="V73" s="14">
@@ -11775,7 +11766,7 @@
       <c r="X73" s="18">
         <v>26.108808135373085</v>
       </c>
-      <c r="Y73" s="56">
+      <c r="Y73" s="52">
         <v>11.575660804288882</v>
       </c>
       <c r="Z73" s="18">
@@ -11784,7 +11775,7 @@
       <c r="AA73" s="21">
         <v>61.572583924694506</v>
       </c>
-      <c r="AB73" s="62">
+      <c r="AB73" s="57">
         <v>64.403834516055682</v>
       </c>
       <c r="AC73" s="18">
@@ -11793,7 +11784,7 @@
       <c r="AD73" s="18">
         <v>84.166666666666671</v>
       </c>
-      <c r="AE73" s="66">
+      <c r="AE73" s="61">
         <v>93.5</v>
       </c>
       <c r="AF73" s="18">
@@ -11805,7 +11796,7 @@
       <c r="AH73" s="18">
         <v>59.650897487561004</v>
       </c>
-      <c r="AI73" s="70">
+      <c r="AI73" s="64">
         <v>58.74133333333333</v>
       </c>
       <c r="AJ73" s="18">
@@ -11814,7 +11805,7 @@
       <c r="AK73" s="18">
         <v>68.846933333333325</v>
       </c>
-      <c r="AL73" s="72">
+      <c r="AL73" s="66">
         <v>53.77216</v>
       </c>
       <c r="AM73" s="18">
@@ -11867,7 +11858,7 @@
       <c r="N74" s="14">
         <v>68.103088847058814</v>
       </c>
-      <c r="O74" s="56">
+      <c r="O74" s="52">
         <v>0.40775251039999999</v>
       </c>
       <c r="P74" s="14">
@@ -11885,7 +11876,7 @@
       <c r="T74" s="14">
         <v>33.100113245929286</v>
       </c>
-      <c r="U74" s="57">
+      <c r="U74" s="53">
         <v>7.65672734719932E-2</v>
       </c>
       <c r="V74" s="14">
@@ -11897,7 +11888,7 @@
       <c r="X74" s="18">
         <v>30.300123204450784</v>
       </c>
-      <c r="Y74" s="56">
+      <c r="Y74" s="52">
         <v>31.19813014204383</v>
       </c>
       <c r="Z74" s="18">
@@ -11906,7 +11897,7 @@
       <c r="AA74" s="21">
         <v>37.230704265794678</v>
       </c>
-      <c r="AB74" s="62">
+      <c r="AB74" s="57">
         <v>47.3341329760338</v>
       </c>
       <c r="AC74" s="18">
@@ -11915,7 +11906,7 @@
       <c r="AD74" s="18">
         <v>37.000000000000007</v>
       </c>
-      <c r="AE74" s="66">
+      <c r="AE74" s="61">
         <v>67.400000000000006</v>
       </c>
       <c r="AF74" s="18">
@@ -11927,7 +11918,7 @@
       <c r="AH74" s="18">
         <v>39.790277715980167</v>
       </c>
-      <c r="AI74" s="70">
+      <c r="AI74" s="64">
         <v>27.127275555555556</v>
       </c>
       <c r="AJ74" s="18">
@@ -11936,7 +11927,7 @@
       <c r="AK74" s="18">
         <v>23.92144</v>
       </c>
-      <c r="AL74" s="72">
+      <c r="AL74" s="66">
         <v>37.299799999999998</v>
       </c>
       <c r="AM74" s="18">
@@ -11987,7 +11978,7 @@
       <c r="N75" s="14">
         <v>31.189485745098043</v>
       </c>
-      <c r="O75" s="56">
+      <c r="O75" s="52">
         <v>0.6302212576666667</v>
       </c>
       <c r="P75" s="14">
@@ -12005,7 +11996,7 @@
       <c r="T75" s="14">
         <v>3.6516992267398796</v>
       </c>
-      <c r="U75" s="57">
+      <c r="U75" s="53">
         <v>1.6268639131564501E-3</v>
       </c>
       <c r="V75" s="14">
@@ -12017,7 +12008,7 @@
       <c r="X75" s="18">
         <v>7.3033984534797591</v>
       </c>
-      <c r="Y75" s="56">
+      <c r="Y75" s="52">
         <v>42.818173510570603</v>
       </c>
       <c r="Z75" s="18">
@@ -12026,7 +12017,7 @@
       <c r="AA75" s="21">
         <v>96.776284586113391</v>
       </c>
-      <c r="AB75" s="62">
+      <c r="AB75" s="57">
         <v>99.293322505560127</v>
       </c>
       <c r="AC75" s="18">
@@ -12035,7 +12026,7 @@
       <c r="AD75" s="18">
         <v>100</v>
       </c>
-      <c r="AE75" s="66">
+      <c r="AE75" s="61">
         <v>12.9</v>
       </c>
       <c r="AF75" s="18">
@@ -12047,7 +12038,7 @@
       <c r="AH75" s="18">
         <v>99.637543274256146</v>
       </c>
-      <c r="AI75" s="70">
+      <c r="AI75" s="64">
         <v>94.259246666666655</v>
       </c>
       <c r="AJ75" s="18">
@@ -12056,7 +12047,7 @@
       <c r="AK75" s="18">
         <v>88.518493333333325</v>
       </c>
-      <c r="AL75" s="72">
+      <c r="AL75" s="66">
         <v>104.5</v>
       </c>
       <c r="AM75" s="18">
@@ -12109,7 +12100,7 @@
       <c r="N76" s="14">
         <v>38.838996825357306</v>
       </c>
-      <c r="O76" s="56">
+      <c r="O76" s="52">
         <v>0.28745982203333331</v>
       </c>
       <c r="P76" s="14">
@@ -12127,7 +12118,7 @@
       <c r="T76" s="14">
         <v>44.341855904670311</v>
       </c>
-      <c r="U76" s="57">
+      <c r="U76" s="53">
         <v>2.1884942717138802</v>
       </c>
       <c r="V76" s="14">
@@ -12139,7 +12130,7 @@
       <c r="X76" s="18">
         <v>8.6730662430341354</v>
       </c>
-      <c r="Y76" s="56">
+      <c r="Y76" s="52">
         <v>16.345587425991472</v>
       </c>
       <c r="Z76" s="18">
@@ -12148,7 +12139,7 @@
       <c r="AA76" s="21">
         <v>54.53329453168444</v>
       </c>
-      <c r="AB76" s="62">
+      <c r="AB76" s="57">
         <v>62.220992396702208</v>
       </c>
       <c r="AC76" s="18">
@@ -12157,7 +12148,7 @@
       <c r="AD76" s="18">
         <v>37.833333333333336</v>
       </c>
-      <c r="AE76" s="66">
+      <c r="AE76" s="61">
         <v>46.4</v>
       </c>
       <c r="AF76" s="18">
@@ -12169,7 +12160,7 @@
       <c r="AH76" s="18">
         <v>70.890249917379336</v>
       </c>
-      <c r="AI76" s="70">
+      <c r="AI76" s="64">
         <v>46.845596666666673</v>
       </c>
       <c r="AJ76" s="18">
@@ -12178,7 +12169,7 @@
       <c r="AK76" s="18">
         <v>62.096826666666672</v>
       </c>
-      <c r="AL76" s="72">
+      <c r="AL76" s="66">
         <v>38.434930000000001</v>
       </c>
       <c r="AM76" s="18">
@@ -12231,7 +12222,7 @@
       <c r="N77" s="14">
         <v>42.74235684190657</v>
       </c>
-      <c r="O77" s="56">
+      <c r="O77" s="52">
         <v>0.46110832130000001</v>
       </c>
       <c r="P77" s="14">
@@ -12249,7 +12240,7 @@
       <c r="T77" s="14">
         <v>72.887601894807332</v>
       </c>
-      <c r="U77" s="57">
+      <c r="U77" s="53">
         <v>6.7825704621021705</v>
       </c>
       <c r="V77" s="14">
@@ -12261,7 +12252,7 @@
       <c r="X77" s="18">
         <v>50.882872790154529</v>
       </c>
-      <c r="Y77" s="56">
+      <c r="Y77" s="52">
         <v>16.225339324191935</v>
       </c>
       <c r="Z77" s="18">
@@ -12270,7 +12261,7 @@
       <c r="AA77" s="21">
         <v>52.522138892622166</v>
       </c>
-      <c r="AB77" s="62">
+      <c r="AB77" s="57">
         <v>61.729034451910998</v>
       </c>
       <c r="AC77" s="18">
@@ -12279,7 +12270,7 @@
       <c r="AD77" s="18">
         <v>65.166666666666671</v>
       </c>
-      <c r="AE77" s="66">
+      <c r="AE77" s="61">
         <v>55.1</v>
       </c>
       <c r="AF77" s="18">
@@ -12291,7 +12282,7 @@
       <c r="AH77" s="18">
         <v>47.353770022399665</v>
       </c>
-      <c r="AI77" s="70">
+      <c r="AI77" s="64">
         <v>43.315243333333335</v>
       </c>
       <c r="AJ77" s="18">
@@ -12300,7 +12291,7 @@
       <c r="AK77" s="18">
         <v>49.524720000000002</v>
       </c>
-      <c r="AL77" s="72">
+      <c r="AL77" s="66">
         <v>43.395189999999999</v>
       </c>
       <c r="AM77" s="18">
@@ -12351,7 +12342,7 @@
       <c r="N78" s="14">
         <v>10.959391146538678</v>
       </c>
-      <c r="O78" s="56">
+      <c r="O78" s="52">
         <v>0.1736771698</v>
       </c>
       <c r="P78" s="14">
@@ -12369,7 +12360,7 @@
       <c r="T78" s="14">
         <v>35.361629570981727</v>
       </c>
-      <c r="U78" s="57">
+      <c r="U78" s="53">
         <v>0.51537882738398999</v>
       </c>
       <c r="V78" s="14">
@@ -12381,7 +12372,7 @@
       <c r="X78" s="18">
         <v>9.7375494891303607</v>
       </c>
-      <c r="Y78" s="56">
+      <c r="Y78" s="52">
         <v>5.9531413350270483</v>
       </c>
       <c r="Z78" s="18">
@@ -12390,7 +12381,7 @@
       <c r="AA78" s="21">
         <v>90.990267963729053</v>
       </c>
-      <c r="AB78" s="62">
+      <c r="AB78" s="57">
         <v>99.02900926079144</v>
       </c>
       <c r="AC78" s="18">
@@ -12399,7 +12390,7 @@
       <c r="AD78" s="18">
         <v>100</v>
       </c>
-      <c r="AE78" s="66">
+      <c r="AE78" s="61">
         <v>8.3000000000000007</v>
       </c>
       <c r="AF78" s="18">
@@ -12411,7 +12402,7 @@
       <c r="AH78" s="18">
         <v>97.087027782374307</v>
       </c>
-      <c r="AI78" s="70">
+      <c r="AI78" s="64">
         <v>82.951526666666666</v>
       </c>
       <c r="AJ78" s="18">
@@ -12420,7 +12411,7 @@
       <c r="AK78" s="18">
         <v>90.823853333333332</v>
       </c>
-      <c r="AL78" s="72">
+      <c r="AL78" s="66">
         <v>77.571280000000002</v>
       </c>
       <c r="AM78" s="18">
@@ -12471,7 +12462,7 @@
       <c r="N79" s="14">
         <v>43.961810640895585</v>
       </c>
-      <c r="O79" s="56">
+      <c r="O79" s="52">
         <v>0.76941112339999995</v>
       </c>
       <c r="P79" s="14">
@@ -12489,7 +12480,7 @@
       <c r="T79" s="14">
         <v>49.721242898997119</v>
       </c>
-      <c r="U79" s="57">
+      <c r="U79" s="53">
         <v>0.46451386427983105</v>
       </c>
       <c r="V79" s="14">
@@ -12501,7 +12492,7 @@
       <c r="X79" s="18">
         <v>39.823861335376584</v>
       </c>
-      <c r="Y79" s="56">
+      <c r="Y79" s="52">
         <v>8.8559852640648504</v>
       </c>
       <c r="Z79" s="18">
@@ -12510,7 +12501,7 @@
       <c r="AA79" s="21">
         <v>91.447899957337967</v>
       </c>
-      <c r="AB79" s="62">
+      <c r="AB79" s="57">
         <v>96.30710406071357</v>
       </c>
       <c r="AC79" s="18">
@@ -12519,7 +12510,7 @@
       <c r="AD79" s="18">
         <v>94.166666666666671</v>
       </c>
-      <c r="AE79" s="66">
+      <c r="AE79" s="61">
         <v>8.5</v>
       </c>
       <c r="AF79" s="18">
@@ -12531,7 +12522,7 @@
       <c r="AH79" s="18">
         <v>94.754645515473996</v>
       </c>
-      <c r="AI79" s="70">
+      <c r="AI79" s="64">
         <v>86.588695853962349</v>
       </c>
       <c r="AJ79" s="18">
@@ -12540,7 +12531,7 @@
       <c r="AK79" s="18">
         <v>98.146826666666669</v>
       </c>
-      <c r="AL79" s="72">
+      <c r="AL79" s="66">
         <v>77.527508537132221</v>
       </c>
       <c r="AM79" s="18">
@@ -12593,7 +12584,7 @@
       <c r="N80" s="14">
         <v>71.023532301645631</v>
       </c>
-      <c r="O80" s="56">
+      <c r="O80" s="52">
         <v>0.75012596739999993</v>
       </c>
       <c r="P80" s="14">
@@ -12611,7 +12602,7 @@
       <c r="T80" s="14">
         <v>50.023413674245013</v>
       </c>
-      <c r="U80" s="57">
+      <c r="U80" s="53">
         <v>1.81893849886181</v>
       </c>
       <c r="V80" s="14">
@@ -12623,7 +12614,7 @@
       <c r="X80" s="18">
         <v>22.469585876345718</v>
       </c>
-      <c r="Y80" s="56">
+      <c r="Y80" s="52">
         <v>10.300136163196997</v>
       </c>
       <c r="Z80" s="18">
@@ -12632,7 +12623,7 @@
       <c r="AA80" s="21">
         <v>43.106314630459046</v>
       </c>
-      <c r="AB80" s="62">
+      <c r="AB80" s="57">
         <v>63.440324816473641</v>
       </c>
       <c r="AC80" s="18">
@@ -12641,7 +12632,7 @@
       <c r="AD80" s="18">
         <v>100</v>
       </c>
-      <c r="AE80" s="66">
+      <c r="AE80" s="61">
         <v>110.6</v>
       </c>
       <c r="AF80" s="18">
@@ -12653,7 +12644,7 @@
       <c r="AH80" s="18">
         <v>51.290671419117913</v>
       </c>
-      <c r="AI80" s="70">
+      <c r="AI80" s="64">
         <v>22.772304444444448</v>
       </c>
       <c r="AJ80" s="18">
@@ -12662,7 +12653,7 @@
       <c r="AK80" s="18">
         <v>10.758520000000004</v>
       </c>
-      <c r="AL80" s="72">
+      <c r="AL80" s="66">
         <v>41.307479999999998</v>
       </c>
       <c r="AM80" s="18">
@@ -12713,7 +12704,7 @@
       <c r="N81" s="14">
         <v>48.808098280282067</v>
       </c>
-      <c r="O81" s="56">
+      <c r="O81" s="52">
         <v>0.7169836821333333</v>
       </c>
       <c r="P81" s="14">
@@ -12731,7 +12722,7 @@
       <c r="T81" s="14">
         <v>91.325236552805691</v>
       </c>
-      <c r="U81" s="58">
+      <c r="U81" s="54">
         <v>2.6747728920072702</v>
       </c>
       <c r="V81" s="14">
@@ -12743,7 +12734,7 @@
       <c r="X81" s="18">
         <v>100</v>
       </c>
-      <c r="Y81" s="56">
+      <c r="Y81" s="52">
         <v>7.6137317550615897</v>
       </c>
       <c r="Z81" s="18">
@@ -12752,7 +12743,7 @@
       <c r="AA81" s="21">
         <v>88.193871627824393</v>
       </c>
-      <c r="AB81" s="62">
+      <c r="AB81" s="57">
         <v>90.537756588982106</v>
       </c>
       <c r="AC81" s="18">
@@ -12761,7 +12752,7 @@
       <c r="AD81" s="18">
         <v>93.333333333333329</v>
       </c>
-      <c r="AE81" s="66">
+      <c r="AE81" s="61">
         <v>35.4</v>
       </c>
       <c r="AF81" s="18">
@@ -12773,16 +12764,16 @@
       <c r="AH81" s="18">
         <v>93.673875827552365</v>
       </c>
-      <c r="AI81" s="70">
+      <c r="AI81" s="64">
         <v>85.849986666666666</v>
       </c>
-      <c r="AJ81" s="63">
+      <c r="AJ81" s="58">
         <v>98.265079999999998</v>
       </c>
       <c r="AK81" s="18">
         <v>97.686773333333335</v>
       </c>
-      <c r="AL81" s="72">
+      <c r="AL81" s="66">
         <v>76.611879999999999</v>
       </c>
       <c r="AM81" s="18">
@@ -12835,7 +12826,7 @@
       <c r="N82" s="14">
         <v>37.145865901899604</v>
       </c>
-      <c r="O82" s="56">
+      <c r="O82" s="52">
         <v>0.38852633916666668</v>
       </c>
       <c r="P82" s="14">
@@ -12853,7 +12844,7 @@
       <c r="T82" s="14">
         <v>46.854371440240058</v>
       </c>
-      <c r="U82" s="57">
+      <c r="U82" s="53">
         <v>4.2473678883179007</v>
       </c>
       <c r="V82" s="14">
@@ -12865,7 +12856,7 @@
       <c r="X82" s="18">
         <v>4.9743212360691054</v>
       </c>
-      <c r="Y82" s="56">
+      <c r="Y82" s="52">
         <v>11.861187857665129</v>
       </c>
       <c r="Z82" s="18">
@@ -12874,7 +12865,7 @@
       <c r="AA82" s="21">
         <v>46.940261858442696</v>
       </c>
-      <c r="AB82" s="62">
+      <c r="AB82" s="57">
         <v>68.76794260577428</v>
       </c>
       <c r="AC82" s="18">
@@ -12883,7 +12874,7 @@
       <c r="AD82" s="18">
         <v>99.5</v>
       </c>
-      <c r="AE82" s="66">
+      <c r="AE82" s="61">
         <v>81.400000000000006</v>
       </c>
       <c r="AF82" s="18">
@@ -12895,7 +12886,7 @@
       <c r="AH82" s="18">
         <v>50.076555090050121</v>
       </c>
-      <c r="AI82" s="70">
+      <c r="AI82" s="64">
         <v>25.112581111111112</v>
       </c>
       <c r="AJ82" s="18">
@@ -12904,7 +12895,7 @@
       <c r="AK82" s="18">
         <v>27.338373333333333</v>
       </c>
-      <c r="AL82" s="72">
+      <c r="AL82" s="66">
         <v>30.598109999999998</v>
       </c>
       <c r="AM82" s="18">
@@ -12955,7 +12946,7 @@
       <c r="N83" s="14">
         <v>8.6811601529281663</v>
       </c>
-      <c r="O83" s="56">
+      <c r="O83" s="52">
         <v>0.21059103576666668</v>
       </c>
       <c r="P83" s="14">
@@ -12973,7 +12964,7 @@
       <c r="T83" s="14">
         <v>17.716882438657183</v>
       </c>
-      <c r="U83" s="57">
+      <c r="U83" s="53">
         <v>9.0126629017242398E-3</v>
       </c>
       <c r="V83" s="14">
@@ -12985,7 +12976,7 @@
       <c r="X83" s="18">
         <v>27.682150273166368</v>
       </c>
-      <c r="Y83" s="56">
+      <c r="Y83" s="52">
         <v>5.5011098681792827</v>
       </c>
       <c r="Z83" s="18">
@@ -12994,7 +12985,7 @@
       <c r="AA83" s="21">
         <v>95.269946617466843</v>
       </c>
-      <c r="AB83" s="62">
+      <c r="AB83" s="57">
         <v>97.792515457155915</v>
       </c>
       <c r="AC83" s="18">
@@ -13003,7 +12994,7 @@
       <c r="AD83" s="18">
         <v>99.666666666666657</v>
       </c>
-      <c r="AE83" s="66">
+      <c r="AE83" s="61">
         <v>13.7</v>
       </c>
       <c r="AF83" s="18">
@@ -13015,7 +13006,7 @@
       <c r="AH83" s="18">
         <v>95.953303947225336</v>
       </c>
-      <c r="AI83" s="70">
+      <c r="AI83" s="64">
         <v>92.747377777777785</v>
       </c>
       <c r="AJ83" s="18">
@@ -13024,7 +13015,7 @@
       <c r="AK83" s="18">
         <v>90.276800000000009</v>
       </c>
-      <c r="AL83" s="72">
+      <c r="AL83" s="66">
         <v>95.696160000000006</v>
       </c>
       <c r="AM83" s="18">
@@ -13075,7 +13066,7 @@
       <c r="N84" s="14">
         <v>3.5528647286587249</v>
       </c>
-      <c r="O84" s="56">
+      <c r="O84" s="52">
         <v>0.12543569506666666</v>
       </c>
       <c r="P84" s="14">
@@ -13093,7 +13084,7 @@
       <c r="T84" s="14">
         <v>32.571153681159771</v>
       </c>
-      <c r="U84" s="57">
+      <c r="U84" s="53">
         <v>0.637215011830912</v>
       </c>
       <c r="V84" s="14">
@@ -13105,7 +13096,7 @@
       <c r="X84" s="18">
         <v>1.3647592332121905</v>
       </c>
-      <c r="Y84" s="56">
+      <c r="Y84" s="52">
         <v>4.9904184976504578</v>
       </c>
       <c r="Z84" s="18">
@@ -13114,7 +13105,7 @@
       <c r="AA84" s="21">
         <v>94.609562006011458</v>
       </c>
-      <c r="AB84" s="62">
+      <c r="AB84" s="57">
         <v>98.154442900911818</v>
       </c>
       <c r="AC84" s="18">
@@ -13123,7 +13114,7 @@
       <c r="AD84" s="18">
         <v>100</v>
       </c>
-      <c r="AE84" s="66">
+      <c r="AE84" s="61">
         <v>14.6</v>
       </c>
       <c r="AF84" s="18">
@@ -13135,7 +13126,7 @@
       <c r="AH84" s="18">
         <v>97.251207490614263</v>
       </c>
-      <c r="AI84" s="70">
+      <c r="AI84" s="64">
         <v>91.064681111111113</v>
       </c>
       <c r="AJ84" s="18">
@@ -13144,7 +13135,7 @@
       <c r="AK84" s="18">
         <v>92.629706666666664</v>
       </c>
-      <c r="AL84" s="72">
+      <c r="AL84" s="66">
         <v>90.549689999999998</v>
       </c>
       <c r="AM84" s="18">
@@ -13195,7 +13186,7 @@
       <c r="N85" s="14">
         <v>61.109675932946573</v>
       </c>
-      <c r="O85" s="56">
+      <c r="O85" s="52">
         <v>0.76394829546666665</v>
       </c>
       <c r="P85" s="14">
@@ -13213,7 +13204,7 @@
       <c r="T85" s="14">
         <v>63.514288013138987</v>
       </c>
-      <c r="U85" s="57">
+      <c r="U85" s="53">
         <v>8.1778881660998692</v>
       </c>
       <c r="V85" s="14">
@@ -13225,7 +13216,7 @@
       <c r="X85" s="18">
         <v>29.67498738578729</v>
       </c>
-      <c r="Y85" s="56">
+      <c r="Y85" s="52">
         <v>9.0034001758714801</v>
       </c>
       <c r="Z85" s="18">
@@ -13234,7 +13225,7 @@
       <c r="AA85" s="21">
         <v>87.465031071132756</v>
       </c>
-      <c r="AB85" s="62">
+      <c r="AB85" s="57">
         <v>89.321545475598853</v>
       </c>
       <c r="AC85" s="18">
@@ -13243,7 +13234,7 @@
       <c r="AD85" s="18">
         <v>90</v>
       </c>
-      <c r="AE85" s="66">
+      <c r="AE85" s="61">
         <v>33.299999999999997</v>
       </c>
       <c r="AF85" s="18">
@@ -13255,7 +13246,7 @@
       <c r="AH85" s="18">
         <v>92.085848548008727</v>
       </c>
-      <c r="AI85" s="70">
+      <c r="AI85" s="64">
         <v>85.608516666666674</v>
       </c>
       <c r="AJ85" s="23">
@@ -13264,7 +13255,7 @@
       <c r="AK85" s="18">
         <v>89.866666666666674</v>
       </c>
-      <c r="AL85" s="72">
+      <c r="AL85" s="66">
         <v>83.215329999999994</v>
       </c>
       <c r="AM85" s="18">
@@ -13315,7 +13306,7 @@
       <c r="N86" s="14">
         <v>32.067189394255109</v>
       </c>
-      <c r="O86" s="56">
+      <c r="O86" s="52">
         <v>0.45514552836666661</v>
       </c>
       <c r="P86" s="14">
@@ -13333,7 +13324,7 @@
       <c r="T86" s="14">
         <v>74.376859347639879</v>
       </c>
-      <c r="U86" s="57">
+      <c r="U86" s="53">
         <v>8.2474653843850092</v>
       </c>
       <c r="V86" s="14">
@@ -13345,7 +13336,7 @@
       <c r="X86" s="18">
         <v>51.288669867351921</v>
       </c>
-      <c r="Y86" s="56">
+      <c r="Y86" s="52">
         <v>9.1662847758263961</v>
       </c>
       <c r="Z86" s="18">
@@ -13354,7 +13345,7 @@
       <c r="AA86" s="21">
         <v>91.650588559121132</v>
       </c>
-      <c r="AB86" s="62">
+      <c r="AB86" s="57">
         <v>89.206327118242257</v>
       </c>
       <c r="AC86" s="18">
@@ -13363,7 +13354,7 @@
       <c r="AD86" s="18">
         <v>75.666666666666657</v>
       </c>
-      <c r="AE86" s="66">
+      <c r="AE86" s="61">
         <v>17.899999999999999</v>
       </c>
       <c r="AF86" s="18">
@@ -13375,7 +13366,7 @@
       <c r="AH86" s="18">
         <v>96.740193475938923</v>
       </c>
-      <c r="AI86" s="70">
+      <c r="AI86" s="64">
         <v>94.094850000000008</v>
       </c>
       <c r="AJ86" s="18">
@@ -13384,7 +13375,7 @@
       <c r="AK86" s="18">
         <v>97.676000000000002</v>
       </c>
-      <c r="AL86" s="72">
+      <c r="AL86" s="66">
         <v>91.462329999999994</v>
       </c>
       <c r="AM86" s="18">
@@ -13435,7 +13426,7 @@
       <c r="N87" s="14">
         <v>14.639037710456956</v>
       </c>
-      <c r="O87" s="56">
+      <c r="O87" s="52">
         <v>0.16683493846666667</v>
       </c>
       <c r="P87" s="14">
@@ -13453,7 +13444,7 @@
       <c r="T87" s="14">
         <v>42.680845006674808</v>
       </c>
-      <c r="U87" s="57">
+      <c r="U87" s="53">
         <v>0.19640087473000098</v>
       </c>
       <c r="V87" s="14">
@@ -13465,7 +13456,7 @@
       <c r="X87" s="18">
         <v>37.068478031831411</v>
       </c>
-      <c r="Y87" s="56">
+      <c r="Y87" s="52">
         <v>3.3240506840989288</v>
       </c>
       <c r="Z87" s="18">
@@ -13474,7 +13465,7 @@
       <c r="AA87" s="21">
         <v>77.865288368034811</v>
       </c>
-      <c r="AB87" s="62">
+      <c r="AB87" s="57">
         <v>93.300900069402971</v>
       </c>
       <c r="AC87" s="18">
@@ -13483,7 +13474,7 @@
       <c r="AD87" s="18">
         <v>100</v>
       </c>
-      <c r="AE87" s="66">
+      <c r="AE87" s="61">
         <v>27.1</v>
       </c>
       <c r="AF87" s="18">
@@ -13495,7 +13486,7 @@
       <c r="AH87" s="18">
         <v>90.266336571845272</v>
       </c>
-      <c r="AI87" s="70">
+      <c r="AI87" s="64">
         <v>62.429676666666666</v>
       </c>
       <c r="AJ87" s="18">
@@ -13504,7 +13495,7 @@
       <c r="AK87" s="18">
         <v>59.233853333333322</v>
       </c>
-      <c r="AL87" s="72">
+      <c r="AL87" s="66">
         <v>69.062950000000001</v>
       </c>
       <c r="AM87" s="18">
@@ -13557,7 +13548,7 @@
       <c r="N88" s="14">
         <v>30.734101118651523</v>
       </c>
-      <c r="O88" s="56">
+      <c r="O88" s="52">
         <v>0.28551519273333331</v>
       </c>
       <c r="P88" s="14">
@@ -13575,7 +13566,7 @@
       <c r="T88" s="14">
         <v>58.508313620910528</v>
       </c>
-      <c r="U88" s="57">
+      <c r="U88" s="53">
         <v>3.3455897533516801</v>
       </c>
       <c r="V88" s="14">
@@ -13587,7 +13578,7 @@
       <c r="X88" s="18">
         <v>31.422049648677497</v>
       </c>
-      <c r="Y88" s="56">
+      <c r="Y88" s="52">
         <v>10.126044959116607</v>
       </c>
       <c r="Z88" s="18">
@@ -13596,7 +13587,7 @@
       <c r="AA88" s="21">
         <v>45.815251433892797</v>
       </c>
-      <c r="AB88" s="62">
+      <c r="AB88" s="57">
         <v>62.112512867785604</v>
       </c>
       <c r="AC88" s="18">
@@ -13605,7 +13596,7 @@
       <c r="AD88" s="18">
         <v>64</v>
       </c>
-      <c r="AE88" s="66">
+      <c r="AE88" s="61">
         <v>71.3</v>
       </c>
       <c r="AF88" s="18">
@@ -13617,7 +13608,7 @@
       <c r="AH88" s="18">
         <v>59.489053754871968</v>
       </c>
-      <c r="AI88" s="70">
+      <c r="AI88" s="64">
         <v>29.517989999999998</v>
       </c>
       <c r="AJ88" s="18">
@@ -13626,7 +13617,7 @@
       <c r="AK88" s="18">
         <v>34.111746666666662</v>
       </c>
-      <c r="AL88" s="72">
+      <c r="AL88" s="66">
         <v>32.431809999999999</v>
       </c>
       <c r="AM88" s="18">
@@ -13679,7 +13670,7 @@
       <c r="N89" s="14">
         <v>36.590917533663514</v>
       </c>
-      <c r="O89" s="56">
+      <c r="O89" s="52">
         <v>0.35293610376666668</v>
       </c>
       <c r="P89" s="14">
@@ -13697,7 +13688,7 @@
       <c r="T89" s="14">
         <v>39.087697909240767</v>
       </c>
-      <c r="U89" s="57">
+      <c r="U89" s="53">
         <v>0.62562039411778203</v>
       </c>
       <c r="V89" s="14">
@@ -13709,7 +13700,7 @@
       <c r="X89" s="18">
         <v>14.639442012152495</v>
       </c>
-      <c r="Y89" s="56">
+      <c r="Y89" s="52">
         <v>13.688677738674734</v>
       </c>
       <c r="Z89" s="18">
@@ -13718,7 +13709,7 @@
       <c r="AA89" s="21">
         <v>68.47497037955749</v>
       </c>
-      <c r="AB89" s="62">
+      <c r="AB89" s="57">
         <v>80.306868536892765</v>
       </c>
       <c r="AC89" s="18">
@@ -13727,7 +13718,7 @@
       <c r="AD89" s="18">
         <v>80.166666666666657</v>
       </c>
-      <c r="AE89" s="66">
+      <c r="AE89" s="61">
         <v>50.8</v>
       </c>
       <c r="AF89" s="18">
@@ -13739,7 +13730,7 @@
       <c r="AH89" s="18">
         <v>85.481211671284356</v>
       </c>
-      <c r="AI89" s="70">
+      <c r="AI89" s="64">
         <v>56.643072222222223</v>
       </c>
       <c r="AJ89" s="18">
@@ -13748,7 +13739,7 @@
       <c r="AK89" s="18">
         <v>67.401600000000002</v>
       </c>
-      <c r="AL89" s="72">
+      <c r="AL89" s="66">
         <v>51.29609</v>
       </c>
       <c r="AM89" s="18">
@@ -13799,7 +13790,7 @@
       <c r="N90" s="14">
         <v>15.125198049506617</v>
       </c>
-      <c r="O90" s="56">
+      <c r="O90" s="52">
         <v>0.2740369299</v>
       </c>
       <c r="P90" s="14">
@@ -13817,7 +13808,7 @@
       <c r="T90" s="14">
         <v>70.130842026046906</v>
       </c>
-      <c r="U90" s="57">
+      <c r="U90" s="53">
         <v>6.3625354648241093</v>
       </c>
       <c r="V90" s="14">
@@ -13829,7 +13820,7 @@
       <c r="X90" s="18">
         <v>46.210426842841663</v>
       </c>
-      <c r="Y90" s="56">
+      <c r="Y90" s="52">
         <v>5.1024456462945507</v>
       </c>
       <c r="Z90" s="18">
@@ -13838,7 +13829,7 @@
       <c r="AA90" s="21">
         <v>72.536357024493412</v>
       </c>
-      <c r="AB90" s="62">
+      <c r="AB90" s="57">
         <v>72.421544048986831</v>
       </c>
       <c r="AC90" s="18">
@@ -13847,7 +13838,7 @@
       <c r="AD90" s="18">
         <v>60.333333333333336</v>
       </c>
-      <c r="AE90" s="66">
+      <c r="AE90" s="61">
         <v>45.2</v>
       </c>
       <c r="AF90" s="18">
@@ -13859,7 +13850,7 @@
       <c r="AH90" s="18">
         <v>78.264632146960494</v>
       </c>
-      <c r="AI90" s="70">
+      <c r="AI90" s="64">
         <v>72.651170000000008</v>
       </c>
       <c r="AJ90" s="18">
@@ -13868,7 +13859,7 @@
       <c r="AK90" s="18">
         <v>84.366173333333336</v>
       </c>
-      <c r="AL90" s="72">
+      <c r="AL90" s="66">
         <v>64.842550000000003</v>
       </c>
       <c r="AM90" s="18">
@@ -13919,7 +13910,7 @@
       <c r="N91" s="14">
         <v>32.87581621354088</v>
       </c>
-      <c r="O91" s="56">
+      <c r="O91" s="52">
         <v>0.62775392373333327</v>
       </c>
       <c r="P91" s="14">
@@ -13937,7 +13928,7 @@
       <c r="T91" s="14">
         <v>0</v>
       </c>
-      <c r="U91" s="57">
+      <c r="U91" s="53">
         <v>0</v>
       </c>
       <c r="V91" s="14">
@@ -13949,7 +13940,7 @@
       <c r="X91" s="18">
         <v>0</v>
       </c>
-      <c r="Y91" s="56">
+      <c r="Y91" s="52">
         <v>27.624810937644618</v>
       </c>
       <c r="Z91" s="18">
@@ -13958,7 +13949,7 @@
       <c r="AA91" s="21">
         <v>88.301006998280144</v>
       </c>
-      <c r="AB91" s="62">
+      <c r="AB91" s="57">
         <v>88.581647329893599</v>
       </c>
       <c r="AC91" s="18">
@@ -13967,7 +13958,7 @@
       <c r="AD91" s="18">
         <v>81.666666666666671</v>
       </c>
-      <c r="AE91" s="66">
+      <c r="AE91" s="61">
         <v>34.6</v>
       </c>
       <c r="AF91" s="18">
@@ -13979,7 +13970,7 @@
       <c r="AH91" s="18">
         <v>98.987366232105074</v>
       </c>
-      <c r="AI91" s="70">
+      <c r="AI91" s="64">
         <v>88.020366666666675</v>
       </c>
       <c r="AJ91" s="23">
@@ -13988,7 +13979,7 @@
       <c r="AK91" s="18">
         <v>95.333333333333343</v>
       </c>
-      <c r="AL91" s="72">
+      <c r="AL91" s="66">
         <v>82.636660000000006</v>
       </c>
       <c r="AM91" s="18">
@@ -14041,7 +14032,7 @@
       <c r="N92" s="14">
         <v>28.581334378928815</v>
       </c>
-      <c r="O92" s="56">
+      <c r="O92" s="52">
         <v>0.13919169476666668</v>
       </c>
       <c r="P92" s="14">
@@ -14059,7 +14050,7 @@
       <c r="T92" s="14">
         <v>43.076147746345512</v>
       </c>
-      <c r="U92" s="57">
+      <c r="U92" s="53">
         <v>1.65707365771556</v>
       </c>
       <c r="V92" s="14">
@@ -14071,7 +14062,7 @@
       <c r="X92" s="18">
         <v>9.8012228753524671</v>
       </c>
-      <c r="Y92" s="56">
+      <c r="Y92" s="52">
         <v>11.129690256550356</v>
       </c>
       <c r="Z92" s="18">
@@ -14080,7 +14071,7 @@
       <c r="AA92" s="21">
         <v>71.21981923337259</v>
       </c>
-      <c r="AB92" s="62">
+      <c r="AB92" s="57">
         <v>86.259544022300716</v>
       </c>
       <c r="AC92" s="18">
@@ -14089,7 +14080,7 @@
       <c r="AD92" s="18">
         <v>94.833333333333343</v>
       </c>
-      <c r="AE92" s="66">
+      <c r="AE92" s="61">
         <v>34.5</v>
       </c>
       <c r="AF92" s="18">
@@ -14101,7 +14092,7 @@
       <c r="AH92" s="18">
         <v>78.793783582053649</v>
       </c>
-      <c r="AI92" s="70">
+      <c r="AI92" s="64">
         <v>56.18009444444445</v>
       </c>
       <c r="AJ92" s="18">
@@ -14110,7 +14101,7 @@
       <c r="AK92" s="18">
         <v>46.169666666666664</v>
       </c>
-      <c r="AL92" s="72">
+      <c r="AL92" s="66">
         <v>69.571470000000005</v>
       </c>
       <c r="AM92" s="18">
@@ -14161,7 +14152,7 @@
       <c r="N93" s="14">
         <v>21.545564249661624</v>
       </c>
-      <c r="O93" s="56">
+      <c r="O93" s="52">
         <v>0.22130317556666668</v>
       </c>
       <c r="P93" s="14">
@@ -14179,7 +14170,7 @@
       <c r="T93" s="14">
         <v>49.530240784386891</v>
       </c>
-      <c r="U93" s="57">
+      <c r="U93" s="53">
         <v>2.5156168957169398</v>
       </c>
       <c r="V93" s="14">
@@ -14191,7 +14182,7 @@
       <c r="X93" s="18">
         <v>17.217102316094174</v>
       </c>
-      <c r="Y93" s="56">
+      <c r="Y93" s="52">
         <v>4.5590141403259876</v>
       </c>
       <c r="Z93" s="18">
@@ -14200,7 +14191,7 @@
       <c r="AA93" s="21">
         <v>80.655110699082783</v>
       </c>
-      <c r="AB93" s="62">
+      <c r="AB93" s="57">
         <v>87.33546028705446</v>
       </c>
       <c r="AC93" s="18">
@@ -14209,7 +14200,7 @@
       <c r="AD93" s="18">
         <v>80</v>
       </c>
-      <c r="AE93" s="66">
+      <c r="AE93" s="61">
         <v>19.7</v>
       </c>
       <c r="AF93" s="18">
@@ -14221,7 +14212,7 @@
       <c r="AH93" s="18">
         <v>87.885168739951297</v>
       </c>
-      <c r="AI93" s="70">
+      <c r="AI93" s="64">
         <v>73.974761111111107</v>
       </c>
       <c r="AJ93" s="18">
@@ -14230,7 +14221,7 @@
       <c r="AK93" s="18">
         <v>76.629133333333328</v>
       </c>
-      <c r="AL93" s="72">
+      <c r="AL93" s="66">
         <v>74.18835</v>
       </c>
       <c r="AM93" s="18">
@@ -14283,7 +14274,7 @@
       <c r="N94" s="14">
         <v>48.500424561719626</v>
       </c>
-      <c r="O94" s="56">
+      <c r="O94" s="52">
         <v>0.36538921279999997</v>
       </c>
       <c r="P94" s="14">
@@ -14301,7 +14292,7 @@
       <c r="T94" s="14">
         <v>65.50240499926069</v>
       </c>
-      <c r="U94" s="57">
+      <c r="U94" s="53">
         <v>7.1477467006501998</v>
       </c>
       <c r="V94" s="14">
@@ -14313,7 +14304,7 @@
       <c r="X94" s="18">
         <v>35.422547688313358</v>
       </c>
-      <c r="Y94" s="56">
+      <c r="Y94" s="52">
         <v>8.2513798187109995</v>
       </c>
       <c r="Z94" s="18">
@@ -14322,7 +14313,7 @@
       <c r="AA94" s="21">
         <v>35.374052152796644</v>
       </c>
-      <c r="AB94" s="62">
+      <c r="AB94" s="57">
         <v>64.775982083371062</v>
       </c>
       <c r="AC94" s="18">
@@ -14331,7 +14322,7 @@
       <c r="AD94" s="18">
         <v>89.5</v>
       </c>
-      <c r="AE94" s="66">
+      <c r="AE94" s="61">
         <v>91.3</v>
       </c>
       <c r="AF94" s="18">
@@ -14343,7 +14334,7 @@
       <c r="AH94" s="18">
         <v>54.100673522840417</v>
       </c>
-      <c r="AI94" s="70">
+      <c r="AI94" s="64">
         <v>5.9721222222222217</v>
       </c>
       <c r="AJ94" s="31">
@@ -14352,7 +14343,7 @@
       <c r="AK94" s="18">
         <v>0</v>
       </c>
-      <c r="AL94" s="72">
+      <c r="AL94" s="66">
         <v>20.74982</v>
       </c>
       <c r="AM94" s="18">
@@ -14403,7 +14394,7 @@
       <c r="N95" s="14">
         <v>54.880336871546071</v>
       </c>
-      <c r="O95" s="56">
+      <c r="O95" s="52">
         <v>0.74818418196666669</v>
       </c>
       <c r="P95" s="14">
@@ -14421,7 +14412,7 @@
       <c r="T95" s="14">
         <v>35.65455557434651</v>
       </c>
-      <c r="U95" s="57">
+      <c r="U95" s="53">
         <v>0.293527618942517</v>
       </c>
       <c r="V95" s="14">
@@ -14433,7 +14424,7 @@
       <c r="X95" s="18">
         <v>17.729502068024974</v>
       </c>
-      <c r="Y95" s="56">
+      <c r="Y95" s="52">
         <v>18.986060747116021</v>
       </c>
       <c r="Z95" s="18">
@@ -14442,7 +14433,7 @@
       <c r="AA95" s="21">
         <v>49.774552318695783</v>
       </c>
-      <c r="AB95" s="62">
+      <c r="AB95" s="57">
         <v>56.772764637391568</v>
       </c>
       <c r="AC95" s="18">
@@ -14451,7 +14442,7 @@
       <c r="AD95" s="18">
         <v>95.166666666666671</v>
       </c>
-      <c r="AE95" s="66">
+      <c r="AE95" s="61">
         <v>104.3</v>
       </c>
       <c r="AF95" s="18">
@@ -14463,7 +14454,7 @@
       <c r="AH95" s="18">
         <v>32.30314239702318</v>
       </c>
-      <c r="AI95" s="70">
+      <c r="AI95" s="64">
         <v>42.776340000000005</v>
       </c>
       <c r="AJ95" s="18">
@@ -14472,7 +14463,7 @@
       <c r="AK95" s="18">
         <v>34.770213333333331</v>
       </c>
-      <c r="AL95" s="72">
+      <c r="AL95" s="66">
         <v>55.704219999999999</v>
       </c>
       <c r="AM95" s="18">
@@ -14523,7 +14514,7 @@
       <c r="N96" s="14">
         <v>26.863771815592155</v>
       </c>
-      <c r="O96" s="56">
+      <c r="O96" s="52">
         <v>0.55163259016666666</v>
       </c>
       <c r="P96" s="14">
@@ -14541,7 +14532,7 @@
       <c r="T96" s="14">
         <v>31.638439865648849</v>
       </c>
-      <c r="U96" s="57">
+      <c r="U96" s="53">
         <v>4.5455632798742401E-2</v>
       </c>
       <c r="V96" s="14">
@@ -14553,7 +14544,7 @@
       <c r="X96" s="18">
         <v>34.236922354855899</v>
       </c>
-      <c r="Y96" s="56">
+      <c r="Y96" s="52">
         <v>8.4194255193340499</v>
       </c>
       <c r="Z96" s="18">
@@ -14562,7 +14553,7 @@
       <c r="AA96" s="21">
         <v>97.106239792066063</v>
       </c>
-      <c r="AB96" s="62">
+      <c r="AB96" s="57">
         <v>98.853406250798784</v>
       </c>
       <c r="AC96" s="18">
@@ -14571,7 +14562,7 @@
       <c r="AD96" s="18">
         <v>98</v>
       </c>
-      <c r="AE96" s="66">
+      <c r="AE96" s="61">
         <v>10.7</v>
       </c>
       <c r="AF96" s="18">
@@ -14583,7 +14574,7 @@
       <c r="AH96" s="18">
         <v>98.984461176638789</v>
       </c>
-      <c r="AI96" s="70">
+      <c r="AI96" s="64">
         <v>95.359073333333342</v>
       </c>
       <c r="AJ96" s="18">
@@ -14592,7 +14583,7 @@
       <c r="AK96" s="18">
         <v>90.718146666666684</v>
       </c>
-      <c r="AL96" s="72">
+      <c r="AL96" s="66">
         <v>104.23327</v>
       </c>
       <c r="AM96" s="18">
@@ -14643,7 +14634,7 @@
       <c r="N97" s="14">
         <v>26.466836438824075</v>
       </c>
-      <c r="O97" s="56">
+      <c r="O97" s="52">
         <v>0.20316919796666666</v>
       </c>
       <c r="P97" s="14">
@@ -14661,7 +14652,7 @@
       <c r="T97" s="14">
         <v>40.468643630926259</v>
       </c>
-      <c r="U97" s="57">
+      <c r="U97" s="53">
         <v>1.7838495517384498</v>
       </c>
       <c r="V97" s="14">
@@ -14673,7 +14664,7 @@
       <c r="X97" s="18">
         <v>3.6163231204628561</v>
       </c>
-      <c r="Y97" s="56">
+      <c r="Y97" s="52">
         <v>9.6494593784671796</v>
       </c>
       <c r="Z97" s="18">
@@ -14682,7 +14673,7 @@
       <c r="AA97" s="21">
         <v>56.749124837167905</v>
       </c>
-      <c r="AB97" s="62">
+      <c r="AB97" s="57">
         <v>72.999110785446916</v>
       </c>
       <c r="AC97" s="18">
@@ -14691,7 +14682,7 @@
       <c r="AD97" s="18">
         <v>75.166666666666671</v>
       </c>
-      <c r="AE97" s="66">
+      <c r="AE97" s="61">
         <v>78.8</v>
       </c>
       <c r="AF97" s="18">
@@ -14703,7 +14694,7 @@
       <c r="AH97" s="18">
         <v>85.527635386643766</v>
       </c>
-      <c r="AI97" s="70">
+      <c r="AI97" s="64">
         <v>40.499138888888893</v>
       </c>
       <c r="AJ97" s="18">
@@ -14712,7 +14703,7 @@
       <c r="AK97" s="18">
         <v>42.636200000000002</v>
       </c>
-      <c r="AL97" s="72">
+      <c r="AL97" s="66">
         <v>44.525869999999998</v>
       </c>
       <c r="AM97" s="18">
@@ -14763,7 +14754,7 @@
       <c r="N98" s="14">
         <v>38.662546663601127</v>
       </c>
-      <c r="O98" s="56">
+      <c r="O98" s="52">
         <v>0.72047486273333339</v>
       </c>
       <c r="P98" s="14">
@@ -14781,7 +14772,7 @@
       <c r="T98" s="14">
         <v>53.646977465671497</v>
       </c>
-      <c r="U98" s="57">
+      <c r="U98" s="53">
         <v>0.30108873687253102</v>
       </c>
       <c r="V98" s="14">
@@ -14793,7 +14784,7 @@
       <c r="X98" s="18">
         <v>53.379737013591523</v>
       </c>
-      <c r="Y98" s="56">
+      <c r="Y98" s="52">
         <v>36.311403957533635</v>
       </c>
       <c r="Z98" s="18">
@@ -14802,7 +14793,7 @@
       <c r="AA98" s="21">
         <v>96.571538213463867</v>
       </c>
-      <c r="AB98" s="62">
+      <c r="AB98" s="57">
         <v>97.776305315816614</v>
       </c>
       <c r="AC98" s="18">
@@ -14811,7 +14802,7 @@
       <c r="AD98" s="18">
         <v>100</v>
       </c>
-      <c r="AE98" s="66">
+      <c r="AE98" s="61">
         <v>15.9</v>
       </c>
       <c r="AF98" s="18">
@@ -14823,7 +14814,7 @@
       <c r="AH98" s="18">
         <v>96.904673523207393</v>
       </c>
-      <c r="AI98" s="70">
+      <c r="AI98" s="64">
         <v>95.366771111111106</v>
       </c>
       <c r="AJ98" s="18">
@@ -14832,7 +14823,7 @@
       <c r="AK98" s="18">
         <v>95.458320000000001</v>
       </c>
-      <c r="AL98" s="72">
+      <c r="AL98" s="66">
         <v>95.747699999999995</v>
       </c>
       <c r="AM98" s="18">
@@ -14883,7 +14874,7 @@
       <c r="N99" s="14">
         <v>4.0831211643546306</v>
       </c>
-      <c r="O99" s="56">
+      <c r="O99" s="52">
         <v>0.14313950136666667</v>
       </c>
       <c r="P99" s="14">
@@ -14901,7 +14892,7 @@
       <c r="T99" s="14">
         <v>27.610528006106588</v>
       </c>
-      <c r="U99" s="57">
+      <c r="U99" s="53">
         <v>0.24274081833868602</v>
       </c>
       <c r="V99" s="14">
@@ -14913,7 +14904,7 @@
       <c r="X99" s="18">
         <v>4.1408534815211002</v>
       </c>
-      <c r="Y99" s="56">
+      <c r="Y99" s="52">
         <v>8.317644049308992</v>
       </c>
       <c r="Z99" s="18">
@@ -14922,7 +14913,7 @@
       <c r="AA99" s="21">
         <v>88.153121793699214</v>
       </c>
-      <c r="AB99" s="62">
+      <c r="AB99" s="57">
         <v>93.822052476287311</v>
       </c>
       <c r="AC99" s="18">
@@ -14931,7 +14922,7 @@
       <c r="AD99" s="18">
         <v>92.833333333333329</v>
       </c>
-      <c r="AE99" s="66">
+      <c r="AE99" s="61">
         <v>16.399999999999999</v>
       </c>
       <c r="AF99" s="18">
@@ -14943,7 +14934,7 @@
       <c r="AH99" s="18">
         <v>92.511611974316494</v>
       </c>
-      <c r="AI99" s="70">
+      <c r="AI99" s="64">
         <v>82.484191111111116</v>
       </c>
       <c r="AJ99" s="18">
@@ -14952,7 +14943,7 @@
       <c r="AK99" s="18">
         <v>92.125493333333338</v>
       </c>
-      <c r="AL99" s="72">
+      <c r="AL99" s="66">
         <v>75.558599999999998</v>
       </c>
       <c r="AM99" s="18">
@@ -15003,7 +14994,7 @@
       <c r="N100" s="14">
         <v>27.27226596707013</v>
       </c>
-      <c r="O100" s="56">
+      <c r="O100" s="52">
         <v>0.28918298250000002</v>
       </c>
       <c r="P100" s="14">
@@ -15021,7 +15012,7 @@
       <c r="T100" s="14">
         <v>57.0437996146687</v>
       </c>
-      <c r="U100" s="57">
+      <c r="U100" s="53">
         <v>2.5888747538960799</v>
       </c>
       <c r="V100" s="14">
@@ -15033,7 +15024,7 @@
       <c r="X100" s="18">
         <v>31.866563988258882</v>
       </c>
-      <c r="Y100" s="56">
+      <c r="Y100" s="52">
         <v>9.5345572070440507</v>
       </c>
       <c r="Z100" s="18">
@@ -15042,7 +15033,7 @@
       <c r="AA100" s="21">
         <v>61.617658577595073</v>
       </c>
-      <c r="AB100" s="62">
+      <c r="AB100" s="57">
         <v>80.753923821856816</v>
       </c>
       <c r="AC100" s="18">
@@ -15051,7 +15042,7 @@
       <c r="AD100" s="18">
         <v>86.666666666666671</v>
       </c>
-      <c r="AE100" s="66">
+      <c r="AE100" s="61">
         <v>54.3</v>
       </c>
       <c r="AF100" s="18">
@@ -15063,7 +15054,7 @@
       <c r="AH100" s="18">
         <v>82.44358964738862</v>
       </c>
-      <c r="AI100" s="70">
+      <c r="AI100" s="64">
         <v>42.48139333333333</v>
       </c>
       <c r="AJ100" s="18">
@@ -15072,7 +15063,7 @@
       <c r="AK100" s="18">
         <v>51.244653333333332</v>
       </c>
-      <c r="AL100" s="72">
+      <c r="AL100" s="66">
         <v>40.346319999999999</v>
       </c>
       <c r="AM100" s="18">
@@ -15123,7 +15114,7 @@
       <c r="N101" s="14">
         <v>29.367525881105127</v>
       </c>
-      <c r="O101" s="56">
+      <c r="O101" s="52">
         <v>0.33147806100000005</v>
       </c>
       <c r="P101" s="14">
@@ -15141,7 +15132,7 @@
       <c r="T101" s="14">
         <v>58.394724438234682</v>
       </c>
-      <c r="U101" s="57">
+      <c r="U101" s="53">
         <v>2.11560778184784</v>
       </c>
       <c r="V101" s="14">
@@ -15153,7 +15144,7 @@
       <c r="X101" s="18">
         <v>37.224429626998713</v>
       </c>
-      <c r="Y101" s="56">
+      <c r="Y101" s="52">
         <v>12.863767300417431</v>
       </c>
       <c r="Z101" s="18">
@@ -15162,7 +15153,7 @@
       <c r="AA101" s="21">
         <v>87.138322177333492</v>
       </c>
-      <c r="AB101" s="62">
+      <c r="AB101" s="57">
         <v>90.576244354666997</v>
       </c>
       <c r="AC101" s="18">
@@ -15171,7 +15162,7 @@
       <c r="AD101" s="18">
         <v>88.333333333333329</v>
       </c>
-      <c r="AE101" s="68">
+      <c r="AE101" s="63">
         <v>19.899999999999999</v>
       </c>
       <c r="AF101" s="18">
@@ -15183,7 +15174,7 @@
       <c r="AH101" s="18">
         <v>89.395399730667705</v>
       </c>
-      <c r="AI101" s="70">
+      <c r="AI101" s="64">
         <v>83.700400000000002</v>
       </c>
       <c r="AJ101" s="18">
@@ -15192,7 +15183,7 @@
       <c r="AK101" s="18">
         <v>93.430266666666668</v>
       </c>
-      <c r="AL101" s="72">
+      <c r="AL101" s="66">
         <v>76.573480000000004</v>
       </c>
       <c r="AM101" s="18">
@@ -15243,7 +15234,7 @@
       <c r="N102" s="14">
         <v>14.527073450180204</v>
       </c>
-      <c r="O102" s="56">
+      <c r="O102" s="52">
         <v>0.25174571286666669</v>
       </c>
       <c r="P102" s="14">
@@ -15261,7 +15252,7 @@
       <c r="T102" s="14">
         <v>42.015931254537627</v>
       </c>
-      <c r="U102" s="57">
+      <c r="U102" s="53">
         <v>1.7971454753084901</v>
       </c>
       <c r="V102" s="14">
@@ -15273,7 +15264,7 @@
       <c r="X102" s="18">
         <v>6.613201278585108</v>
       </c>
-      <c r="Y102" s="56">
+      <c r="Y102" s="52">
         <v>4.2824075396074921</v>
       </c>
       <c r="Z102" s="18">
@@ -15282,7 +15273,7 @@
       <c r="AA102" s="21">
         <v>94.651165997307857</v>
       </c>
-      <c r="AB102" s="62">
+      <c r="AB102" s="57">
         <v>95.550707550171282</v>
       </c>
       <c r="AC102" s="18">
@@ -15291,7 +15282,7 @@
       <c r="AD102" s="18">
         <v>95.166666666666671</v>
       </c>
-      <c r="AE102" s="68">
+      <c r="AE102" s="63">
         <v>15.3</v>
       </c>
       <c r="AF102" s="18">
@@ -15303,7 +15294,7 @@
       <c r="AH102" s="18">
         <v>94.697577195968393</v>
       </c>
-      <c r="AI102" s="70">
+      <c r="AI102" s="64">
         <v>93.751624444444445</v>
       </c>
       <c r="AJ102" s="18">
@@ -15312,7 +15303,7 @@
       <c r="AK102" s="18">
         <v>92.231560000000002</v>
       </c>
-      <c r="AL102" s="72">
+      <c r="AL102" s="66">
         <v>95.744519999999994</v>
       </c>
       <c r="AM102" s="18">
@@ -15363,7 +15354,7 @@
       <c r="N103" s="14">
         <v>17.712996401595845</v>
       </c>
-      <c r="O103" s="56">
+      <c r="O103" s="52">
         <v>0.26549203026666662</v>
       </c>
       <c r="P103" s="14">
@@ -15381,7 +15372,7 @@
       <c r="T103" s="14">
         <v>51.522247294018108</v>
       </c>
-      <c r="U103" s="57">
+      <c r="U103" s="53">
         <v>7.6652004984961399</v>
       </c>
       <c r="V103" s="14">
@@ -15393,7 +15384,7 @@
       <c r="X103" s="18">
         <v>6.5426900294784138</v>
       </c>
-      <c r="Y103" s="56">
+      <c r="Y103" s="52">
         <v>7.3594955916850084</v>
       </c>
       <c r="Z103" s="18">
@@ -15402,7 +15393,7 @@
       <c r="AA103" s="21">
         <v>89.880033407011936</v>
       </c>
-      <c r="AB103" s="62">
+      <c r="AB103" s="57">
         <v>88.612000147357207</v>
       </c>
       <c r="AC103" s="18">
@@ -15411,7 +15402,7 @@
       <c r="AD103" s="18">
         <v>85.333333333333343</v>
       </c>
-      <c r="AE103" s="68">
+      <c r="AE103" s="63">
         <v>27.1</v>
       </c>
       <c r="AF103" s="18">
@@ -15423,7 +15414,7 @@
       <c r="AH103" s="18">
         <v>90.866303472374639</v>
       </c>
-      <c r="AI103" s="70">
+      <c r="AI103" s="64">
         <v>91.148066666666665</v>
       </c>
       <c r="AJ103" s="18">
@@ -15432,7 +15423,7 @@
       <c r="AK103" s="18">
         <v>95.197333333333319</v>
       </c>
-      <c r="AL103" s="72">
+      <c r="AL103" s="66">
         <v>88.388919999999999</v>
       </c>
       <c r="AM103" s="18">
@@ -15483,7 +15474,7 @@
       <c r="N104" s="14">
         <v>22.481090317647059</v>
       </c>
-      <c r="O104" s="56">
+      <c r="O104" s="52">
         <v>0.48217853540000005</v>
       </c>
       <c r="P104" s="14">
@@ -15501,7 +15492,7 @@
       <c r="T104" s="14">
         <v>22.774123442389723</v>
       </c>
-      <c r="U104" s="57">
+      <c r="U104" s="53">
         <v>0</v>
       </c>
       <c r="V104" s="14">
@@ -15513,7 +15504,7 @@
       <c r="X104" s="18">
         <v>45.548246884779445</v>
       </c>
-      <c r="Y104" s="56">
+      <c r="Y104" s="52">
         <v>10.018420771039313</v>
       </c>
       <c r="Z104" s="18">
@@ -15522,7 +15513,7 @@
       <c r="AA104" s="21">
         <v>96.690335959554517</v>
       </c>
-      <c r="AB104" s="62">
+      <c r="AB104" s="57">
         <v>99.787050807997943</v>
       </c>
       <c r="AC104" s="18">
@@ -15531,7 +15522,7 @@
       <c r="AD104" s="18">
         <v>100</v>
       </c>
-      <c r="AE104" s="68">
+      <c r="AE104" s="63">
         <v>8.5</v>
       </c>
       <c r="AF104" s="18">
@@ -15543,7 +15534,7 @@
       <c r="AH104" s="18">
         <v>99.361152423993815</v>
       </c>
-      <c r="AI104" s="70">
+      <c r="AI104" s="64">
         <v>93.593621111111105</v>
       </c>
       <c r="AJ104" s="18">
@@ -15552,7 +15543,7 @@
       <c r="AK104" s="18">
         <v>96.995586666666668</v>
       </c>
-      <c r="AL104" s="72">
+      <c r="AL104" s="66">
         <v>91.172489999999996</v>
       </c>
       <c r="AM104" s="18">
@@ -15603,7 +15594,7 @@
       <c r="N105" s="14">
         <v>3.8157554438438548</v>
       </c>
-      <c r="O105" s="56">
+      <c r="O105" s="52">
         <v>0.14653039059999998</v>
       </c>
       <c r="P105" s="14">
@@ -15621,7 +15612,7 @@
       <c r="T105" s="14">
         <v>20.340298812975227</v>
       </c>
-      <c r="U105" s="57">
+      <c r="U105" s="53">
         <v>8.1996805571965009E-2</v>
       </c>
       <c r="V105" s="14">
@@ -15633,7 +15624,7 @@
       <c r="X105" s="18">
         <v>3.8791468440073889</v>
       </c>
-      <c r="Y105" s="56">
+      <c r="Y105" s="52">
         <v>5.0718980134439509</v>
       </c>
       <c r="Z105" s="18">
@@ -15642,7 +15633,7 @@
       <c r="AA105" s="21">
         <v>98.927613251928506</v>
       </c>
-      <c r="AB105" s="62">
+      <c r="AB105" s="57">
         <v>99.832327614968108</v>
       </c>
       <c r="AC105" s="18">
@@ -15651,7 +15642,7 @@
       <c r="AD105" s="18">
         <v>100</v>
       </c>
-      <c r="AE105" s="68">
+      <c r="AE105" s="63">
         <v>3.4</v>
       </c>
       <c r="AF105" s="18">
@@ -15663,7 +15654,7 @@
       <c r="AH105" s="18">
         <v>99.496982844904309</v>
       </c>
-      <c r="AI105" s="70">
+      <c r="AI105" s="64">
         <v>98.022898888888889</v>
       </c>
       <c r="AJ105" s="23">
@@ -15672,7 +15663,7 @@
       <c r="AK105" s="18">
         <v>97.28792</v>
       </c>
-      <c r="AL105" s="72">
+      <c r="AL105" s="66">
         <v>98.882090000000005</v>
       </c>
       <c r="AM105" s="18">
@@ -15725,7 +15716,7 @@
       <c r="N106" s="14">
         <v>38.804172969116046</v>
       </c>
-      <c r="O106" s="56">
+      <c r="O106" s="52">
         <v>0.32952730903333333</v>
       </c>
       <c r="P106" s="14">
@@ -15743,7 +15734,7 @@
       <c r="T106" s="14">
         <v>50.637960064599532</v>
       </c>
-      <c r="U106" s="57">
+      <c r="U106" s="53">
         <v>1.20634625692625</v>
       </c>
       <c r="V106" s="14">
@@ -15755,7 +15746,7 @@
       <c r="X106" s="18">
         <v>29.101417631321365</v>
       </c>
-      <c r="Y106" s="56">
+      <c r="Y106" s="52">
         <v>11.503537403328561</v>
       </c>
       <c r="Z106" s="18">
@@ -15764,7 +15755,7 @@
       <c r="AA106" s="21">
         <v>54.972464977039891</v>
       </c>
-      <c r="AB106" s="62">
+      <c r="AB106" s="57">
         <v>66.231482176302009</v>
       </c>
       <c r="AC106" s="18">
@@ -15773,7 +15764,7 @@
       <c r="AD106" s="18">
         <v>39.833333333333329</v>
       </c>
-      <c r="AE106" s="68">
+      <c r="AE106" s="63">
         <v>38.5</v>
       </c>
       <c r="AF106" s="18">
@@ -15785,7 +15776,7 @@
       <c r="AH106" s="18">
         <v>76.133840468299994</v>
       </c>
-      <c r="AI106" s="70">
+      <c r="AI106" s="64">
         <v>43.71344777777778</v>
       </c>
       <c r="AJ106" s="18">
@@ -15794,7 +15785,7 @@
       <c r="AK106" s="18">
         <v>57.774706666666667</v>
       </c>
-      <c r="AL106" s="72">
+      <c r="AL106" s="66">
         <v>36.686970000000002</v>
       </c>
       <c r="AM106" s="18">
@@ -15845,7 +15836,7 @@
       <c r="N107" s="14">
         <v>12.634936897104817</v>
       </c>
-      <c r="O107" s="56">
+      <c r="O107" s="52">
         <v>0.31133048850000006</v>
       </c>
       <c r="P107" s="14">
@@ -15863,7 +15854,7 @@
       <c r="T107" s="14">
         <v>86.375723523915937</v>
       </c>
-      <c r="U107" s="57">
+      <c r="U107" s="53">
         <v>1.2604252467733101</v>
       </c>
       <c r="V107" s="14">
@@ -15875,7 +15866,7 @@
       <c r="X107" s="18">
         <v>100</v>
       </c>
-      <c r="Y107" s="56">
+      <c r="Y107" s="52">
         <v>10.357809403549897</v>
       </c>
       <c r="Z107" s="18">
@@ -15884,7 +15875,7 @@
       <c r="AA107" s="21">
         <v>93.776988152678712</v>
       </c>
-      <c r="AB107" s="62">
+      <c r="AB107" s="57">
         <v>94.358720749801861</v>
       </c>
       <c r="AC107" s="18">
@@ -15893,7 +15884,7 @@
       <c r="AD107" s="18">
         <v>85</v>
       </c>
-      <c r="AE107" s="68">
+      <c r="AE107" s="63">
         <v>9.3000000000000007</v>
       </c>
       <c r="AF107" s="18">
@@ -15905,7 +15896,7 @@
       <c r="AH107" s="18">
         <v>98.07616224940557</v>
       </c>
-      <c r="AI107" s="70">
+      <c r="AI107" s="64">
         <v>93.195255555555548</v>
       </c>
       <c r="AJ107" s="23">
@@ -15914,7 +15905,7 @@
       <c r="AK107" s="18">
         <v>97.066666666666663</v>
       </c>
-      <c r="AL107" s="72">
+      <c r="AL107" s="66">
         <v>90.391459999999995</v>
       </c>
       <c r="AM107" s="18">
@@ -15965,7 +15956,7 @@
       <c r="N108" s="14">
         <v>25.215009094782467</v>
       </c>
-      <c r="O108" s="56">
+      <c r="O108" s="52">
         <v>0.50285785150000006</v>
       </c>
       <c r="P108" s="14">
@@ -15983,7 +15974,7 @@
       <c r="T108" s="14">
         <v>76.487748472583789</v>
       </c>
-      <c r="U108" s="57">
+      <c r="U108" s="53">
         <v>6.5799538819654195</v>
       </c>
       <c r="V108" s="14">
@@ -15995,7 +15986,7 @@
       <c r="X108" s="18">
         <v>58.482176694435715</v>
       </c>
-      <c r="Y108" s="56">
+      <c r="Y108" s="52">
         <v>4.5525679479526406</v>
       </c>
       <c r="Z108" s="18">
@@ -16004,7 +15995,7 @@
       <c r="AA108" s="21">
         <v>89.875807261483615</v>
       </c>
-      <c r="AB108" s="62">
+      <c r="AB108" s="57">
         <v>91.472331189633906</v>
       </c>
       <c r="AC108" s="18">
@@ -16013,7 +16004,7 @@
       <c r="AD108" s="18">
         <v>80</v>
       </c>
-      <c r="AE108" s="68">
+      <c r="AE108" s="63">
         <v>13.3</v>
       </c>
       <c r="AF108" s="18">
@@ -16025,7 +16016,7 @@
       <c r="AH108" s="18">
         <v>96.416993568901702</v>
       </c>
-      <c r="AI108" s="70">
+      <c r="AI108" s="64">
         <v>88.279283333333325</v>
       </c>
       <c r="AJ108" s="23">
@@ -16034,7 +16025,7 @@
       <c r="AK108" s="18">
         <v>93.066666666666663</v>
       </c>
-      <c r="AL108" s="72">
+      <c r="AL108" s="66">
         <v>85.142709999999994</v>
       </c>
       <c r="AM108" s="18">
@@ -16085,7 +16076,7 @@
       <c r="N109" s="14">
         <v>21.798279089632782</v>
       </c>
-      <c r="O109" s="56">
+      <c r="O109" s="52">
         <v>0.37347002769999998</v>
       </c>
       <c r="P109" s="14">
@@ -16103,7 +16094,7 @@
       <c r="T109" s="14">
         <v>53.80913343932383</v>
       </c>
-      <c r="U109" s="57">
+      <c r="U109" s="53">
         <v>2.3044640368118903</v>
       </c>
       <c r="V109" s="14">
@@ -16115,7 +16106,7 @@
       <c r="X109" s="18">
         <v>26.92830240911006</v>
       </c>
-      <c r="Y109" s="56">
+      <c r="Y109" s="52">
         <v>7.2326964653871517</v>
       </c>
       <c r="Z109" s="18">
@@ -16124,7 +16115,7 @@
       <c r="AA109" s="21">
         <v>94.834556400231719</v>
       </c>
-      <c r="AB109" s="62">
+      <c r="AB109" s="57">
         <v>97.002446133796752</v>
       </c>
       <c r="AC109" s="11">
@@ -16133,7 +16124,7 @@
       <c r="AD109" s="18">
         <v>98.333333333333329</v>
       </c>
-      <c r="AE109" s="68">
+      <c r="AE109" s="63">
         <v>16.600000000000001</v>
       </c>
       <c r="AF109" s="18">
@@ -16145,7 +16136,7 @@
       <c r="AH109" s="18">
         <v>96.6740050680569</v>
       </c>
-      <c r="AI109" s="70">
+      <c r="AI109" s="64">
         <v>92.666666666666671</v>
       </c>
       <c r="AJ109" s="23">
@@ -16154,7 +16145,7 @@
       <c r="AK109" s="18">
         <v>85.333333333333343</v>
       </c>
-      <c r="AL109" s="72">
+      <c r="AL109" s="66">
         <v>106.43626</v>
       </c>
       <c r="AM109" s="18">
@@ -16205,7 +16196,7 @@
       <c r="N110" s="14">
         <v>20.865424829591994</v>
       </c>
-      <c r="O110" s="56">
+      <c r="O110" s="52">
         <v>0.33044395663333331</v>
       </c>
       <c r="P110" s="14">
@@ -16223,7 +16214,7 @@
       <c r="T110" s="14">
         <v>30.384975552101018</v>
       </c>
-      <c r="U110" s="57">
+      <c r="U110" s="53">
         <v>0.49137357037584001</v>
       </c>
       <c r="V110" s="14">
@@ -16235,7 +16226,7 @@
       <c r="X110" s="18">
         <v>0.41176618751268007</v>
       </c>
-      <c r="Y110" s="56">
+      <c r="Y110" s="52">
         <v>4.0579272974876872</v>
       </c>
       <c r="Z110" s="18">
@@ -16244,7 +16235,7 @@
       <c r="AA110" s="21">
         <v>94.095904895191183</v>
       </c>
-      <c r="AB110" s="62">
+      <c r="AB110" s="57">
         <v>97.234058679271257</v>
       </c>
       <c r="AC110" s="18">
@@ -16253,7 +16244,7 @@
       <c r="AD110" s="18">
         <v>100</v>
       </c>
-      <c r="AE110" s="68">
+      <c r="AE110" s="63">
         <v>17.3</v>
       </c>
       <c r="AF110" s="18">
@@ -16265,7 +16256,7 @@
       <c r="AH110" s="18">
         <v>96.126418462056222</v>
       </c>
-      <c r="AI110" s="70">
+      <c r="AI110" s="64">
         <v>90.957751111111108</v>
       </c>
       <c r="AJ110" s="18">
@@ -16274,7 +16265,7 @@
       <c r="AK110" s="18">
         <v>98.631013333333328</v>
       </c>
-      <c r="AL110" s="72">
+      <c r="AL110" s="66">
         <v>84.956040000000002</v>
       </c>
       <c r="AM110" s="18">
@@ -16327,7 +16318,7 @@
       <c r="N111" s="14">
         <v>38.137540898811125</v>
       </c>
-      <c r="O111" s="56">
+      <c r="O111" s="52">
         <v>0.59305272523333341</v>
       </c>
       <c r="P111" s="14">
@@ -16345,7 +16336,7 @@
       <c r="T111" s="14">
         <v>9.9152549729058368</v>
       </c>
-      <c r="U111" s="57">
+      <c r="U111" s="53">
         <v>0</v>
       </c>
       <c r="V111" s="14">
@@ -16357,7 +16348,7 @@
       <c r="X111" s="18">
         <v>19.830509945811674</v>
       </c>
-      <c r="Y111" s="56">
+      <c r="Y111" s="52">
         <v>14.116386122684558</v>
       </c>
       <c r="Z111" s="18">
@@ -16366,7 +16357,7 @@
       <c r="AA111" s="21">
         <v>86.006798524044626</v>
       </c>
-      <c r="AB111" s="62">
+      <c r="AB111" s="57">
         <v>86.25459149253372</v>
       </c>
       <c r="AC111" s="18">
@@ -16375,7 +16366,7 @@
       <c r="AD111" s="18">
         <v>85.833333333333329</v>
       </c>
-      <c r="AE111" s="68">
+      <c r="AE111" s="63">
         <v>33.799999999999997</v>
       </c>
       <c r="AF111" s="18">
@@ -16387,7 +16378,7 @@
       <c r="AH111" s="18">
         <v>87.354683568510211</v>
       </c>
-      <c r="AI111" s="70">
+      <c r="AI111" s="64">
         <v>85.759005555555547</v>
       </c>
       <c r="AJ111" s="18">
@@ -16396,7 +16387,7 @@
       <c r="AK111" s="18">
         <v>86.857466666666667</v>
       </c>
-      <c r="AL111" s="72">
+      <c r="AL111" s="66">
         <v>86.194490000000002</v>
       </c>
       <c r="AM111" s="18">
@@ -16447,7 +16438,7 @@
       <c r="N112" s="14">
         <v>31.740414313740299</v>
       </c>
-      <c r="O112" s="56">
+      <c r="O112" s="52">
         <v>0.61766380276666666</v>
       </c>
       <c r="P112" s="14">
@@ -16465,7 +16456,7 @@
       <c r="T112" s="14">
         <v>7.4081305983537309</v>
       </c>
-      <c r="U112" s="57">
+      <c r="U112" s="53">
         <v>5.2962125713938305E-3</v>
       </c>
       <c r="V112" s="14">
@@ -16477,7 +16468,7 @@
       <c r="X112" s="18">
         <v>14.059061064163913</v>
       </c>
-      <c r="Y112" s="56">
+      <c r="Y112" s="52">
         <v>5.9309828897591998</v>
       </c>
       <c r="Z112" s="18">
@@ -16486,7 +16477,7 @@
       <c r="AA112" s="21">
         <v>97.756935755100827</v>
       </c>
-      <c r="AB112" s="62">
+      <c r="AB112" s="57">
         <v>99.229644843534984</v>
       </c>
       <c r="AC112" s="18">
@@ -16495,7 +16486,7 @@
       <c r="AD112" s="18">
         <v>100</v>
       </c>
-      <c r="AE112" s="68">
+      <c r="AE112" s="63">
         <v>12.9</v>
       </c>
       <c r="AF112" s="18">
@@ -16507,7 +16498,7 @@
       <c r="AH112" s="18">
         <v>99.446510288180718</v>
       </c>
-      <c r="AI112" s="70">
+      <c r="AI112" s="64">
         <v>96.284226666666669</v>
       </c>
       <c r="AJ112" s="18">
@@ -16516,7 +16507,7 @@
       <c r="AK112" s="18">
         <v>92.568453333333338</v>
       </c>
-      <c r="AL112" s="72">
+      <c r="AL112" s="66">
         <v>108.28788</v>
       </c>
       <c r="AM112" s="18">
@@ -16569,7 +16560,7 @@
       <c r="N113" s="14">
         <v>20.623331398224614</v>
       </c>
-      <c r="O113" s="56">
+      <c r="O113" s="52">
         <v>0.22788891609999998</v>
       </c>
       <c r="P113" s="14">
@@ -16587,7 +16578,7 @@
       <c r="T113" s="14">
         <v>72.54755465314075</v>
       </c>
-      <c r="U113" s="57">
+      <c r="U113" s="53">
         <v>1.2382738984642601</v>
       </c>
       <c r="V113" s="14">
@@ -16599,7 +16590,7 @@
       <c r="X113" s="18">
         <v>72.576934150363257</v>
       </c>
-      <c r="Y113" s="56">
+      <c r="Y113" s="52">
         <v>4.1416515132202969</v>
       </c>
       <c r="Z113" s="18">
@@ -16608,7 +16599,7 @@
       <c r="AA113" s="21">
         <v>57.129571617970683</v>
       </c>
-      <c r="AB113" s="62">
+      <c r="AB113" s="57">
         <v>80.354832124830253</v>
       </c>
       <c r="AC113" s="18">
@@ -16617,7 +16608,7 @@
       <c r="AD113" s="18">
         <v>89.5</v>
       </c>
-      <c r="AE113" s="68">
+      <c r="AE113" s="63">
         <v>47.1</v>
       </c>
       <c r="AF113" s="18">
@@ -16629,7 +16620,7 @@
       <c r="AH113" s="18">
         <v>74.049344859339243</v>
       </c>
-      <c r="AI113" s="70">
+      <c r="AI113" s="64">
         <v>33.904311111111113</v>
       </c>
       <c r="AJ113" s="18">
@@ -16638,7 +16629,7 @@
       <c r="AK113" s="18">
         <v>23.756666666666671</v>
       </c>
-      <c r="AL113" s="72">
+      <c r="AL113" s="66">
         <v>49.64676</v>
       </c>
       <c r="AM113" s="18">
@@ -16689,7 +16680,7 @@
       <c r="N114" s="14">
         <v>26.535656609816524</v>
       </c>
-      <c r="O114" s="56">
+      <c r="O114" s="52">
         <v>0.53054970053333328</v>
       </c>
       <c r="P114" s="14">
@@ -16707,7 +16698,7 @@
       <c r="T114" s="14">
         <v>51.105774847973677</v>
       </c>
-      <c r="U114" s="57">
+      <c r="U114" s="53">
         <v>1.1586479706826101</v>
       </c>
       <c r="V114" s="14">
@@ -16719,7 +16710,7 @@
       <c r="X114" s="18">
         <v>30.567805043730655</v>
       </c>
-      <c r="Y114" s="56">
+      <c r="Y114" s="52">
         <v>9.4275525700419589</v>
       </c>
       <c r="Z114" s="18">
@@ -16728,7 +16719,7 @@
       <c r="AA114" s="21">
         <v>90.598593767642981</v>
       </c>
-      <c r="AB114" s="62">
+      <c r="AB114" s="57">
         <v>95.448550868619307</v>
       </c>
       <c r="AC114" s="18">
@@ -16737,7 +16728,7 @@
       <c r="AD114" s="18">
         <v>94</v>
       </c>
-      <c r="AE114" s="68">
+      <c r="AE114" s="63">
         <v>14.3</v>
       </c>
       <c r="AF114" s="18">
@@ -16749,7 +16740,7 @@
       <c r="AH114" s="18">
         <v>94.951713211918545</v>
       </c>
-      <c r="AI114" s="70">
+      <c r="AI114" s="64">
         <v>85.748636666666656</v>
       </c>
       <c r="AJ114" s="18">
@@ -16758,7 +16749,7 @@
       <c r="AK114" s="18">
         <v>91.938973333333323</v>
       </c>
-      <c r="AL114" s="72">
+      <c r="AL114" s="66">
         <v>81.602469999999997</v>
       </c>
       <c r="AM114" s="18">
@@ -16811,7 +16802,7 @@
       <c r="N115" s="14">
         <v>79.474897285976795</v>
       </c>
-      <c r="O115" s="56">
+      <c r="O115" s="52">
         <v>0.63169388353333333</v>
       </c>
       <c r="P115" s="14">
@@ -16829,7 +16820,7 @@
       <c r="T115" s="14">
         <v>37.688627136048055</v>
       </c>
-      <c r="U115" s="57">
+      <c r="U115" s="53">
         <v>3.6927570208451298E-2</v>
       </c>
       <c r="V115" s="14">
@@ -16841,7 +16832,7 @@
       <c r="X115" s="18">
         <v>49.070897488926626</v>
       </c>
-      <c r="Y115" s="56">
+      <c r="Y115" s="52">
         <v>28.548966905912977</v>
       </c>
       <c r="Z115" s="18">
@@ -16850,7 +16841,7 @@
       <c r="AA115" s="21">
         <v>27.395916767676766</v>
       </c>
-      <c r="AB115" s="62">
+      <c r="AB115" s="57">
         <v>31.368686868686869</v>
       </c>
       <c r="AC115" s="18">
@@ -16859,7 +16850,7 @@
       <c r="AD115" s="18">
         <v>56.833333333333336</v>
       </c>
-      <c r="AE115" s="68">
+      <c r="AE115" s="63">
         <v>113.5</v>
       </c>
       <c r="AF115" s="18">
@@ -16871,7 +16862,7 @@
       <c r="AH115" s="18">
         <v>0</v>
       </c>
-      <c r="AI115" s="70">
+      <c r="AI115" s="64">
         <v>23.423146666666664</v>
       </c>
       <c r="AJ115" s="18">
@@ -16880,7 +16871,7 @@
       <c r="AK115" s="18">
         <v>9.9015599999999981</v>
       </c>
-      <c r="AL115" s="72">
+      <c r="AL115" s="66">
         <v>43.250259999999997</v>
       </c>
       <c r="AM115" s="18">
@@ -16931,7 +16922,7 @@
       <c r="N116" s="14">
         <v>8.5154695764705863</v>
       </c>
-      <c r="O116" s="56">
+      <c r="O116" s="52">
         <v>0.24476298279999997</v>
       </c>
       <c r="P116" s="14">
@@ -16949,7 +16940,7 @@
       <c r="T116" s="14">
         <v>50</v>
       </c>
-      <c r="U116" s="57">
+      <c r="U116" s="53">
         <v>0</v>
       </c>
       <c r="V116" s="14">
@@ -16961,7 +16952,7 @@
       <c r="X116" s="18">
         <v>100</v>
       </c>
-      <c r="Y116" s="56">
+      <c r="Y116" s="52">
         <v>6.3829307955096182</v>
       </c>
       <c r="Z116" s="18">
@@ -16970,7 +16961,7 @@
       <c r="AA116" s="21">
         <v>98.947014805429248</v>
       </c>
-      <c r="AB116" s="62">
+      <c r="AB116" s="57">
         <v>99.860969610858504</v>
       </c>
       <c r="AC116" s="18">
@@ -16979,7 +16970,7 @@
       <c r="AD116" s="18">
         <v>100</v>
       </c>
-      <c r="AE116" s="68">
+      <c r="AE116" s="63">
         <v>2.8</v>
       </c>
       <c r="AF116" s="18">
@@ -16991,7 +16982,7 @@
       <c r="AH116" s="18">
         <v>99.582908832575541</v>
       </c>
-      <c r="AI116" s="70">
+      <c r="AI116" s="64">
         <v>98.033059999999992</v>
       </c>
       <c r="AJ116" s="18">
@@ -17000,7 +16991,7 @@
       <c r="AK116" s="18">
         <v>96.066119999999984</v>
       </c>
-      <c r="AL116" s="74">
+      <c r="AL116" s="68">
         <v>108.1</v>
       </c>
       <c r="AM116" s="18">
@@ -17053,7 +17044,7 @@
       <c r="N117" s="14">
         <v>51.950187823168498</v>
       </c>
-      <c r="O117" s="56">
+      <c r="O117" s="52">
         <v>0.61041384533333332</v>
       </c>
       <c r="P117" s="14">
@@ -17071,7 +17062,7 @@
       <c r="T117" s="14">
         <v>45.115491490538972</v>
       </c>
-      <c r="U117" s="57">
+      <c r="U117" s="53">
         <v>1.3597853021696</v>
       </c>
       <c r="V117" s="14">
@@ -17083,7 +17074,7 @@
       <c r="X117" s="18">
         <v>16.481264212554379</v>
       </c>
-      <c r="Y117" s="56">
+      <c r="Y117" s="52">
         <v>15.945550714912002</v>
       </c>
       <c r="Z117" s="18">
@@ -17092,7 +17083,7 @@
       <c r="AA117" s="21">
         <v>74.788490479633822</v>
       </c>
-      <c r="AB117" s="62">
+      <c r="AB117" s="57">
         <v>88.823208737045434</v>
       </c>
       <c r="AC117" s="18">
@@ -17101,7 +17092,7 @@
       <c r="AD117" s="18">
         <v>85.166666666666671</v>
       </c>
-      <c r="AE117" s="68">
+      <c r="AE117" s="63">
         <v>25.8</v>
       </c>
       <c r="AF117" s="18">
@@ -17113,7 +17104,7 @@
       <c r="AH117" s="18">
         <v>90.878717120227208</v>
       </c>
-      <c r="AI117" s="70">
+      <c r="AI117" s="64">
         <v>60.753772222222224</v>
       </c>
       <c r="AJ117" s="18">
@@ -17122,7 +17113,7 @@
       <c r="AK117" s="18">
         <v>78.8</v>
       </c>
-      <c r="AL117" s="72">
+      <c r="AL117" s="66">
         <v>48.436790000000002</v>
       </c>
       <c r="AM117" s="18">
@@ -17175,7 +17166,7 @@
       <c r="N118" s="14">
         <v>82.475046096078444</v>
       </c>
-      <c r="O118" s="56">
+      <c r="O118" s="52">
         <v>0.65207578363333341</v>
       </c>
       <c r="P118" s="14">
@@ -17193,7 +17184,7 @@
       <c r="T118" s="14">
         <v>51.323179835887657</v>
       </c>
-      <c r="U118" s="57">
+      <c r="U118" s="53">
         <v>8.7063950185328292</v>
       </c>
       <c r="V118" s="14">
@@ -17205,7 +17196,7 @@
       <c r="X118" s="18">
         <v>4.4688705971999951</v>
       </c>
-      <c r="Y118" s="56">
+      <c r="Y118" s="52">
         <v>1.8339482064791672</v>
       </c>
       <c r="Z118" s="18">
@@ -17214,7 +17205,7 @@
       <c r="AA118" s="21">
         <v>16.655079469329671</v>
       </c>
-      <c r="AB118" s="62">
+      <c r="AB118" s="57">
         <v>23.310158938659338</v>
       </c>
       <c r="AC118" s="18">
@@ -17223,7 +17214,7 @@
       <c r="AD118" s="18">
         <v>5</v>
       </c>
-      <c r="AE118" s="68">
+      <c r="AE118" s="63">
         <v>132.5</v>
       </c>
       <c r="AF118" s="18">
@@ -17235,7 +17226,7 @@
       <c r="AH118" s="18">
         <v>39.17290105840226</v>
       </c>
-      <c r="AI118" s="70">
+      <c r="AI118" s="64">
         <v>10</v>
       </c>
       <c r="AJ118" s="23">
@@ -17244,7 +17235,7 @@
       <c r="AK118" s="18">
         <v>20</v>
       </c>
-      <c r="AL118" s="72">
+      <c r="AL118" s="66">
         <v>7.35304</v>
       </c>
       <c r="AM118" s="18">
@@ -17295,7 +17286,7 @@
       <c r="N119" s="14">
         <v>2.3864142754154702</v>
       </c>
-      <c r="O119" s="56">
+      <c r="O119" s="52">
         <v>0.12047113113333334</v>
       </c>
       <c r="P119" s="14">
@@ -17313,7 +17304,7 @@
       <c r="T119" s="14">
         <v>46.152797332651133</v>
       </c>
-      <c r="U119" s="57">
+      <c r="U119" s="53">
         <v>1.8609848450881199</v>
       </c>
       <c r="V119" s="14">
@@ -17325,7 +17316,7 @@
       <c r="X119" s="18">
         <v>14.427694873022755</v>
       </c>
-      <c r="Y119" s="56">
+      <c r="Y119" s="52">
         <v>4.8493919983487315</v>
       </c>
       <c r="Z119" s="18">
@@ -17334,7 +17325,7 @@
       <c r="AA119" s="21">
         <v>92.575539295071536</v>
       </c>
-      <c r="AB119" s="62">
+      <c r="AB119" s="57">
         <v>89.561537479031969</v>
       </c>
       <c r="AC119" s="18">
@@ -17343,7 +17334,7 @@
       <c r="AD119" s="18">
         <v>100</v>
       </c>
-      <c r="AE119" s="68">
+      <c r="AE119" s="63">
         <v>43.3</v>
       </c>
       <c r="AF119" s="18">
@@ -17355,7 +17346,7 @@
       <c r="AH119" s="18">
         <v>88.866430618914066</v>
       </c>
-      <c r="AI119" s="70">
+      <c r="AI119" s="64">
         <v>95.589541111111117</v>
       </c>
       <c r="AJ119" s="18">
@@ -17364,7 +17355,7 @@
       <c r="AK119" s="18">
         <v>92.490560000000002</v>
       </c>
-      <c r="AL119" s="72">
+      <c r="AL119" s="66">
         <v>98.819670000000002</v>
       </c>
       <c r="AM119" s="18">
@@ -17435,7 +17426,7 @@
       <c r="T120" s="14">
         <v>50.45668747853248</v>
       </c>
-      <c r="U120" s="59">
+      <c r="U120" s="55">
         <v>4.2891080219094997</v>
       </c>
       <c r="V120" s="14">
@@ -17447,7 +17438,7 @@
       <c r="X120" s="18">
         <v>12.05029332273433</v>
       </c>
-      <c r="Y120" s="60">
+      <c r="Y120" s="56">
         <v>59.675370020805097</v>
       </c>
       <c r="Z120" s="18">
@@ -17456,7 +17447,7 @@
       <c r="AA120" s="21">
         <v>25.799333390552889</v>
       </c>
-      <c r="AB120" s="62">
+      <c r="AB120" s="57">
         <v>50.377813447772446</v>
       </c>
       <c r="AC120" s="27">
@@ -17465,7 +17456,7 @@
       <c r="AD120" s="18">
         <v>65.666666666666657</v>
       </c>
-      <c r="AE120" s="68">
+      <c r="AE120" s="63">
         <v>90.7</v>
       </c>
       <c r="AF120" s="18">
@@ -17477,7 +17468,7 @@
       <c r="AH120" s="18">
         <v>34.375864585741589</v>
       </c>
-      <c r="AI120" s="70">
+      <c r="AI120" s="64">
         <v>1.2208533333333331</v>
       </c>
       <c r="AJ120" s="18">
@@ -17486,7 +17477,7 @@
       <c r="AK120" s="18">
         <v>2.4417066666666662</v>
       </c>
-      <c r="AL120" s="72">
+      <c r="AL120" s="66">
         <v>9.5175599999999996</v>
       </c>
       <c r="AM120" s="18">
@@ -17537,7 +17528,7 @@
       <c r="N121" s="14">
         <v>12.443632852243262</v>
       </c>
-      <c r="O121" s="56">
+      <c r="O121" s="52">
         <v>0.20292704780000001</v>
       </c>
       <c r="P121" s="14">
@@ -17555,7 +17546,7 @@
       <c r="T121" s="14">
         <v>52.173425822977109</v>
       </c>
-      <c r="U121" s="57">
+      <c r="U121" s="53">
         <v>3.9617170175198897</v>
       </c>
       <c r="V121" s="14">
@@ -17576,7 +17567,7 @@
       <c r="AA121" s="21">
         <v>91.881158514320447</v>
       </c>
-      <c r="AB121" s="62">
+      <c r="AB121" s="57">
         <v>89.794460361974259</v>
       </c>
       <c r="AC121" s="18">
@@ -17585,7 +17576,7 @@
       <c r="AD121" s="18">
         <v>71.5</v>
       </c>
-      <c r="AE121" s="68">
+      <c r="AE121" s="63">
         <v>9.4</v>
       </c>
       <c r="AF121" s="18">
@@ -17597,7 +17588,7 @@
       <c r="AH121" s="18">
         <v>97.883381085922778</v>
       </c>
-      <c r="AI121" s="70">
+      <c r="AI121" s="64">
         <v>93.967856666666648</v>
       </c>
       <c r="AJ121" s="18">
@@ -17606,7 +17597,7 @@
       <c r="AK121" s="18">
         <v>88.241813333333326</v>
       </c>
-      <c r="AL121" s="72">
+      <c r="AL121" s="66">
         <v>99.724509999999995</v>
       </c>
       <c r="AM121" s="18">
@@ -17677,7 +17668,7 @@
       <c r="T122" s="14">
         <v>43.779267525096337</v>
       </c>
-      <c r="U122" s="59">
+      <c r="U122" s="55">
         <v>1.55424583757489</v>
       </c>
       <c r="V122" s="14">
@@ -17689,7 +17680,7 @@
       <c r="X122" s="18">
         <v>12.05029332273433</v>
       </c>
-      <c r="Y122" s="60">
+      <c r="Y122" s="56">
         <v>34.567276888162887</v>
       </c>
       <c r="Z122" s="18">
@@ -17698,7 +17689,7 @@
       <c r="AA122" s="21">
         <v>53.035091182360972</v>
       </c>
-      <c r="AB122" s="62">
+      <c r="AB122" s="57">
         <v>68.89278458694416</v>
       </c>
       <c r="AC122" s="27">
@@ -17707,7 +17698,7 @@
       <c r="AD122" s="18">
         <v>65.666666666666657</v>
       </c>
-      <c r="AE122" s="68">
+      <c r="AE122" s="63">
         <v>65.099999999999994</v>
       </c>
       <c r="AF122" s="18">
@@ -17719,7 +17710,7 @@
       <c r="AH122" s="18">
         <v>74.405626488105199</v>
       </c>
-      <c r="AI122" s="70">
+      <c r="AI122" s="64">
         <v>37.177397777777784</v>
       </c>
       <c r="AJ122" s="18">
@@ -17728,7 +17719,7 @@
       <c r="AK122" s="18">
         <v>38.023173333333339</v>
       </c>
-      <c r="AL122" s="72">
+      <c r="AL122" s="66">
         <v>42.698459999999997</v>
       </c>
       <c r="AM122" s="18">
@@ -17779,7 +17770,7 @@
       <c r="N123" s="14">
         <v>31.596252080976075</v>
       </c>
-      <c r="O123" s="56">
+      <c r="O123" s="52">
         <v>0.50904125776666664</v>
       </c>
       <c r="P123" s="14">
@@ -17797,7 +17788,7 @@
       <c r="T123" s="14">
         <v>44.864106364407505</v>
       </c>
-      <c r="U123" s="57">
+      <c r="U123" s="53">
         <v>0.311468598819438</v>
       </c>
       <c r="V123" s="14">
@@ -17809,7 +17800,7 @@
       <c r="X123" s="18">
         <v>35.368080674142064</v>
       </c>
-      <c r="Y123" s="56">
+      <c r="Y123" s="52">
         <v>12.266072615519114</v>
       </c>
       <c r="Z123" s="18">
@@ -17818,7 +17809,7 @@
       <c r="AA123" s="21">
         <v>88.474868309125924</v>
       </c>
-      <c r="AB123" s="62">
+      <c r="AB123" s="57">
         <v>92.180252173807403</v>
       </c>
       <c r="AC123" s="18">
@@ -17827,7 +17818,7 @@
       <c r="AD123" s="18">
         <v>95.166666666666671</v>
       </c>
-      <c r="AE123" s="68">
+      <c r="AE123" s="63">
         <v>20</v>
       </c>
       <c r="AF123" s="18">
@@ -17839,7 +17830,7 @@
       <c r="AH123" s="18">
         <v>87.434695915361587</v>
       </c>
-      <c r="AI123" s="70">
+      <c r="AI123" s="64">
         <v>84.769484444444458</v>
       </c>
       <c r="AJ123" s="18">
@@ -17848,7 +17839,7 @@
       <c r="AK123" s="18">
         <v>90.491546666666679</v>
       </c>
-      <c r="AL123" s="72">
+      <c r="AL123" s="66">
         <v>81.142679999999999</v>
       </c>
       <c r="AM123" s="18">
@@ -17899,7 +17890,7 @@
       <c r="N124" s="14">
         <v>15.19995579024032</v>
       </c>
-      <c r="O124" s="56">
+      <c r="O124" s="52">
         <v>0.22898213126666667</v>
       </c>
       <c r="P124" s="14">
@@ -17917,7 +17908,7 @@
       <c r="T124" s="14">
         <v>53.57469424432945</v>
       </c>
-      <c r="U124" s="57">
+      <c r="U124" s="53">
         <v>9.4872292416158395</v>
       </c>
       <c r="V124" s="14">
@@ -17929,7 +17920,7 @@
       <c r="X124" s="18">
         <v>7.8419179533221124</v>
       </c>
-      <c r="Y124" s="56">
+      <c r="Y124" s="52">
         <v>5.5975517849119996</v>
       </c>
       <c r="Z124" s="18">
@@ -17938,7 +17929,7 @@
       <c r="AA124" s="21">
         <v>69.416474248492364</v>
       </c>
-      <c r="AB124" s="62">
+      <c r="AB124" s="57">
         <v>68.974038496984704</v>
       </c>
       <c r="AC124" s="18">
@@ -17947,7 +17938,7 @@
       <c r="AD124" s="18">
         <v>75.666666666666657</v>
       </c>
-      <c r="AE124" s="68">
+      <c r="AE124" s="63">
         <v>70.400000000000006</v>
       </c>
       <c r="AF124" s="18">
@@ -17959,7 +17950,7 @@
       <c r="AH124" s="18">
         <v>67.86150943034805</v>
       </c>
-      <c r="AI124" s="70">
+      <c r="AI124" s="64">
         <v>69.858910000000009</v>
       </c>
       <c r="AJ124" s="18">
@@ -17968,7 +17959,7 @@
       <c r="AK124" s="18">
         <v>77.46438666666667</v>
       </c>
-      <c r="AL124" s="72">
+      <c r="AL124" s="66">
         <v>66.028090000000006</v>
       </c>
       <c r="AM124" s="18">
@@ -18019,7 +18010,7 @@
       <c r="N125" s="14">
         <v>20.682430702001533</v>
       </c>
-      <c r="O125" s="56">
+      <c r="O125" s="52">
         <v>0.16918516049999999</v>
       </c>
       <c r="P125" s="14">
@@ -18037,7 +18028,7 @@
       <c r="T125" s="14">
         <v>54.0648693298144</v>
       </c>
-      <c r="U125" s="57">
+      <c r="U125" s="53">
         <v>0.42358599308614503</v>
       </c>
       <c r="V125" s="14">
@@ -18049,7 +18040,7 @@
       <c r="X125" s="18">
         <v>49.724586666071716</v>
       </c>
-      <c r="Y125" s="56">
+      <c r="Y125" s="52">
         <v>20.277568627932745</v>
       </c>
       <c r="Z125" s="18">
@@ -18058,7 +18049,7 @@
       <c r="AA125" s="21">
         <v>79.773000235691214</v>
       </c>
-      <c r="AB125" s="62">
+      <c r="AB125" s="57">
         <v>96.182702693604654</v>
       </c>
       <c r="AC125" s="18">
@@ -18067,7 +18058,7 @@
       <c r="AD125" s="18">
         <v>98.333333333333329</v>
       </c>
-      <c r="AE125" s="68">
+      <c r="AE125" s="63">
         <v>17.5</v>
       </c>
       <c r="AF125" s="18">
@@ -18079,7 +18070,7 @@
       <c r="AH125" s="18">
         <v>94.760229292935165</v>
       </c>
-      <c r="AI125" s="70">
+      <c r="AI125" s="64">
         <v>63.363297777777781</v>
       </c>
       <c r="AJ125" s="18">
@@ -18088,7 +18079,7 @@
       <c r="AK125" s="18">
         <v>81.738573333333335</v>
       </c>
-      <c r="AL125" s="72">
+      <c r="AL125" s="66">
         <v>50.489220000000003</v>
       </c>
       <c r="AM125" s="18">
@@ -18139,7 +18130,7 @@
       <c r="N126" s="14">
         <v>35.202842816776084</v>
       </c>
-      <c r="O126" s="56">
+      <c r="O126" s="52">
         <v>0.35352411146666668</v>
       </c>
       <c r="P126" s="14">
@@ -18157,7 +18148,7 @@
       <c r="T126" s="14">
         <v>55.812727614461757</v>
       </c>
-      <c r="U126" s="57">
+      <c r="U126" s="53">
         <v>4.7862392521555597</v>
       </c>
       <c r="V126" s="14">
@@ -18169,7 +18160,7 @@
       <c r="X126" s="18">
         <v>21.319568772362715</v>
       </c>
-      <c r="Y126" s="56">
+      <c r="Y126" s="52">
         <v>12.835947778765719</v>
       </c>
       <c r="Z126" s="18">
@@ -18178,7 +18169,7 @@
       <c r="AA126" s="21">
         <v>85.872447649905212</v>
       </c>
-      <c r="AB126" s="62">
+      <c r="AB126" s="57">
         <v>78.616056410921544</v>
       </c>
       <c r="AC126" s="18">
@@ -18187,7 +18178,7 @@
       <c r="AD126" s="18">
         <v>58.166666666666664</v>
       </c>
-      <c r="AE126" s="68">
+      <c r="AE126" s="63">
         <v>43.1</v>
       </c>
       <c r="AF126" s="18">
@@ -18199,7 +18190,7 @@
       <c r="AH126" s="18">
         <v>97.742108626704024</v>
       </c>
-      <c r="AI126" s="70">
+      <c r="AI126" s="64">
         <v>93.128838888888893</v>
       </c>
       <c r="AJ126" s="23">
@@ -18208,7 +18199,7 @@
       <c r="AK126" s="18">
         <v>99.708066666666667</v>
       </c>
-      <c r="AL126" s="72">
+      <c r="AL126" s="66">
         <v>87.894649999999999</v>
       </c>
       <c r="AM126" s="18">
@@ -18259,7 +18250,7 @@
       <c r="N127" s="14">
         <v>6.820818922689492</v>
       </c>
-      <c r="O127" s="56">
+      <c r="O127" s="52">
         <v>7.5277956066666665E-2</v>
       </c>
       <c r="P127" s="14">
@@ -18277,7 +18268,7 @@
       <c r="T127" s="14">
         <v>50.973716206096285</v>
       </c>
-      <c r="U127" s="57">
+      <c r="U127" s="53">
         <v>5.9570928473318805</v>
       </c>
       <c r="V127" s="14">
@@ -18289,7 +18280,7 @@
       <c r="X127" s="18">
         <v>8.7624456421261385</v>
       </c>
-      <c r="Y127" s="56">
+      <c r="Y127" s="52">
         <v>5.4904446102674305</v>
       </c>
       <c r="Z127" s="18">
@@ -18298,7 +18289,7 @@
       <c r="AA127" s="21">
         <v>95.937349596557254</v>
       </c>
-      <c r="AB127" s="62">
+      <c r="AB127" s="57">
         <v>96.629159193114489</v>
       </c>
       <c r="AC127" s="18">
@@ -18307,7 +18298,7 @@
       <c r="AD127" s="18">
         <v>92.5</v>
       </c>
-      <c r="AE127" s="68">
+      <c r="AE127" s="63">
         <v>12.2</v>
       </c>
       <c r="AF127" s="18">
@@ -18319,7 +18310,7 @@
       <c r="AH127" s="18">
         <v>98.720810912676754</v>
       </c>
-      <c r="AI127" s="70">
+      <c r="AI127" s="64">
         <v>95.245540000000005</v>
       </c>
       <c r="AJ127" s="18">
@@ -18328,7 +18319,7 @@
       <c r="AK127" s="18">
         <v>90.491079999999997</v>
       </c>
-      <c r="AL127" s="72">
+      <c r="AL127" s="66">
         <v>129.00171</v>
       </c>
       <c r="AM127" s="18">
@@ -18381,7 +18372,7 @@
       <c r="N128" s="14">
         <v>34.330377611733446</v>
       </c>
-      <c r="O128" s="56">
+      <c r="O128" s="52">
         <v>0.58664943380000001</v>
       </c>
       <c r="P128" s="14">
@@ -18399,7 +18390,7 @@
       <c r="T128" s="14">
         <v>40.752174113261098</v>
       </c>
-      <c r="U128" s="57">
+      <c r="U128" s="53">
         <v>0.54661806680759406</v>
       </c>
       <c r="V128" s="14">
@@ -18411,7 +18402,7 @@
       <c r="X128" s="18">
         <v>19.744413290249117</v>
       </c>
-      <c r="Y128" s="56">
+      <c r="Y128" s="52">
         <v>45.967433147818618</v>
       </c>
       <c r="Z128" s="18">
@@ -18420,7 +18411,7 @@
       <c r="AA128" s="21">
         <v>66.63143020458574</v>
       </c>
-      <c r="AB128" s="62">
+      <c r="AB128" s="57">
         <v>73.965368186949249</v>
       </c>
       <c r="AC128" s="18">
@@ -18429,7 +18420,7 @@
       <c r="AD128" s="18">
         <v>63.5</v>
       </c>
-      <c r="AE128" s="68">
+      <c r="AE128" s="63">
         <v>49.7</v>
       </c>
       <c r="AF128" s="18">
@@ -18441,7 +18432,7 @@
       <c r="AH128" s="18">
         <v>82.456710621453809</v>
       </c>
-      <c r="AI128" s="70">
+      <c r="AI128" s="64">
         <v>59.297492222222225</v>
       </c>
       <c r="AJ128" s="18">
@@ -18450,7 +18441,7 @@
       <c r="AK128" s="18">
         <v>44.411973333333336</v>
       </c>
-      <c r="AL128" s="72">
+      <c r="AL128" s="66">
         <v>76.764709999999994</v>
       </c>
       <c r="AM128" s="18">
@@ -18503,7 +18494,7 @@
       <c r="N129" s="14">
         <v>30.47896670286254</v>
       </c>
-      <c r="O129" s="56">
+      <c r="O129" s="52">
         <v>0.21956387633333332</v>
       </c>
       <c r="P129" s="14">
@@ -18521,7 +18512,7 @@
       <c r="T129" s="14">
         <v>38.864515291629878</v>
       </c>
-      <c r="U129" s="57">
+      <c r="U129" s="53">
         <v>0.34156770981224999</v>
       </c>
       <c r="V129" s="14">
@@ -18533,7 +18524,7 @@
       <c r="X129" s="18">
         <v>22.155261005427811</v>
       </c>
-      <c r="Y129" s="56">
+      <c r="Y129" s="52">
         <v>8.1966932690793506</v>
       </c>
       <c r="Z129" s="18">
@@ -18542,7 +18533,7 @@
       <c r="AA129" s="21">
         <v>61.82618003109269</v>
       </c>
-      <c r="AB129" s="62">
+      <c r="AB129" s="57">
         <v>72.983841173296483</v>
       </c>
       <c r="AC129" s="18">
@@ -18551,7 +18542,7 @@
       <c r="AD129" s="18">
         <v>89.166666666666671</v>
       </c>
-      <c r="AE129" s="68">
+      <c r="AE129" s="63">
         <v>75.7</v>
       </c>
       <c r="AF129" s="18">
@@ -18563,7 +18554,7 @@
       <c r="AH129" s="18">
         <v>69.60303867140459</v>
       </c>
-      <c r="AI129" s="70">
+      <c r="AI129" s="64">
         <v>50.668518888888897</v>
       </c>
       <c r="AJ129" s="18">
@@ -18572,7 +18563,7 @@
       <c r="AK129" s="18">
         <v>51.660826666666672</v>
       </c>
-      <c r="AL129" s="72">
+      <c r="AL129" s="66">
         <v>54.708590000000001</v>
       </c>
       <c r="AM129" s="18">
@@ -18623,7 +18614,7 @@
       <c r="N130" s="14">
         <v>28.604662616461205</v>
       </c>
-      <c r="O130" s="56">
+      <c r="O130" s="52">
         <v>0.31922034166666663</v>
       </c>
       <c r="P130" s="14">
@@ -18641,7 +18632,7 @@
       <c r="T130" s="14">
         <v>49.99189201785272</v>
       </c>
-      <c r="U130" s="57">
+      <c r="U130" s="53">
         <v>1.4084923280817001</v>
       </c>
       <c r="V130" s="14">
@@ -18653,7 +18644,7 @@
       <c r="X130" s="18">
         <v>25.771053928707438</v>
       </c>
-      <c r="Y130" s="56">
+      <c r="Y130" s="52">
         <v>12.19075973471306</v>
       </c>
       <c r="Z130" s="18">
@@ -18662,7 +18653,7 @@
       <c r="AA130" s="21">
         <v>94.739528617158712</v>
       </c>
-      <c r="AB130" s="62">
+      <c r="AB130" s="57">
         <v>95.389053900984095</v>
       </c>
       <c r="AC130" s="18">
@@ -18671,7 +18662,7 @@
       <c r="AD130" s="18">
         <v>100</v>
       </c>
-      <c r="AE130" s="68">
+      <c r="AE130" s="63">
         <v>16.399999999999999</v>
       </c>
       <c r="AF130" s="18">
@@ -18683,7 +18674,7 @@
       <c r="AH130" s="18">
         <v>90.04594958174016</v>
       </c>
-      <c r="AI130" s="70">
+      <c r="AI130" s="64">
         <v>94.090003333333328</v>
       </c>
       <c r="AJ130" s="18">
@@ -18692,7 +18683,7 @@
       <c r="AK130" s="18">
         <v>99.18070666666668</v>
       </c>
-      <c r="AL130" s="72">
+      <c r="AL130" s="66">
         <v>90.099369999999993</v>
       </c>
       <c r="AM130" s="18">
@@ -18743,7 +18734,7 @@
       <c r="N131" s="14">
         <v>14.220813398039217</v>
       </c>
-      <c r="O131" s="56">
+      <c r="O131" s="52">
         <v>0.34175382776666668</v>
       </c>
       <c r="P131" s="14">
@@ -18761,7 +18752,7 @@
       <c r="T131" s="14">
         <v>18.971556746482463</v>
       </c>
-      <c r="U131" s="57">
+      <c r="U131" s="53">
         <v>7.6911485293707895E-3</v>
       </c>
       <c r="V131" s="14">
@@ -18773,7 +18764,7 @@
       <c r="X131" s="18">
         <v>32.277572909491319</v>
       </c>
-      <c r="Y131" s="56">
+      <c r="Y131" s="52">
         <v>14.741762616772114</v>
       </c>
       <c r="Z131" s="18">
@@ -18782,7 +18773,7 @@
       <c r="AA131" s="21">
         <v>93.968349994039627</v>
       </c>
-      <c r="AB131" s="62">
+      <c r="AB131" s="57">
         <v>96.672791099190363</v>
       </c>
       <c r="AC131" s="18">
@@ -18791,7 +18782,7 @@
       <c r="AD131" s="18">
         <v>100</v>
       </c>
-      <c r="AE131" s="68">
+      <c r="AE131" s="63">
         <v>18.5</v>
       </c>
       <c r="AF131" s="18">
@@ -18803,7 +18794,7 @@
       <c r="AH131" s="18">
         <v>95.169888449086272</v>
       </c>
-      <c r="AI131" s="70">
+      <c r="AI131" s="64">
         <v>91.263908888888892</v>
       </c>
       <c r="AJ131" s="18">
@@ -18812,7 +18803,7 @@
       <c r="AK131" s="18">
         <v>98.626106666666658</v>
       </c>
-      <c r="AL131" s="72">
+      <c r="AL131" s="66">
         <v>85.511539999999997</v>
       </c>
       <c r="AM131" s="18">
@@ -18863,7 +18854,7 @@
       <c r="N132" s="14">
         <v>9.8893049740559569</v>
       </c>
-      <c r="O132" s="56">
+      <c r="O132" s="52">
         <v>0.14038106123333333</v>
       </c>
       <c r="P132" s="14">
@@ -18881,7 +18872,7 @@
       <c r="T132" s="14">
         <v>38.388199223346497</v>
       </c>
-      <c r="U132" s="57">
+      <c r="U132" s="53">
         <v>1.6763539765840801E-2</v>
       </c>
       <c r="V132" s="14">
@@ -18893,7 +18884,7 @@
       <c r="X132" s="18">
         <v>60.860283617284715</v>
       </c>
-      <c r="Y132" s="56">
+      <c r="Y132" s="52">
         <v>4.5450261719774145</v>
       </c>
       <c r="Z132" s="18">
@@ -18902,7 +18893,7 @@
       <c r="AA132" s="21">
         <v>88.576596170598123</v>
       </c>
-      <c r="AB132" s="62">
+      <c r="AB132" s="57">
         <v>97.682205674529555</v>
       </c>
       <c r="AC132" s="18">
@@ -18911,7 +18902,7 @@
       <c r="AD132" s="18">
         <v>100</v>
       </c>
-      <c r="AE132" s="68">
+      <c r="AE132" s="63">
         <v>13.6</v>
       </c>
       <c r="AF132" s="18">
@@ -18923,7 +18914,7 @@
       <c r="AH132" s="18">
         <v>95.228435205406853</v>
       </c>
-      <c r="AI132" s="70">
+      <c r="AI132" s="64">
         <v>79.470986666666676</v>
       </c>
       <c r="AJ132" s="18">
@@ -18932,7 +18923,7 @@
       <c r="AK132" s="18">
         <v>72.048573333333337</v>
       </c>
-      <c r="AL132" s="72">
+      <c r="AL132" s="66">
         <v>88.204059999999998</v>
       </c>
       <c r="AM132" s="18">
@@ -18983,7 +18974,7 @@
       <c r="N133" s="14">
         <v>5.452522966853075</v>
       </c>
-      <c r="O133" s="56">
+      <c r="O133" s="52">
         <v>7.3478934900000001E-2</v>
       </c>
       <c r="P133" s="14">
@@ -19001,7 +18992,7 @@
       <c r="T133" s="14">
         <v>35.317445265814214</v>
       </c>
-      <c r="U133" s="57">
+      <c r="U133" s="53">
         <v>0.42162878532249604</v>
       </c>
       <c r="V133" s="14">
@@ -19013,7 +19004,7 @@
       <c r="X133" s="18">
         <v>12.290669138855478</v>
       </c>
-      <c r="Y133" s="56">
+      <c r="Y133" s="52">
         <v>5.2658988442867578</v>
       </c>
       <c r="Z133" s="18">
@@ -19022,7 +19013,7 @@
       <c r="AA133" s="21">
         <v>98.108406889615196</v>
       </c>
-      <c r="AB133" s="62">
+      <c r="AB133" s="57">
         <v>99.14920044589708</v>
       </c>
       <c r="AC133" s="18">
@@ -19031,7 +19022,7 @@
       <c r="AD133" s="18">
         <v>100</v>
       </c>
-      <c r="AE133" s="68">
+      <c r="AE133" s="63">
         <v>12.7</v>
       </c>
       <c r="AF133" s="18">
@@ -19043,7 +19034,7 @@
       <c r="AH133" s="18">
         <v>99.083964974054879</v>
       </c>
-      <c r="AI133" s="70">
+      <c r="AI133" s="64">
         <v>97.067613333333327</v>
       </c>
       <c r="AJ133" s="18">
@@ -19052,7 +19043,7 @@
       <c r="AK133" s="18">
         <v>94.135226666666668</v>
       </c>
-      <c r="AL133" s="72">
+      <c r="AL133" s="66">
         <v>102.48876</v>
       </c>
       <c r="AM133" s="18">
@@ -19103,7 +19094,7 @@
       <c r="N134" s="14">
         <v>48.835980948141405</v>
       </c>
-      <c r="O134" s="56">
+      <c r="O134" s="52">
         <v>0.7518842745333334</v>
       </c>
       <c r="P134" s="14">
@@ -19121,7 +19112,7 @@
       <c r="T134" s="14">
         <v>24.297196804585582</v>
       </c>
-      <c r="U134" s="57">
+      <c r="U134" s="53">
         <v>1.2178566122196201E-5</v>
       </c>
       <c r="V134" s="14">
@@ -19133,7 +19124,7 @@
       <c r="X134" s="18">
         <v>48.594393609171163</v>
       </c>
-      <c r="Y134" s="56">
+      <c r="Y134" s="52">
         <v>20.091522148166018</v>
       </c>
       <c r="Z134" s="18">
@@ -19142,7 +19133,7 @@
       <c r="AA134" s="21">
         <v>91.029140789795974</v>
       </c>
-      <c r="AB134" s="62">
+      <c r="AB134" s="57">
         <v>90.40667046848084</v>
       </c>
       <c r="AC134" s="18">
@@ -19151,7 +19142,7 @@
       <c r="AD134" s="18">
         <v>99.166666666666671</v>
       </c>
-      <c r="AE134" s="68">
+      <c r="AE134" s="63">
         <v>51</v>
       </c>
       <c r="AF134" s="18">
@@ -19163,7 +19154,7 @@
       <c r="AH134" s="18">
         <v>96.901829587260707</v>
       </c>
-      <c r="AI134" s="70">
+      <c r="AI134" s="64">
         <v>91.651611111111109</v>
       </c>
       <c r="AJ134" s="33">
@@ -19172,7 +19163,7 @@
       <c r="AK134" s="18">
         <v>99.590533333333326</v>
       </c>
-      <c r="AL134" s="75">
+      <c r="AL134" s="69">
         <v>85.341419999999999</v>
       </c>
       <c r="AM134" s="18">
@@ -19225,7 +19216,7 @@
       <c r="N135" s="14">
         <v>44.06175240129749</v>
       </c>
-      <c r="O135" s="56">
+      <c r="O135" s="52">
         <v>0.53504427766666673</v>
       </c>
       <c r="P135" s="14">
@@ -19243,7 +19234,7 @@
       <c r="T135" s="14">
         <v>40.173908540540666</v>
       </c>
-      <c r="U135" s="57">
+      <c r="U135" s="53">
         <v>2.0966275793109701</v>
       </c>
       <c r="V135" s="14">
@@ -19255,7 +19246,7 @@
       <c r="X135" s="18">
         <v>0.90136269039678352</v>
       </c>
-      <c r="Y135" s="56">
+      <c r="Y135" s="52">
         <v>10.3627744974515</v>
       </c>
       <c r="Z135" s="18">
@@ -19264,7 +19255,7 @@
       <c r="AA135" s="21">
         <v>90.134578420563656</v>
       </c>
-      <c r="AB135" s="62">
+      <c r="AB135" s="57">
         <v>91.356323507793959</v>
       </c>
       <c r="AC135" s="18">
@@ -19273,7 +19264,7 @@
       <c r="AD135" s="18">
         <v>91.666666666666657</v>
       </c>
-      <c r="AE135" s="68">
+      <c r="AE135" s="63">
         <v>25.3</v>
       </c>
       <c r="AF135" s="18">
@@ -19285,7 +19276,7 @@
       <c r="AH135" s="18">
         <v>91.675031129442502</v>
       </c>
-      <c r="AI135" s="70">
+      <c r="AI135" s="64">
         <v>88.912833333333339</v>
       </c>
       <c r="AJ135" s="34">
@@ -19294,7 +19285,7 @@
       <c r="AK135" s="18">
         <v>93.2</v>
       </c>
-      <c r="AL135" s="72">
+      <c r="AL135" s="66">
         <v>86.1631</v>
       </c>
       <c r="AM135" s="18">
@@ -19347,7 +19338,7 @@
       <c r="N136" s="14">
         <v>25.802300394011958</v>
       </c>
-      <c r="O136" s="56">
+      <c r="O136" s="52">
         <v>0.1777220534</v>
       </c>
       <c r="P136" s="14">
@@ -19365,7 +19356,7 @@
       <c r="T136" s="14">
         <v>39.770085913004834</v>
       </c>
-      <c r="U136" s="57">
+      <c r="U136" s="53">
         <v>0.86913823841422211</v>
       </c>
       <c r="V136" s="14">
@@ -19377,7 +19368,7 @@
       <c r="X136" s="18">
         <v>11.678963170697912</v>
       </c>
-      <c r="Y136" s="56">
+      <c r="Y136" s="52">
         <v>14.300680257647153</v>
       </c>
       <c r="Z136" s="18">
@@ -19386,7 +19377,7 @@
       <c r="AA136" s="21">
         <v>50.239066905992871</v>
       </c>
-      <c r="AB136" s="62">
+      <c r="AB136" s="57">
         <v>62.992353811985744</v>
       </c>
       <c r="AC136" s="18">
@@ -19395,7 +19386,7 @@
       <c r="AD136" s="18">
         <v>43.333333333333336</v>
       </c>
-      <c r="AE136" s="66">
+      <c r="AE136" s="61">
         <v>53</v>
       </c>
       <c r="AF136" s="18">
@@ -19407,7 +19398,7 @@
       <c r="AH136" s="18">
         <v>71.704334163229959</v>
       </c>
-      <c r="AI136" s="70">
+      <c r="AI136" s="64">
         <v>37.485780000000005</v>
       </c>
       <c r="AJ136" s="18">
@@ -19416,7 +19407,7 @@
       <c r="AK136" s="18">
         <v>60.264293333333342</v>
       </c>
-      <c r="AL136" s="72">
+      <c r="AL136" s="66">
         <v>23.236540000000002</v>
       </c>
       <c r="AM136" s="18">
@@ -19467,7 +19458,7 @@
       <c r="N137" s="14">
         <v>9.9120562549019606</v>
       </c>
-      <c r="O137" s="56">
+      <c r="O137" s="52">
         <v>0.26850495633333332</v>
       </c>
       <c r="P137" s="14">
@@ -19485,7 +19476,7 @@
       <c r="T137" s="14">
         <v>44.290250513056101</v>
       </c>
-      <c r="U137" s="57">
+      <c r="U137" s="53">
         <v>0</v>
       </c>
       <c r="V137" s="14">
@@ -19497,7 +19488,7 @@
       <c r="X137" s="18">
         <v>88.580501026112202</v>
       </c>
-      <c r="Y137" s="56">
+      <c r="Y137" s="52">
         <v>7.1348910005292057</v>
       </c>
       <c r="Z137" s="18">
@@ -19506,7 +19497,7 @@
       <c r="AA137" s="21">
         <v>87.984654073163142</v>
       </c>
-      <c r="AB137" s="62">
+      <c r="AB137" s="57">
         <v>99.969308146326284</v>
       </c>
       <c r="AC137" s="18">
@@ -19515,7 +19506,7 @@
       <c r="AD137" s="18">
         <v>100</v>
       </c>
-      <c r="AE137" s="66">
+      <c r="AE137" s="61">
         <v>7.7</v>
       </c>
       <c r="AF137" s="18">
@@ -19527,7 +19518,7 @@
       <c r="AH137" s="18">
         <v>99.907924438978824</v>
       </c>
-      <c r="AI137" s="70">
+      <c r="AI137" s="64">
         <v>76</v>
       </c>
       <c r="AJ137" s="18">
@@ -19536,7 +19527,7 @@
       <c r="AK137" s="18">
         <v>92</v>
       </c>
-      <c r="AL137" s="72">
+      <c r="AL137" s="66">
         <v>64</v>
       </c>
       <c r="AM137" s="18">
@@ -19589,7 +19580,7 @@
       <c r="N138" s="14">
         <v>36.085623951645061</v>
       </c>
-      <c r="O138" s="56">
+      <c r="O138" s="52">
         <v>0.28077960433333332</v>
       </c>
       <c r="P138" s="14">
@@ -19607,7 +19598,7 @@
       <c r="T138" s="14">
         <v>46.990802672363294</v>
       </c>
-      <c r="U138" s="57">
+      <c r="U138" s="53">
         <v>0.90126527622759611</v>
       </c>
       <c r="V138" s="14">
@@ -19619,7 +19610,7 @@
       <c r="X138" s="18">
         <v>25.642855390831865</v>
       </c>
-      <c r="Y138" s="56">
+      <c r="Y138" s="52">
         <v>7.8930235662173702</v>
       </c>
       <c r="Z138" s="18">
@@ -19628,7 +19619,7 @@
       <c r="AA138" s="21">
         <v>56.027791808148351</v>
       </c>
-      <c r="AB138" s="62">
+      <c r="AB138" s="57">
         <v>64.432941394074476</v>
       </c>
       <c r="AC138" s="18">
@@ -19637,7 +19628,7 @@
       <c r="AD138" s="18">
         <v>54.500000000000007</v>
       </c>
-      <c r="AE138" s="66">
+      <c r="AE138" s="61">
         <v>56.7</v>
       </c>
       <c r="AF138" s="18">
@@ -19649,7 +19640,7 @@
       <c r="AH138" s="18">
         <v>67.101854485253725</v>
       </c>
-      <c r="AI138" s="70">
+      <c r="AI138" s="64">
         <v>47.622642222222225</v>
       </c>
       <c r="AJ138" s="18">
@@ -19658,7 +19649,7 @@
       <c r="AK138" s="18">
         <v>70.516306666666679</v>
       </c>
-      <c r="AL138" s="72">
+      <c r="AL138" s="66">
         <v>32.256079999999997</v>
       </c>
       <c r="AM138" s="18">
@@ -19709,7 +19700,7 @@
       <c r="N139" s="14">
         <v>12.108277574774132</v>
       </c>
-      <c r="O139" s="56">
+      <c r="O139" s="52">
         <v>0.22041493773333332</v>
       </c>
       <c r="P139" s="14">
@@ -19727,7 +19718,7 @@
       <c r="T139" s="14">
         <v>39.066052236285358</v>
       </c>
-      <c r="U139" s="57">
+      <c r="U139" s="53">
         <v>0.283852892425633</v>
       </c>
       <c r="V139" s="14">
@@ -19739,7 +19730,7 @@
       <c r="X139" s="18">
         <v>24.993437996993045</v>
       </c>
-      <c r="Y139" s="56">
+      <c r="Y139" s="52">
         <v>6.7132094294716769</v>
       </c>
       <c r="Z139" s="18">
@@ -19748,7 +19739,7 @@
       <c r="AA139" s="21">
         <v>98.002219190108278</v>
       </c>
-      <c r="AB139" s="62">
+      <c r="AB139" s="57">
         <v>99.72638060243878</v>
       </c>
       <c r="AC139" s="18">
@@ -19757,7 +19748,7 @@
       <c r="AD139" s="18">
         <v>100</v>
       </c>
-      <c r="AE139" s="66">
+      <c r="AE139" s="61">
         <v>9.1999999999999993</v>
       </c>
       <c r="AF139" s="18">
@@ -19769,7 +19760,7 @@
       <c r="AH139" s="18">
         <v>99.17914180731637</v>
       </c>
-      <c r="AI139" s="70">
+      <c r="AI139" s="64">
         <v>96.278057777777775</v>
       </c>
       <c r="AJ139" s="18">
@@ -19778,7 +19769,7 @@
       <c r="AK139" s="18">
         <v>98.03182666666666</v>
       </c>
-      <c r="AL139" s="72">
+      <c r="AL139" s="66">
         <v>95.071860000000001</v>
       </c>
       <c r="AM139" s="18">
@@ -19829,7 +19820,7 @@
       <c r="N140" s="14">
         <v>27.781527305381676</v>
       </c>
-      <c r="O140" s="56">
+      <c r="O140" s="52">
         <v>0.32359383836666672</v>
       </c>
       <c r="P140" s="14">
@@ -19847,7 +19838,7 @@
       <c r="T140" s="14">
         <v>24.229559320450143</v>
       </c>
-      <c r="U140" s="57">
+      <c r="U140" s="53">
         <v>0.12101961800411901</v>
       </c>
       <c r="V140" s="14">
@@ -19859,7 +19850,7 @@
       <c r="X140" s="18">
         <v>6.5362710679024367</v>
       </c>
-      <c r="Y140" s="56">
+      <c r="Y140" s="52">
         <v>11.083404382983211</v>
       </c>
       <c r="Z140" s="18">
@@ -19868,7 +19859,7 @@
       <c r="AA140" s="21">
         <v>96.64558353064902</v>
       </c>
-      <c r="AB140" s="62">
+      <c r="AB140" s="57">
         <v>95.566424839075822</v>
       </c>
       <c r="AC140" s="18">
@@ -19877,7 +19868,7 @@
       <c r="AD140" s="18">
         <v>97.833333333333343</v>
       </c>
-      <c r="AE140" s="66">
+      <c r="AE140" s="61">
         <v>24.1</v>
       </c>
       <c r="AF140" s="18">
@@ -19889,16 +19880,16 @@
       <c r="AH140" s="18">
         <v>97.411395729348655</v>
       </c>
-      <c r="AI140" s="70">
+      <c r="AI140" s="64">
         <v>97.724742222222233</v>
       </c>
-      <c r="AJ140" s="64">
+      <c r="AJ140" s="59">
         <v>99.983829999999998</v>
       </c>
       <c r="AK140" s="18">
         <v>99.978440000000006</v>
       </c>
-      <c r="AL140" s="72">
+      <c r="AL140" s="66">
         <v>95.923940000000002</v>
       </c>
       <c r="AM140" s="18">
@@ -19951,7 +19942,7 @@
       <c r="N141" s="14">
         <v>47.237237220120782</v>
       </c>
-      <c r="O141" s="56">
+      <c r="O141" s="52">
         <v>0.52775913080000003</v>
       </c>
       <c r="P141" s="14">
@@ -19969,7 +19960,7 @@
       <c r="T141" s="14">
         <v>63.581552332012777</v>
       </c>
-      <c r="U141" s="57">
+      <c r="U141" s="53">
         <v>6.9755676783054996</v>
       </c>
       <c r="V141" s="14">
@@ -19981,7 +19972,7 @@
       <c r="X141" s="18">
         <v>31.90163910707145</v>
       </c>
-      <c r="Y141" s="56">
+      <c r="Y141" s="52">
         <v>7.5937841083351652</v>
       </c>
       <c r="Z141" s="18">
@@ -19990,7 +19981,7 @@
       <c r="AA141" s="21">
         <v>78.519434904392938</v>
       </c>
-      <c r="AB141" s="62">
+      <c r="AB141" s="57">
         <v>93.341180919896985</v>
       </c>
       <c r="AC141" s="18">
@@ -19999,7 +19990,7 @@
       <c r="AD141" s="18">
         <v>96.833333333333343</v>
       </c>
-      <c r="AE141" s="66">
+      <c r="AE141" s="61">
         <v>27.6</v>
       </c>
       <c r="AF141" s="18">
@@ -20011,7 +20002,7 @@
       <c r="AH141" s="18">
         <v>93.856876093024283</v>
       </c>
-      <c r="AI141" s="70">
+      <c r="AI141" s="64">
         <v>63.697688888888891</v>
       </c>
       <c r="AJ141" s="18">
@@ -20020,7 +20011,7 @@
       <c r="AK141" s="18">
         <v>77.600000000000009</v>
       </c>
-      <c r="AL141" s="72">
+      <c r="AL141" s="66">
         <v>54.815840000000001</v>
       </c>
       <c r="AM141" s="18">
@@ -20071,7 +20062,7 @@
       <c r="N142" s="14">
         <v>35.068363015219205</v>
       </c>
-      <c r="O142" s="56">
+      <c r="O142" s="52">
         <v>0.62802165576666669</v>
       </c>
       <c r="P142" s="14">
@@ -20089,7 +20080,7 @@
       <c r="T142" s="14">
         <v>31.040152973354601</v>
       </c>
-      <c r="U142" s="57">
+      <c r="U142" s="53">
         <v>0.176724142813421</v>
       </c>
       <c r="V142" s="14">
@@ -20101,7 +20092,7 @@
       <c r="X142" s="18">
         <v>15.17597967506304</v>
       </c>
-      <c r="Y142" s="56">
+      <c r="Y142" s="52">
         <v>6.1784712656463521</v>
       </c>
       <c r="Z142" s="18">
@@ -20110,7 +20101,7 @@
       <c r="AA142" s="21">
         <v>92.051921477862578</v>
       </c>
-      <c r="AB142" s="62">
+      <c r="AB142" s="57">
         <v>91.761332955725152</v>
       </c>
       <c r="AC142" s="18">
@@ -20119,7 +20110,7 @@
       <c r="AD142" s="18">
         <v>86.666666666666671</v>
       </c>
-      <c r="AE142" s="66">
+      <c r="AE142" s="61">
         <v>16.3</v>
       </c>
       <c r="AF142" s="18">
@@ -20131,7 +20122,7 @@
       <c r="AH142" s="18">
         <v>92.435514018690611</v>
       </c>
-      <c r="AI142" s="70">
+      <c r="AI142" s="64">
         <v>92.342510000000004</v>
       </c>
       <c r="AJ142" s="18">
@@ -20140,7 +20131,7 @@
       <c r="AK142" s="18">
         <v>96.169453333333337</v>
       </c>
-      <c r="AL142" s="72">
+      <c r="AL142" s="66">
         <v>89.664010000000005</v>
       </c>
       <c r="AM142" s="18">
@@ -20191,7 +20182,7 @@
       <c r="N143" s="14">
         <v>19.676074546987657</v>
       </c>
-      <c r="O143" s="56">
+      <c r="O143" s="52">
         <v>0.17659650996666668</v>
       </c>
       <c r="P143" s="14">
@@ -20209,7 +20200,7 @@
       <c r="T143" s="14">
         <v>41.540266248784739</v>
       </c>
-      <c r="U143" s="57">
+      <c r="U143" s="53">
         <v>2.7636516627456102</v>
       </c>
       <c r="V143" s="14">
@@ -20221,7 +20212,7 @@
       <c r="X143" s="18">
         <v>0</v>
       </c>
-      <c r="Y143" s="56">
+      <c r="Y143" s="52">
         <v>2.7266846091226564</v>
       </c>
       <c r="Z143" s="18">
@@ -20230,7 +20221,7 @@
       <c r="AA143" s="21">
         <v>89.28269295497438</v>
       </c>
-      <c r="AB143" s="62">
+      <c r="AB143" s="57">
         <v>93.119938443282081</v>
       </c>
       <c r="AC143" s="18">
@@ -20239,7 +20230,7 @@
       <c r="AD143" s="18">
         <v>90.499999999999986</v>
       </c>
-      <c r="AE143" s="66">
+      <c r="AE143" s="61">
         <v>21.6</v>
       </c>
       <c r="AF143" s="18">
@@ -20251,7 +20242,7 @@
       <c r="AH143" s="18">
         <v>95.890118360149302</v>
       </c>
-      <c r="AI143" s="70">
+      <c r="AI143" s="64">
         <v>85.445447466666664</v>
       </c>
       <c r="AJ143" s="18">
@@ -20260,7 +20251,7 @@
       <c r="AK143" s="18">
         <v>91.360599999999991</v>
       </c>
-      <c r="AL143" s="72">
+      <c r="AL143" s="66">
         <v>81.577265440000005</v>
       </c>
       <c r="AM143" s="18">
@@ -20313,7 +20304,7 @@
       <c r="N144" s="14">
         <v>33.121130304209188</v>
       </c>
-      <c r="O144" s="56">
+      <c r="O144" s="52">
         <v>0.45294667796666666</v>
       </c>
       <c r="P144" s="14">
@@ -20331,7 +20322,7 @@
       <c r="T144" s="14">
         <v>21.079917891483014</v>
       </c>
-      <c r="U144" s="57">
+      <c r="U144" s="53">
         <v>5.23557918648654E-2</v>
       </c>
       <c r="V144" s="14">
@@ -20343,7 +20334,7 @@
       <c r="X144" s="18">
         <v>11.260548907413853</v>
       </c>
-      <c r="Y144" s="56">
+      <c r="Y144" s="52">
         <v>30.323787061806605</v>
       </c>
       <c r="Z144" s="18">
@@ -20352,7 +20343,7 @@
       <c r="AA144" s="21">
         <v>59.227497091791371</v>
       </c>
-      <c r="AB144" s="62">
+      <c r="AB144" s="57">
         <v>67.022216405804969</v>
       </c>
       <c r="AC144" s="18">
@@ -20361,7 +20352,7 @@
       <c r="AD144" s="18">
         <v>60.333333333333336</v>
       </c>
-      <c r="AE144" s="66">
+      <c r="AE144" s="61">
         <v>55.3</v>
       </c>
       <c r="AF144" s="18">
@@ -20373,7 +20364,7 @@
       <c r="AH144" s="18">
         <v>68.18786133862703</v>
       </c>
-      <c r="AI144" s="70">
+      <c r="AI144" s="64">
         <v>51.432777777777773</v>
       </c>
       <c r="AJ144" s="18">
@@ -20382,7 +20373,7 @@
       <c r="AK144" s="18">
         <v>59.949266666666666</v>
       </c>
-      <c r="AL144" s="72">
+      <c r="AL144" s="66">
         <v>48.624659999999999</v>
       </c>
       <c r="AM144" s="18">
@@ -20435,7 +20426,7 @@
       <c r="N145" s="14">
         <v>37.158036284666608</v>
       </c>
-      <c r="O145" s="56">
+      <c r="O145" s="52">
         <v>0.6615409810666667</v>
       </c>
       <c r="P145" s="14">
@@ -20453,7 +20444,7 @@
       <c r="T145" s="14">
         <v>57.083124840919055</v>
       </c>
-      <c r="U145" s="57">
+      <c r="U145" s="53">
         <v>2.3849357793105499</v>
       </c>
       <c r="V145" s="14">
@@ -20465,7 +20456,7 @@
       <c r="X145" s="18">
         <v>33.024706339581464</v>
       </c>
-      <c r="Y145" s="56">
+      <c r="Y145" s="52">
         <v>13.494561554009845</v>
       </c>
       <c r="Z145" s="18">
@@ -20474,7 +20465,7 @@
       <c r="AA145" s="21">
         <v>58.594410552318735</v>
       </c>
-      <c r="AB145" s="62">
+      <c r="AB145" s="57">
         <v>60.374517036942223</v>
       </c>
       <c r="AC145" s="18">
@@ -20483,7 +20474,7 @@
       <c r="AD145" s="18">
         <v>31.833333333333336</v>
       </c>
-      <c r="AE145" s="66">
+      <c r="AE145" s="61">
         <v>63.4</v>
       </c>
       <c r="AF145" s="18">
@@ -20495,7 +20486,7 @@
       <c r="AH145" s="18">
         <v>81.653854141129713</v>
       </c>
-      <c r="AI145" s="70">
+      <c r="AI145" s="64">
         <v>56.814304067695254</v>
       </c>
       <c r="AJ145" s="18">
@@ -20504,7 +20495,7 @@
       <c r="AK145" s="18">
         <v>77.343560000000011</v>
       </c>
-      <c r="AL145" s="72">
+      <c r="AL145" s="66">
         <v>42.656543321851444</v>
       </c>
       <c r="AM145" s="18">
@@ -20573,13 +20564,13 @@
       <c r="T146" s="14">
         <v>68.049718054212505</v>
       </c>
-      <c r="U146" s="58">
+      <c r="U146" s="54">
         <v>5.3966511793902594</v>
       </c>
       <c r="V146" s="14">
         <v>91.885088816157349</v>
       </c>
-      <c r="W146" s="54">
+      <c r="W146" s="50">
         <v>9.6796542490695181</v>
       </c>
       <c r="X146" s="18">
@@ -20594,7 +20585,7 @@
       <c r="AA146" s="21">
         <v>59.839493905830921</v>
       </c>
-      <c r="AB146" s="62">
+      <c r="AB146" s="57">
         <v>56.344380033884057</v>
       </c>
       <c r="AC146" s="4">
@@ -20603,7 +20594,7 @@
       <c r="AD146" s="18">
         <v>33.833333333333329</v>
       </c>
-      <c r="AE146" s="67">
+      <c r="AE146" s="62">
         <v>56.4</v>
       </c>
       <c r="AF146" s="18">
@@ -20615,7 +20606,7 @@
       <c r="AH146" s="18">
         <v>63.321018889530968</v>
       </c>
-      <c r="AI146" s="70">
+      <c r="AI146" s="64">
         <v>63.334607777777777</v>
       </c>
       <c r="AJ146" s="3">
@@ -20624,7 +20615,7 @@
       <c r="AK146" s="18">
         <v>84.92456</v>
       </c>
-      <c r="AL146" s="62">
+      <c r="AL146" s="57">
         <v>47.570189999999997</v>
       </c>
       <c r="AM146" s="18">

--- a/sources/cdp/data/ldc_data_2018.xlsx
+++ b/sources/cdp/data/ldc_data_2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomas.Gonzalez\datascrapper2\sources\cdp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomas/Dropbox/Coding/datascrapper2/sources/cdp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA2EEA4-8F59-46C3-9136-8CBF1F9AA2E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994C7C44-BC65-CC43-8CCB-AB5BEC5B0FAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="195" windowWidth="18195" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="18200" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="9" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="331">
   <si>
     <t>AFG</t>
   </si>
@@ -1020,6 +1021,9 @@
   </si>
   <si>
     <t>entity</t>
+  </si>
+  <si>
+    <t>exposure_index</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1037,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="68" x14ac:knownFonts="1">
+  <fonts count="68">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2315,7 +2319,7 @@
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="67" fillId="0" borderId="0" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2465,6 +2469,9 @@
     </xf>
     <xf numFmtId="3" fontId="65" fillId="56" borderId="20" xfId="134" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="56" borderId="0" xfId="134" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="188">
@@ -2993,25 +3000,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AH8" sqref="AH8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" style="35" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" style="35" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="35" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="35"/>
-    <col min="7" max="7" width="13.140625" style="35" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="35"/>
-    <col min="10" max="10" width="10.28515625" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="35"/>
+    <col min="1" max="1" width="6.1640625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="35" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="35"/>
+    <col min="7" max="7" width="13.1640625" style="35" customWidth="1"/>
+    <col min="8" max="9" width="9.1640625" style="35"/>
+    <col min="10" max="10" width="10.33203125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="9.1640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="11" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" s="11" customFormat="1" ht="128">
       <c r="A1" s="71" t="s">
         <v>291</v>
       </c>
@@ -3024,9 +3031,11 @@
       <c r="D1" s="71" t="s">
         <v>327</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71" t="s">
+      <c r="E1" s="71" t="s">
         <v>328</v>
+      </c>
+      <c r="F1" s="74" t="s">
+        <v>330</v>
       </c>
       <c r="G1" s="43" t="s">
         <v>293</v>
@@ -3131,7 +3140,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A2" s="9">
         <v>4</v>
       </c>
@@ -3253,7 +3262,7 @@
         <v>632.65423772466465</v>
       </c>
     </row>
-    <row r="3" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A3" s="9">
         <v>12</v>
       </c>
@@ -3373,7 +3382,7 @@
         <v>4901.5571085561687</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A4" s="9">
         <v>24</v>
       </c>
@@ -3495,7 +3504,7 @@
         <v>4476.8765065493644</v>
       </c>
     </row>
-    <row r="5" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A5" s="9">
         <v>28</v>
       </c>
@@ -3615,7 +3624,7 @@
         <v>12903.161688599715</v>
       </c>
     </row>
-    <row r="6" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A6" s="9">
         <v>32</v>
       </c>
@@ -3735,7 +3744,7 @@
         <v>13156.532531280702</v>
       </c>
     </row>
-    <row r="7" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A7" s="9">
         <v>51</v>
       </c>
@@ -3855,7 +3864,7 @@
         <v>3988.3749094017512</v>
       </c>
     </row>
-    <row r="8" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A8" s="9">
         <v>31</v>
       </c>
@@ -3975,7 +3984,7 @@
         <v>6447.2308180536902</v>
       </c>
     </row>
-    <row r="9" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A9" s="9">
         <v>44</v>
       </c>
@@ -4095,7 +4104,7 @@
         <v>29563.464912315249</v>
       </c>
     </row>
-    <row r="10" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A10" s="9">
         <v>48</v>
       </c>
@@ -4215,7 +4224,7 @@
         <v>22778.522398754922</v>
       </c>
     </row>
-    <row r="11" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A11" s="9">
         <v>50</v>
       </c>
@@ -4337,7 +4346,7 @@
         <v>1274.0802062018874</v>
       </c>
     </row>
-    <row r="12" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A12" s="9">
         <v>52</v>
       </c>
@@ -4457,7 +4466,7 @@
         <v>15206.543420614236</v>
       </c>
     </row>
-    <row r="13" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A13" s="9">
         <v>84</v>
       </c>
@@ -4577,7 +4586,7 @@
         <v>4437.9848276652237</v>
       </c>
     </row>
-    <row r="14" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A14" s="9">
         <v>204</v>
       </c>
@@ -4699,7 +4708,7 @@
         <v>882.03959931991085</v>
       </c>
     </row>
-    <row r="15" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A15" s="9">
         <v>64</v>
       </c>
@@ -4821,7 +4830,7 @@
         <v>2400.7762055366238</v>
       </c>
     </row>
-    <row r="16" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A16" s="9">
         <v>68</v>
       </c>
@@ -4941,7 +4950,7 @@
         <v>2980.9007228112387</v>
       </c>
     </row>
-    <row r="17" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A17" s="9">
         <v>72</v>
       </c>
@@ -5061,7 +5070,7 @@
         <v>6845.2147621064951</v>
       </c>
     </row>
-    <row r="18" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A18" s="9">
         <v>76</v>
       </c>
@@ -5181,7 +5190,7 @@
         <v>10319.356356470083</v>
       </c>
     </row>
-    <row r="19" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A19" s="9">
         <v>96</v>
       </c>
@@ -5301,7 +5310,7 @@
         <v>38145.482234647126</v>
       </c>
     </row>
-    <row r="20" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A20" s="9">
         <v>854</v>
       </c>
@@ -5423,7 +5432,7 @@
         <v>643.36287564991062</v>
       </c>
     </row>
-    <row r="21" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A21" s="9">
         <v>108</v>
       </c>
@@ -5545,7 +5554,7 @@
         <v>261.31609042155225</v>
       </c>
     </row>
-    <row r="22" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A22" s="9">
         <v>132</v>
       </c>
@@ -5665,7 +5674,7 @@
         <v>3161.3137687686212</v>
       </c>
     </row>
-    <row r="23" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A23" s="9">
         <v>116</v>
       </c>
@@ -5787,7 +5796,7 @@
         <v>1074.6703619458397</v>
       </c>
     </row>
-    <row r="24" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A24" s="9">
         <v>120</v>
       </c>
@@ -5907,7 +5916,7 @@
         <v>1464.2823215817591</v>
       </c>
     </row>
-    <row r="25" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A25" s="9">
         <v>140</v>
       </c>
@@ -6029,7 +6038,7 @@
         <v>370.04501677373446</v>
       </c>
     </row>
-    <row r="26" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A26" s="9">
         <v>148</v>
       </c>
@@ -6151,7 +6160,7 @@
         <v>920.57113373912534</v>
       </c>
     </row>
-    <row r="27" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A27" s="9">
         <v>152</v>
       </c>
@@ -6271,7 +6280,7 @@
         <v>14335.606074925274</v>
       </c>
     </row>
-    <row r="28" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A28" s="9">
         <v>156</v>
       </c>
@@ -6391,7 +6400,7 @@
         <v>7823.7225765244575</v>
       </c>
     </row>
-    <row r="29" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A29" s="9">
         <v>170</v>
       </c>
@@ -6511,7 +6520,7 @@
         <v>7123.7877637343227</v>
       </c>
     </row>
-    <row r="30" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A30" s="9">
         <v>174</v>
       </c>
@@ -6633,7 +6642,7 @@
         <v>1595.0066251079909</v>
       </c>
     </row>
-    <row r="31" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A31" s="9">
         <v>178</v>
       </c>
@@ -6753,7 +6762,7 @@
         <v>2179.7002587607572</v>
       </c>
     </row>
-    <row r="32" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A32" s="9">
         <v>188</v>
       </c>
@@ -6873,7 +6882,7 @@
         <v>10543.933338496541</v>
       </c>
     </row>
-    <row r="33" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A33" s="9">
         <v>384</v>
       </c>
@@ -6993,7 +7002,7 @@
         <v>1483.2770834500698</v>
       </c>
     </row>
-    <row r="34" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A34" s="9">
         <v>192</v>
       </c>
@@ -7113,7 +7122,7 @@
         <v>7065.3845991412736</v>
       </c>
     </row>
-    <row r="35" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A35" s="9">
         <v>196</v>
       </c>
@@ -7233,7 +7242,7 @@
         <v>25751.66383810031</v>
       </c>
     </row>
-    <row r="36" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A36" s="9">
         <v>408</v>
       </c>
@@ -7353,7 +7362,7 @@
         <v>668.21536900628428</v>
       </c>
     </row>
-    <row r="37" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A37" s="9">
         <v>180</v>
       </c>
@@ -7475,7 +7484,7 @@
         <v>480.5417220348989</v>
       </c>
     </row>
-    <row r="38" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A38" s="9">
         <v>262</v>
       </c>
@@ -7597,7 +7606,7 @@
         <v>1893.7387731489607</v>
       </c>
     </row>
-    <row r="39" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A39" s="9">
         <v>212</v>
       </c>
@@ -7717,7 +7726,7 @@
         <v>6546.9513705612253</v>
       </c>
     </row>
-    <row r="40" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A40" s="9">
         <v>214</v>
       </c>
@@ -7837,7 +7846,7 @@
         <v>6256.0069004436455</v>
       </c>
     </row>
-    <row r="41" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A41" s="9">
         <v>218</v>
       </c>
@@ -7957,7 +7966,7 @@
         <v>5992.8556207023066</v>
       </c>
     </row>
-    <row r="42" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A42" s="9">
         <v>818</v>
       </c>
@@ -8077,7 +8086,7 @@
         <v>3340.3136636450604</v>
       </c>
     </row>
-    <row r="43" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A43" s="9">
         <v>222</v>
       </c>
@@ -8197,7 +8206,7 @@
         <v>3851.1412955378091</v>
       </c>
     </row>
-    <row r="44" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A44" s="9">
         <v>226</v>
       </c>
@@ -8317,7 +8326,7 @@
         <v>9665.4432872706275</v>
       </c>
     </row>
-    <row r="45" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A45" s="9">
         <v>232</v>
       </c>
@@ -8439,7 +8448,7 @@
         <v>861.72974696277254</v>
       </c>
     </row>
-    <row r="46" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A46" s="9">
         <v>231</v>
       </c>
@@ -8561,7 +8570,7 @@
         <v>644.27408135491157</v>
       </c>
     </row>
-    <row r="47" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A47" s="9">
         <v>242</v>
       </c>
@@ -8681,7 +8690,7 @@
         <v>4779.3385625579431</v>
       </c>
     </row>
-    <row r="48" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A48" s="9">
         <v>266</v>
       </c>
@@ -8801,7 +8810,7 @@
         <v>8000.5658801576765</v>
       </c>
     </row>
-    <row r="49" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A49" s="9">
         <v>270</v>
       </c>
@@ -8923,7 +8932,7 @@
         <v>449.07004206601431</v>
       </c>
     </row>
-    <row r="50" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A50" s="9">
         <v>268</v>
       </c>
@@ -9043,7 +9052,7 @@
         <v>3894.087202077872</v>
       </c>
     </row>
-    <row r="51" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A51" s="9">
         <v>288</v>
       </c>
@@ -9163,7 +9172,7 @@
         <v>1480.8724341152026</v>
       </c>
     </row>
-    <row r="52" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A52" s="9">
         <v>308</v>
       </c>
@@ -9283,7 +9292,7 @@
         <v>8553.1849134776003</v>
       </c>
     </row>
-    <row r="53" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A53" s="9">
         <v>320</v>
       </c>
@@ -9403,7 +9412,7 @@
         <v>3616.7635999709419</v>
       </c>
     </row>
-    <row r="54" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A54" s="9">
         <v>324</v>
       </c>
@@ -9525,7 +9534,7 @@
         <v>678.26270309720087</v>
       </c>
     </row>
-    <row r="55" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A55" s="9">
         <v>624</v>
       </c>
@@ -9647,7 +9656,7 @@
         <v>595.15146849476639</v>
       </c>
     </row>
-    <row r="56" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A56" s="9">
         <v>328</v>
       </c>
@@ -9767,7 +9776,7 @@
         <v>4159.0675613180201</v>
       </c>
     </row>
-    <row r="57" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A57" s="9">
         <v>332</v>
       </c>
@@ -9889,7 +9898,7 @@
         <v>814.29163997220451</v>
       </c>
     </row>
-    <row r="58" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A58" s="9">
         <v>340</v>
       </c>
@@ -10009,7 +10018,7 @@
         <v>2093.4127024570994</v>
       </c>
     </row>
-    <row r="59" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A59" s="9">
         <v>356</v>
       </c>
@@ -10129,7 +10138,7 @@
         <v>1590.7027108065097</v>
       </c>
     </row>
-    <row r="60" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A60" s="9">
         <v>360</v>
       </c>
@@ -10249,7 +10258,7 @@
         <v>3639.7342036035511</v>
       </c>
     </row>
-    <row r="61" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A61" s="9">
         <v>364</v>
       </c>
@@ -10369,7 +10378,7 @@
         <v>5812.5740690925713</v>
       </c>
     </row>
-    <row r="62" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A62" s="9">
         <v>368</v>
       </c>
@@ -10489,7 +10498,7 @@
         <v>5426.9073718785885</v>
       </c>
     </row>
-    <row r="63" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A63" s="9">
         <v>376</v>
       </c>
@@ -10609,7 +10618,7 @@
         <v>37420.160568811734</v>
       </c>
     </row>
-    <row r="64" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A64" s="9">
         <v>388</v>
       </c>
@@ -10729,7 +10738,7 @@
         <v>4747.334687405043</v>
       </c>
     </row>
-    <row r="65" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A65" s="9">
         <v>400</v>
       </c>
@@ -10849,7 +10858,7 @@
         <v>3893.3096127887511</v>
       </c>
     </row>
-    <row r="66" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A66" s="9">
         <v>398</v>
       </c>
@@ -10969,7 +10978,7 @@
         <v>10633.497877467418</v>
       </c>
     </row>
-    <row r="67" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A67" s="9">
         <v>404</v>
       </c>
@@ -11089,7 +11098,7 @@
         <v>1316.0538058179379</v>
       </c>
     </row>
-    <row r="68" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A68" s="9">
         <v>296</v>
       </c>
@@ -11211,7 +11220,7 @@
         <v>2986.2301857558091</v>
       </c>
     </row>
-    <row r="69" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A69" s="9">
         <v>414</v>
       </c>
@@ -11331,7 +11340,7 @@
         <v>41537.448511051152</v>
       </c>
     </row>
-    <row r="70" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A70" s="9">
         <v>417</v>
       </c>
@@ -11451,7 +11460,7 @@
         <v>1201.5507824455451</v>
       </c>
     </row>
-    <row r="71" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A71" s="9">
         <v>418</v>
       </c>
@@ -11573,7 +11582,7 @@
         <v>1996.1562849076156</v>
       </c>
     </row>
-    <row r="72" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A72" s="9">
         <v>422</v>
       </c>
@@ -11693,7 +11702,7 @@
         <v>8131.3607497622652</v>
       </c>
     </row>
-    <row r="73" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A73" s="9">
         <v>426</v>
       </c>
@@ -11815,7 +11824,7 @@
         <v>1296.4464947082643</v>
       </c>
     </row>
-    <row r="74" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A74" s="9">
         <v>430</v>
       </c>
@@ -11937,7 +11946,7 @@
         <v>430.67092690080034</v>
       </c>
     </row>
-    <row r="75" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A75" s="9">
         <v>434</v>
       </c>
@@ -12057,7 +12066,7 @@
         <v>6046.9048233007807</v>
       </c>
     </row>
-    <row r="76" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A76" s="9">
         <v>450</v>
       </c>
@@ -12179,7 +12188,7 @@
         <v>485.86757512287778</v>
       </c>
     </row>
-    <row r="77" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A77" s="9">
         <v>454</v>
       </c>
@@ -12301,7 +12310,7 @@
         <v>331.44155447149325</v>
       </c>
     </row>
-    <row r="78" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A78" s="9">
         <v>458</v>
       </c>
@@ -12421,7 +12430,7 @@
         <v>10431.646787593452</v>
       </c>
     </row>
-    <row r="79" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A79" s="9">
         <v>462</v>
       </c>
@@ -12541,7 +12550,7 @@
         <v>9199.563328780665</v>
       </c>
     </row>
-    <row r="80" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A80" s="9">
         <v>466</v>
       </c>
@@ -12663,7 +12672,7 @@
         <v>800.59173931088787</v>
       </c>
     </row>
-    <row r="81" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A81" s="9">
         <v>584</v>
       </c>
@@ -12783,7 +12792,7 @@
         <v>4661.0267511396232</v>
       </c>
     </row>
-    <row r="82" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A82" s="9">
         <v>478</v>
       </c>
@@ -12905,7 +12914,7 @@
         <v>1229.630588830817</v>
       </c>
     </row>
-    <row r="83" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A83" s="9">
         <v>480</v>
       </c>
@@ -13025,7 +13034,7 @@
         <v>9808.0087409375683</v>
       </c>
     </row>
-    <row r="84" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A84" s="9">
         <v>484</v>
       </c>
@@ -13145,7 +13154,7 @@
         <v>9882.3780353550392</v>
       </c>
     </row>
-    <row r="85" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A85" s="9">
         <v>583</v>
       </c>
@@ -13265,7 +13274,7 @@
         <v>3508.3941860577706</v>
       </c>
     </row>
-    <row r="86" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A86" s="9">
         <v>496</v>
       </c>
@@ -13385,7 +13394,7 @@
         <v>3892.3950989443151</v>
       </c>
     </row>
-    <row r="87" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A87" s="9">
         <v>504</v>
       </c>
@@ -13505,7 +13514,7 @@
         <v>3058.2341907471377</v>
       </c>
     </row>
-    <row r="88" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A88" s="9">
         <v>508</v>
       </c>
@@ -13627,7 +13636,7 @@
         <v>564.12024883296783</v>
       </c>
     </row>
-    <row r="89" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A89" s="9">
         <v>104</v>
       </c>
@@ -13749,7 +13758,7 @@
         <v>1254.9303337588592</v>
       </c>
     </row>
-    <row r="90" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A90" s="9">
         <v>516</v>
       </c>
@@ -13869,7 +13878,7 @@
         <v>5224.9376732378578</v>
       </c>
     </row>
-    <row r="91" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A91" s="9">
         <v>520</v>
       </c>
@@ -13989,7 +13998,7 @@
         <v>11169.15885785369</v>
       </c>
     </row>
-    <row r="92" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A92" s="9">
         <v>524</v>
       </c>
@@ -14111,7 +14120,7 @@
         <v>744.6555928966676</v>
       </c>
     </row>
-    <row r="93" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A93" s="9">
         <v>558</v>
       </c>
@@ -14231,7 +14240,7 @@
         <v>1967.0038440781675</v>
       </c>
     </row>
-    <row r="94" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A94" s="9">
         <v>562</v>
       </c>
@@ -14353,7 +14362,7 @@
         <v>393.13305374510543</v>
       </c>
     </row>
-    <row r="95" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A95" s="9">
         <v>566</v>
       </c>
@@ -14473,7 +14482,7 @@
         <v>2769.6420171352415</v>
       </c>
     </row>
-    <row r="96" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A96" s="9">
         <v>512</v>
       </c>
@@ -14593,7 +14602,7 @@
         <v>17132.743529840238</v>
       </c>
     </row>
-    <row r="97" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A97" s="9">
         <v>586</v>
       </c>
@@ -14713,7 +14722,7 @@
         <v>1502.1709972363251</v>
       </c>
     </row>
-    <row r="98" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A98" s="9">
         <v>585</v>
       </c>
@@ -14833,7 +14842,7 @@
         <v>11751.638125885578</v>
       </c>
     </row>
-    <row r="99" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A99" s="9">
         <v>591</v>
       </c>
@@ -14953,7 +14962,7 @@
         <v>11804.414135470341</v>
       </c>
     </row>
-    <row r="100" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A100" s="9">
         <v>598</v>
       </c>
@@ -15073,7 +15082,7 @@
         <v>2732.5034303370726</v>
       </c>
     </row>
-    <row r="101" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A101" s="9">
         <v>600</v>
       </c>
@@ -15193,7 +15202,7 @@
         <v>4259.6990063221165</v>
       </c>
     </row>
-    <row r="102" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A102" s="9">
         <v>604</v>
       </c>
@@ -15313,7 +15322,7 @@
         <v>6151.5322203926999</v>
       </c>
     </row>
-    <row r="103" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A103" s="9">
         <v>608</v>
       </c>
@@ -15433,7 +15442,7 @@
         <v>3525.0457974468823</v>
       </c>
     </row>
-    <row r="104" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A104" s="9">
         <v>634</v>
       </c>
@@ -15553,7 +15562,7 @@
         <v>75073.822040177009</v>
       </c>
     </row>
-    <row r="105" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A105" s="9">
         <v>410</v>
       </c>
@@ -15673,7 +15682,7 @@
         <v>27456.044648137762</v>
       </c>
     </row>
-    <row r="106" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A106" s="9">
         <v>646</v>
       </c>
@@ -15795,7 +15804,7 @@
         <v>706.92720390965167</v>
       </c>
     </row>
-    <row r="107" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A107" s="9">
         <v>659</v>
       </c>
@@ -15915,7 +15924,7 @@
         <v>15372.874224065779</v>
       </c>
     </row>
-    <row r="108" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A108" s="9">
         <v>662</v>
       </c>
@@ -16035,7 +16044,7 @@
         <v>7033.3527335317076</v>
       </c>
     </row>
-    <row r="109" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A109" s="9">
         <v>670</v>
       </c>
@@ -16155,7 +16164,7 @@
         <v>6623.0594372485357</v>
       </c>
     </row>
-    <row r="110" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A110" s="9">
         <v>882</v>
       </c>
@@ -16275,7 +16284,7 @@
         <v>4123.6943461845804</v>
       </c>
     </row>
-    <row r="111" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A111" s="9">
         <v>678</v>
       </c>
@@ -16397,7 +16406,7 @@
         <v>1684.0204720184095</v>
       </c>
     </row>
-    <row r="112" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A112" s="9">
         <v>682</v>
       </c>
@@ -16517,7 +16526,7 @@
         <v>23674.178207509289</v>
       </c>
     </row>
-    <row r="113" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A113" s="9">
         <v>686</v>
       </c>
@@ -16639,7 +16648,7 @@
         <v>1004.0663478861744</v>
       </c>
     </row>
-    <row r="114" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A114" s="9">
         <v>690</v>
       </c>
@@ -16759,7 +16768,7 @@
         <v>13632.447693857559</v>
       </c>
     </row>
-    <row r="115" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A115" s="9">
         <v>694</v>
       </c>
@@ -16881,7 +16890,7 @@
         <v>582.07022316485484</v>
       </c>
     </row>
-    <row r="116" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A116" s="9">
         <v>702</v>
       </c>
@@ -17001,7 +17010,7 @@
         <v>53503.527598103079</v>
       </c>
     </row>
-    <row r="117" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A117" s="9">
         <v>90</v>
       </c>
@@ -17123,7 +17132,7 @@
         <v>1763.0831284658445</v>
       </c>
     </row>
-    <row r="118" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A118" s="9">
         <v>706</v>
       </c>
@@ -17245,7 +17254,7 @@
         <v>95.114500515411123</v>
       </c>
     </row>
-    <row r="119" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A119" s="9">
         <v>710</v>
       </c>
@@ -17365,7 +17374,7 @@
         <v>6099.1911434172098</v>
       </c>
     </row>
-    <row r="120" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A120" s="9">
         <v>728</v>
       </c>
@@ -17487,7 +17496,7 @@
         <v>1302.6833733042615</v>
       </c>
     </row>
-    <row r="121" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A121" s="9">
         <v>144</v>
       </c>
@@ -17607,7 +17616,7 @@
         <v>3773.3608210921407</v>
       </c>
     </row>
-    <row r="122" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A122" s="9">
         <v>729</v>
       </c>
@@ -17729,7 +17738,7 @@
         <v>1452.0636784558521</v>
       </c>
     </row>
-    <row r="123" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A123" s="9">
         <v>740</v>
       </c>
@@ -17849,7 +17858,7 @@
         <v>8394.0179107323347</v>
       </c>
     </row>
-    <row r="124" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A124" s="9">
         <v>748</v>
       </c>
@@ -17969,7 +17978,7 @@
         <v>2764.374093652008</v>
       </c>
     </row>
-    <row r="125" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A125" s="9">
         <v>760</v>
       </c>
@@ -18089,7 +18098,7 @@
         <v>1523.4857895870362</v>
       </c>
     </row>
-    <row r="126" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A126" s="9">
         <v>762</v>
       </c>
@@ -18209,7 +18218,7 @@
         <v>1308.9984692500484</v>
       </c>
     </row>
-    <row r="127" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A127" s="9">
         <v>764</v>
       </c>
@@ -18329,7 +18338,7 @@
         <v>5706.3947861256611</v>
       </c>
     </row>
-    <row r="128" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A128" s="9">
         <v>626</v>
       </c>
@@ -18451,7 +18460,7 @@
         <v>2655.9300167633414</v>
       </c>
     </row>
-    <row r="129" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A129" s="9">
         <v>768</v>
       </c>
@@ -18573,7 +18582,7 @@
         <v>554.93606538037284</v>
       </c>
     </row>
-    <row r="130" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A130" s="9">
         <v>776</v>
       </c>
@@ -18693,7 +18702,7 @@
         <v>4245.6498681816056</v>
       </c>
     </row>
-    <row r="131" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A131" s="9">
         <v>780</v>
       </c>
@@ -18813,7 +18822,7 @@
         <v>17974.720952692256</v>
       </c>
     </row>
-    <row r="132" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A132" s="9">
         <v>788</v>
       </c>
@@ -18933,7 +18942,7 @@
         <v>3882.0190335291986</v>
       </c>
     </row>
-    <row r="133" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A133" s="9">
         <v>792</v>
       </c>
@@ -19053,7 +19062,7 @@
         <v>11945.67852673336</v>
       </c>
     </row>
-    <row r="134" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A134" s="9">
         <v>795</v>
       </c>
@@ -19173,7 +19182,7 @@
         <v>7047.4479082491371</v>
       </c>
     </row>
-    <row r="135" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A135" s="9">
         <v>798</v>
       </c>
@@ -19295,7 +19304,7 @@
         <v>5387.6009635110286</v>
       </c>
     </row>
-    <row r="136" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A136" s="9">
         <v>800</v>
       </c>
@@ -19417,7 +19426,7 @@
         <v>661.28449971398834</v>
       </c>
     </row>
-    <row r="137" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A137" s="9">
         <v>784</v>
       </c>
@@ -19537,7 +19546,7 @@
         <v>42772.496059180012</v>
       </c>
     </row>
-    <row r="138" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A138" s="9">
         <v>834</v>
       </c>
@@ -19659,7 +19668,7 @@
         <v>901.74524134384944</v>
       </c>
     </row>
-    <row r="139" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A139" s="9">
         <v>858</v>
       </c>
@@ -19779,7 +19788,7 @@
         <v>15772.052180228782</v>
       </c>
     </row>
-    <row r="140" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A140" s="9">
         <v>860</v>
       </c>
@@ -19899,7 +19908,7 @@
         <v>2247.4838664097256</v>
       </c>
     </row>
-    <row r="141" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A141" s="9">
         <v>548</v>
       </c>
@@ -20021,7 +20030,7 @@
         <v>3014.2252946961016</v>
       </c>
     </row>
-    <row r="142" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A142" s="9">
         <v>862</v>
       </c>
@@ -20141,7 +20150,7 @@
         <v>10277.946597922253</v>
       </c>
     </row>
-    <row r="143" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A143" s="9">
         <v>704</v>
       </c>
@@ -20261,7 +20270,7 @@
         <v>1951.2369895813038</v>
       </c>
     </row>
-    <row r="144" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A144" s="9">
         <v>887</v>
       </c>
@@ -20383,7 +20392,7 @@
         <v>954.32544474270151</v>
       </c>
     </row>
-    <row r="145" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A145" s="9">
         <v>894</v>
       </c>
@@ -20505,7 +20514,7 @@
         <v>1560.8275383950092</v>
       </c>
     </row>
-    <row r="146" spans="1:40" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:40" s="11" customFormat="1" ht="16">
       <c r="A146" s="9">
         <v>716</v>
       </c>
